--- a/강철/토픽모델링/toipic_result.xlsx
+++ b/강철/토픽모델링/toipic_result.xlsx
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>4585</v>
+        <v>5283</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_이스라엘_하마스_가자지구_전쟁</t>
+          <t>-1_하마스_공격_전쟁_정부</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['이스라엘', '하마스', '가자지구', '전쟁', '미국', '팔레스타인', '공격', '의원']</t>
+          <t>['하마스', '공격', '전쟁', '정부', '공습', '무장', '상황', '주민', '지원', '인질', '병원', '피해', '발생', '사람', '중동']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['미국 이미지 출처 연합뉴스 미국 현지 이스라엘 팔레스타인 무장 정파 하마스 전쟁 하마스 기습 공격 이전 상태 이스라엘 대응 권리 확인 이스라엘 전쟁법 준수 민간 피해 최소 강조 이스라엘 하마스 무력 충돌 해법 국가 해법 제시 앤서니 호주 총리 정상 회담 회견 하마스 잔인 파괴 행위 이스라엘 국민 분노 완전 이해 이스라엘 하마스 자국민 학살 대응 권리 책임 입장 이스라엘 테러리스트 방어 보장 하마스 민간 행동 하마스 이스라엘 추가 부담 이스라엘 전쟁법 작전 수행 강조 이스라엘 민간인 보호 촉구 가자지구 인도주의 지원 공급 파트너 노력 하마스 억류 인질 문제 미국인 포함 인질 석방 파트너 노력 인질 석방 베냐민 네타냐후 이스라엘 총리 지상전 연기 요구 질문 사람 구출 문제 구출 방법 구출 구출 팔레스타인 인명 피해 발표 사람 팔레스타인 진실 생각 팔레스타인 인명 피해 수치 확신 하마스 이스라엘 기습 공격 공격 전인 이전 현상 유지 상황 하마스 이스라엘 공포 팔레스타인 민간인 방패 보장 사태 해결 국가 해법 대안 제시 사태 해결 제언 국가 해법 이스라엘 팔레스타인 분쟁 종결 팔레스타인 독립국 인정 이스라엘 공존 방안 이스라엘 팔레스타인 동등 존엄 평화 자격 서안 지구 팔레스타인 주민 공격 극단주의 이스라엘 정착민 우려 중단 책임 이스라엘 사우디아라비아 관계 정상 협상 하마스 공격 이유 전반 통합 진전 직감 이란 개입 이스라엘 하마스 전쟁 확대 우려 미군 테러 중동 주둔 거론 아야 툴라 최고 경고 군대 대항 경우 대응 경고 이지은', '이스라엘 병사 남부 도시 아스 인근 하마스 장악 가자지구 북부 전투 연합뉴스 팔레스타인 무장 정파 하마스 근거지 가자지구 북부 민간인 대피 가운데 이스라엘 공습 서방 각국 민간 희생 우려 이스라엘 지상군 투입 목소리 가자지구 북부 공습 집중 현지 타임스 오브 이스라엘 로이터 통신 병원 근처 폭탄 하마스 새벽 기습 이스라엘 폭격 이스라엘 하마스 군사 본부 로켓 발사장 폭격 이스라엘 공격 하마스 고위 사령관 무타즈 이드 이스라엘 가자지구 진입 한창 전날 이스라엘 공군 며칠 동안 육군 최고 지휘관 전투기 북부 상공 조감 이스라엘 육군 지휘관 가자지구 이스라엘 철수 자시 이스라엘 공습 열흘 오전 집계 팔레스타인 누적 사망자 부상자 하마스 기습 공격 이스라엘 사망자 집계 이스라엘 현지 보도 베냐민 네타냐후 이스라엘 총리 미국 미국 이스라엘 방문 제안 이스라엘 일간 레츠 소식통 이스라엘 방문 보도 통신 당초 콜로라도주 방문 일정 취소 상태 나흘 이스라엘 방문 토니 링컨 국방 장관 네타냐후 총리 방문 협의 가자지구 민간인 우려 상황 서방 이스라엘 지상 공세 미지수 인터뷰 하마스 제거 하마스 팔레스타인 주민 대표 이스라엘 가자지구 점령 실수 강조 뉴욕 타임스 발언 하마스 공격 대응 이스라엘 자제 촉구 공개 노력 워싱턴 이스라엘 지상전 예상 피해 완화 움직임 가운데 이스라엘 군사 작전 전적 일부 변화 풀이 발언 국제 사회 이스라엘 지상군 투입 우려 목소리 와중 파이낸셜 타임스 서방 다수 국가 네타냐후 총리 가자지구 인도 지원 제한 하마스 파괴 장기 계획 지상전 연기 촉구 인질 추가 확인 상황 하마스 인질 가자지구 봉쇄 이스라엘 태도 보도 이스라엘 당국 전날 피란민 가자지구 남부 공급 재개 이스라엘 하마스 납치 인질 기존 파악 다니엘 하가리 이스라엘 대변인 추가 확인 결과 가족 통보 추가 확인 인질 외국 국적 포함 현지 확인 인질 우려 인질 사태 나세르 카나 외무부 대변인 월스트리트 저널 하마스 가자지구 억류 인질 석방 이스라엘 폭격 주장 전설 이스라엘 합의 양측 일시 휴전 남부 이집트 유일 통행로 라파 통로 동안 개방 보도 이스라엘 하마스 양측 합의 로이터 통신 이스라엘 가자지구 공습 강화 휴전 계획 지연 상황 현재 민간인 이집트 대피 튀르 아랍에미리트 요르단 튀니지 아랍 세계 보건 기구 구호 물품 제공 상황 가자지구 의료 체계 한계점 도달 상황 유엔 인도주의 조정 국은 오전 병원 연료 축량 정도 예비 발전기 환자 생명 위험 의료 정도 남부 라파 병원 사망자 아이스크림 이용 시신 남부 대피 거리 가자지구 북부 이스라엘 대피 사흘 동안 북부 인구 남쪽 추정 남부 중심 도시 유니스 기존 인구 피란민 거주 인구 밀도 피란민 상당수 거리 유엔 마련 피소 병원 피난처 이스라엘 가자지구 병원 철수 명령 피란민 대피 하마스 민간인 공격 사망 이스라엘 주장 조나단 콘리 쿠스 이스라엘 대변인 남쪽 탈출 사망 어린이 국제 사회 이스라엘 비난 하마스 거짓 깃발 작전 주장 하마스 시티 남쪽 민간인 차량 공습 아랍 국가 이스라엘 공습 비판 압델 파타 이집트 하마스 공격 이스라엘 자위권 집단 처벌 비판 카타르 사우디아라비아 외무부 가자지구 북부 주민 남쪽 이스라엘 강제 철수 거부 전쟁 이스라엘 북부 확대 우려 이스라엘 레바논 남부 무장 정파 헤즈 볼라 군사 기지 공격 연일 헤즈 볼라 공격 반복 레바논 국경 최대 이내 마을 거주 민간인 대피 계획 전날 헤즈 볼라 레바논 이스라엘 영토 대전차 미사일 발사 최소', '로이터 국내 최대 해외 투자 정보 플랫 한경 글로벌 마켓 게재 이스라엘 지상전 선포 제한 지상전 북부 일부 장악 희생 민간 피해 이스라엘 비판 최소 전면전 정밀 격전 선택 속도전 대신 선회 보장 전쟁사 증명 이스라엘 정부 싸움 전망 이유 이스라엘 하마스 전쟁 장기전 러시아 우크라 전쟁 전쟁 기정사실 불안감 가중 인플레이션 싸움 장기전 양상 둔화 속도 정도 지리멸렬 상황 이스라엘 하마스 전쟁 중동 전쟁 비화 쇼크 일정 대기 변수 전쟁 예상 메가톤 사건 변수 마지막 레드라인 주요 일정 이슈 지상전 비극 이유 이스라엘 하마스 전쟁 단계 전쟁 단계 공습 하마스 인프라 단계 지상전 하마스 자체 궤멸 단계 가자지구 이스라엘 정부 중요 단계 단계 희생 민간인 하마스 대원 구분 이스라엘 병원 학교 이슬람 사원 하마스 근거지 민간인 인간 방패 의심 지상전 민간인 병원 문제 환자 뉴욕 타임스 지구 병원 경영진 현지 이스라엘 환자 대피 가자지구 환자 가족 병원 대피소 가자지구 병원 시파 병원 병상 보유 사람 치료 대피 이스라엘 하마스 로켓 공격 지휘소 최후통첩 부분 이스라엘 공식 논평 거부 가자지구 석유 연료 정상인 자동차 자전거 마차 피난 실정 중도 하차 이스라엘 지상전 지상전 장기전 이유 하마스 거대 지하 땅굴 이스라엘 입장 지하 땅굴 무력 공습 부족 스펀지 폭탄 땅굴 침투 하마스 부비 트랩 희생양 그동안 이스라엘 가자지구 차례 지상전 하마스 이스라엘 영토 로켓탄 선제공격 이유 이스라엘 예비군 가자지구 투입 공격 강도 일부 휴전 선언 팔레스타인 사망자 이스라엘 희생자 지상전 이스라엘 유대인 청소년 납치 살해 사건 배후 하마스 지목 하마스 땅굴 파괴 이스라엘 가자지구 진입 명분 이스라엘 가자지구 철수 지상전 상황 목표 하마스 궤멸 목표 장기전 모술 모델 이스라엘 역사 최악 시가전 스탈린그라드 전투 레닌그라드 전투 니다 세계 대전 독일군 소련 전투 결과 공격자 독일군 패배 전투 공포 스탈린그라드 전투 지속 레닌그라드 전투 역사 최악 시가전 미국 지상전 고전 이라크 전쟁 팔루자 진입 미군 규모 지상 공격 감행 희생 철수 진격 전술 이슬람 국가 테러 조직 대응 국제 연합군 최소한 범위 교전 팔루자 모델 모술 모델 이스라엘 외과 수술 모술 모델 모술 모델 희생 예상 모술 전투 민간 건물 붕괴 이스라엘 실패 성공 역사 생각 이스라엘 중동 전쟁 이집트 요르단 시리아 차례 기습 공격 승리 이스라엘 전투기 지상 높이 이집트 레이더 전쟁 하마스 기습 반격 공중전 지상전 수반 미국 이란 참전 미국 이스라엘 이스라엘 유대 국가 건설 세계 대전 해리 트루먼 미국 시온주의 성공 열망 응답 유권자 아랍인 고도 상황 미국 아랍 유권자 중심 팔레스타인 대학 고등학교 시위 그동안 유대 유대인 정서 확산 상황 미국 적극 개입 반발 하마스 팔레스타인 유리 상황 하마스 기습 다음 이스라엘 아랍 국가 무장 세력 참전 예상 산발 지원 기대 이스라엘 전선 형성 이집트 레바논 시리아 국내 정치 경제 상황 하마스 상황 국가 단위 이란 유일 후보 이스라엘 레드라인 경고 무장 세력 이란 지원 레바논 무장 정파 헤즈 볼라 참전 순위 이스라엘 하마스 평화 중재 카타르 예상외 하마스 이슬람 수니파 국가 사우디아라비아 사태 방지 미국 사우디 국방 장관 워싱턴 아랍 국가 적극 미국 고민 전투 파병 이스라엘 공격 중동 전쟁 세계 경제 영향 애플 의회 복병 전쟁 금융 시장 예상 복병 부지기수 미국 중앙은행 영국 중앙은행 일본 중앙은행 정책 기준 금리 동결 전망 각국 중앙은행 총재 예상 발언 시장 미국 고용 보고서 복병 시장 예상 농업 고용 증가 전달 둔화 예상 전달 수준 예상 실업 임금 방향 확신 애플 실적 불안 요소 블룸버그 통신 애플 중국 조사 스마트폰 판매 부진 직면 분기 연속 매출 감소 예상 완성 회사 노사 협상 관건 포드 스텔 란티스 노사 합의 안정 궤도 타결 미국 난맥상 의회 재현 공화 주도 하원 이스라엘 지원 우크라 지원 안과 분리 처리 민주당 장악 상원 지원 패키지 처리 한국 월간 수출 증가세 전환 호재 예상 희소식 전쟁 암울 소식 주가 영상']</t>
+          <t>['국제 사회 긴장 완화 장기 확전 방지 세계 민간 희생 양측 사상자 급증 인도적 위기 구호품 반입 보건부 사망자 부상 집계 공습 북부 연기 국방부 보건부 하마스 기습 공격 지금 동안 주민 사망 스데로트 속보 무장 정파 하마스 기습 공격 전쟁 현재 가운데 중동 전쟁 우려 대대 지상 작전 지원 무장 정파 헤즈 볼라 개입 전선 확대 전쟁 장기 우려 서방 이슬람 중심 사태 국제 사회 발걸음 전면 봉쇄 주민 위기 상황 재앙 지구 하마스 로켓포 공격 영토 침투 민간인 살해 인질 병력 접경 집결 보복 공습 요아브 갈란트 국방부 장관 안쪽 지상전 개시 전쟁 다음 단계 위험 최소 공습 강화 주민 안전 대피 촉구 강화 공습 지상전 개시 민간 피해 우려 전쟁 발발 양측 사망자 가운데 민간 희생자 보건부 오전 사망자 부상자 집계 하마스 인질 파악 하마스 억류 인질 가운데 미국인 모녀 인질 부상자 환자 노약자 건강 안전 우려 양측 유혈 충돌 인명 피해 가운데 지상전 개시 연기 문제 논의 그동안 하마스 대응 공격 전시 국제법 준수 강조 민간 피해 발생 과도 보복 자제 메시지 간접 중동 유럽 주요 정상 외무 장관 카이로 평화 정상 전쟁 평화 해법 논의 헤즈 볼라 규모 공습 촉구 중동 헤즈 볼라도 자제 하마스 기습 공격 접경 헤즈 볼라 산발 교전 격화 요르단강 서안 긴장 확전 우려 전선 형성 경고 맹방 충돌 비화 제기 하마스 연대 무장 세력 이슬라 지하드 요르단강 서안 전선 확대 경고 테러 분자 제거 요르단강 서안 공습 헤즈 볼라 전쟁 개입 대비 중동 고고 미사일 방어 체계 사드 배치 병력 증파 로이드 오스틴 국방 장관 미군 보호 중동 전역 사드 포대 배치 패트리어트 대대 추가 배치 전쟁 중동 반감 정세 혼란 양상 병원 폭발 대참사 발생 하마스 책임 공방 주변 중동 곳곳 서방 규탄 시위 분노 표출 해당 참사 긴장 가운데 통로 가운데 통제 유일 지점 라파 국경 검문소 전쟁 발발 구호품 반입 반입 구호품 연료 제외 식량 의약품 대분 주민 부족 추가 구호품 반입 검문소 개방 요구 목소리', '창밖 아이 폭격 건물 잔해 바깥 연합 무장 정파 하마스 기습 공격 전쟁 열흘 열흘 기간 양측 사망자 기준 상태 하마스 대대 보복 선언 봉쇄 연일 공습 지붕 감옥 감옥 지옥 열흘 세계 경악 하마스 전쟁 정리 하마스 공격 죽음 지상 공중 해상 유대 명절 초막절 오전 무장 정파 하마스 분리 장벽 남부 기습 공격 감행 작전 명은 아크 홍수 아크 동예루살렘 이슬람 사원 메카 메디나 이슬람 성지 아크 동예루살렘 이슬람교 기독교 유대교 계시 종교 지로 분쟁 아크 경찰 투입 예배 체포 극우 정치인 사원 경내 기습 도발 아크 사원 갈등 전쟁 발발 하마스 서안 지구 공습 폭력 사태 탄압 공격 작전 아크 홍수 명명 무장 세력 중장비 주변 분리 장벽 모터보트 패러글라이더 동원 방면 영토 침투 지하 방어벽 감시 센서 첨단 자부 국경 분리 장벽 속수무책 로켓 공격 저고도 방공 시스템 아이언 로켓포 공격 무력 침투 무장 대원 남부 공격 민간인 살해 납치 남부 키부츠 축제 현장 순식간 학살 현장 반격 하마스 교전 작전 북부 남부 전역 미사일 발사 보복 공습 베냐민 네타냐후 총리 성명 상황 군사 작전 전쟁 그동안 대가 경고 지붕 감옥 전쟁 서막 영상 하마스 충돌 중동 전쟁 위기 중동 화약고 무장 정파 하마스 기습 공격 전쟁 하마스 공격 하마스 전쟁 갈등 불씨 누적 무장 정파 하마스 기습 공격 배경 누적 첨단 국경 패러글라이더 아이언 첨단 감시망 안보 대참패 무장 세력 공중 해상 내륙 방면 침투 철통 방어벽 전쟁 공식 선포 강력 보복 예고 하마스 공격 전쟁 비화 공격 정부 공식 하마스 전쟁 선포 베냐민 네타냐후 총리 복수 예고 하마스 폐허 선언 양측 사상자 사망자 포함 키부츠 축제 행사장 주변 시신 무더기 발견 하마스 공격 참혹 상황 영상 사회관 계망 서비스 하마스 이상 인질 곳곳 분산 수감 하마스 억류 인질 국제 사회 본격 개입 전날 긴급 표명 항공모함 제럴드 포드 항모 전단 인근 동지 중해 급파 무기 군사 장비 지원 약속 서안 지구 통치 자치 정부 아랍연맹 긴급회의 요청 아랍연맹 양측 무장 대립 중단 폭력 극단 정책 안정 위협 시한 폭탄 비판 하마스 공격 배후 앙숙 시아파 맹주 의혹 월스트리트 저널 제기 정부 개입 직접 증거 파악 신중 태도 키푸르 전쟁 최악 사태 전쟁 중동 변국 확산 우려 고조 하마스 아랍 봉기 촉구 직접 지원 헤즈 볼라 하마스 공격 동참 전쟁 개입 하마스 선언 헤즈 볼라 접경 골란고원 점령지 셰바 로켓 박격포 배후 자처 중동 전역 국기 시위 하마스 시위 헤즈 볼라 공격 가담 최악 최악 사태 하마스 전쟁 중동 변국 확산 최대 수혜자 하마스 작전 축하 후설 무장 정파 하마스 공격 배후 추측 우크라 전쟁 정부 중동 전략 비상 전쟁 장기 와중 중동 화약고 전면 봉쇄 전쟁 전면 봉쇄 선언 보복 예고 전기 식량 연료 공습 빈곤 주민 인도주의 위기 직면 우려 지상 최대 감옥 중동 화약고 세계 최대 감옥 하마스 공격 인근 통제 회복 경계 집결 지상군 투입 예비군 동원 규모 공습 하마스 납치 인질 처형 맞불 하마스 성명 민간 주택 사전 경고 공격 민간 위협 지상전 인질 안전 사태 최대 변수 분석 극우 내각 강경 대처 주문 논란 내각 대표 극우 트리 재무 장관 하마스 잔혹 공격 인질 문제 중요 생각 주장 하마스 납치 인질 태국 외국인 포함 하마스 무력 충돌 양측 사망자 치안 상황 악화 세계 주요 항공사 운항 중단 하마스 극단 세력 비극 피해 민간 극우 정부 무장 단체 하마스 참혹 전쟁 적대 공생 인질 하마스 충돌 변수 하마스 협상 카드 무장 단체 하마스 납치 인질 사태 최대 하마스 충돌 다극 체제 전환 상징 팍스 아메리카나 종말 무장 정파 하마스 무력 충돌 중동 전쟁 확전 우려 공습 국제 사회 봉쇄 비판 전면 봉쇄 국제 사회 우려 표명 유엔 민간 생명 위협 포위 공격 국제 도법 위반 비판 유럽연합 방어 권리 국제법 국제 도법 가운데 민간 피해 눈덩이 상황 국제 사회 합의 분열 중심 유엔 존재감 원조 중단 철회 혼란 행보 최악 하마스 갈등 중재자 유엔 유명무실 공습 포격 중점 정확 피해 민간 피해 개의 입장 전쟁 나흘 양측 사망자 지상전 임박 신호 곳곳 감지 경계 군사력 증강 포위 강화 정부 지원 무기 수송기 도착 세계 최대 규모 추진 항공모 제럴드 포드 항모 전단 인근 동지 중해 배치 정부 하마스 납치 인질 구출 특수작전 부대 인질 구출 전문가 파견 창살 감옥 주민 안전 유엔 전면 봉쇄 반대 무장 정파 하마스 교전 수일 가운데 창살 감옥 임박 지상전 전개 지상전 임박 공성전 요새전 딜레마 무장 정파 하마스 전쟁 전기 인도적 위기 본격화 지구 위기 본격 전쟁 유일 발전소 전력 중단 가동 지구 인구 이재민 면적 주민 거주 세계 인구 밀도 하마스 공습 이상 로켓 발사 이상 목표물 타격 국제법 보호 유엔 건물 파괴 과거 공격 민간인 사전 경고 양측 사망자 전쟁 발발 교전 발생 전날 영토 박격포 발사 정권 기지 폭격 헤즈 볼라 근거 지인 남부 폭격 확전 긴장감 예비군 동원 박차 소집 예비군 인구 해당 키푸르 전쟁 규모 동원 세계 각국 수송기 동원 자국민 대피 대탈출 러시 네타냐후 정부 사법부 무력 법안 추진 갈등 분열 정치 전쟁 계기 결집 야권 참여 비상 통합 정부 전시 내각 구성 발표 전시 내각 구성 정치 하마스 타도 단결 인도주의 한계 도달 무장 정파 하마스 전쟁 분열 정치 하마스 헤즈 볼라 망설 개입 리스크 고려 하마스 충돌 초기 헤즈 볼라 개입 관심 헤즈 지옥 감옥 포격 가자 주민 전쟁 엿새 양측 사망자 부상자 사상자 봉쇄 포격 인도주의 붕괴 시점 국제 인권 단체 휴먼 라이츠 워치 국제 금기시 치명 살상 무기 백린탄 지구 발표 하마스 납치 인질 전기 가스 공급 재개 발표 봉쇄 최소한 병원 운영 단계 진입 보건부 일부 병원 우물 의존 국제 십자 위원회 병원 영안실 위험 경고 세계 보건 기구 의료 시스템 한계점 이재민 하루 증가 정부 미국인 민간인 인접국 대피 방안 국과 논의 규모 난민 유입 우려 국경 거부 봉쇄 국경 폐쇄 주민 통로 탈출구 열쇠 난민 사태 우려 절레 지원 대피 협상 민간인 촉구 하마스 충돌 전망 양측 강경파 득세 문제 악화 무장 정파 하마스 무력 충돌 인명 희생 수반 탈출구 분열 세계 규탄 하버드 대생 역풍 대학가 최루탄 물대포 집회 금지령 대피 발동 떠나라 전쟁 인구 절반 해당 민간인 대피 명령 국방부 성명 며칠 규모 작전 가자 시티 주민 가족 안전 대피 발표 대대 지상전 신호 반면 하마스 심리전 규정 주민 촉구 공습 가스 전기 생필품 완전 차단 조치 최악 상황 규모 피란 행렬 대피 피란 주민 안전 보장 도로 공격 사건 발생 피란길 공습 발길 유엔 사람 대피 재앙 발생 경고 자제 촉구 하마스 후원자 압박 정부 당초 동결 해제 원유 수출 자금 동결 발표 주민 절반 철수 통보 무장 정파 하마스 전쟁 양측 사상자 하마스 봉쇄 외교전 분주 전선 수도 무장 정파 하마스 무력 충돌 위기 관리 하마스 치료 묘지 보건 시스템 마비 무장 정파 하마스 공습 보복 공격 수일 가운데 네타냐후 다음 단계 지상군 투입 초읽기 베냐민 네타냐후 총리 인근 주둔 부대 방문 다음 단계 지상군 투입 기정사실 국방부 성명 공중 해상 지상 작전 포함 포괄 공격 지상군 투입 전면전 초읽기 하마스 지원 개입 언급 경고장 호세인 아미르 외무 장관 레드라인 지상전 실행 대응 분쟁 직간접 개입 경우 전쟁 중동 확대 우려 보호 맨몸 전쟁 복판 주민 대피 예고 기한 필사 탈출 행렬 대피 국제 사회 우려 비판 대피 기한 연장 국경 검문소 라파 통로 가자 안전 대피 포기 국제기구 일부 구호 물품 진입 국제 사회 발령 주민 대피 국제법 전쟁 범죄 해당 강제 이주 지적 주민 대피 명령 강제 이주인 나크 분석 재앙 자행 강제 이주 조치 파괴 목숨 마크 린치 조지워싱턴 국제 관계학 교수 포린 어페어스 고문 사람 대피 경우 전쟁 역사 주민 대피 인도주의 통로 문제 해결 지적 전쟁 중재 수교 협상 중단 정부 추진 중동 데탕트 구상 차질 네타냐후 다음 단계 비극 베냐민 네타냐후 총리 무장 정파 하마스 근거지 피란길 차별 포격 대피 약속 안전 대피 대대 지상 작전 하마스 납치 인질 가족 공격 중단 호소 엄마 아빠 가족 무장 정파 하마스 절멸 목표 지상군 투입 초읽기 국제 사회 지상군 투입 참혹 상황 국제 사회 여론 하마스 민가 습격 공격 국제 사회 대대 보복 공습 민간 피해 본격 경고 목소리 아랍연맹 아프리카 연합 성명 지상 작전 전개 전례 규모 대량 학살 철회 요구 알자지라 지상군 투입 반대 입장 표명 국제 단체 동맹국 지원국 점령 공개 경고 하마스 제거 점령 실수 하마스 섬멸 지구 지상군 투입 용인 점령 베냐민 네타냐후 총리 전쟁 발발 각료 하마스 절멸 강조 민간인 라파 통로 대피 남부 공습 발표 네타냐후 총리 휴전 하마스 전쟁 양측 사망자 하마스 민간 공격 전쟁 보복 공격 전개 사망자 사망자 숫자 응징 민간인 국제 여론 지상군 투입 악화 국제 사회 여론 직면 전쟁 향후 전망 하마스 전쟁 개입 전망 무장 정파 하마스 전쟁 확전 여부 결정 개입 하마스 지하 터널 고전 전시 세계 경제 하마스 지상전 예고 전쟁 파장 중동 세계 파급 참혹 현장 시신 안치소 시신 생지옥 전기 의약품 부족 시신 안치 국경 비극 일각 희망 탈출 전날 주재 대사관 전쟁 발발 열흘 유일 탈출 라파 통로 공지 검문소 인파 장사진 국경 개방 하마스 양측 구호품 반입 외국인 철수 일시 휴전 가운데 지구 상황 악화 전기 식수 구호품 반입 완전 봉쇄 하마스 전쟁 실시간 확인 하마스 전쟁 선명', '폭격 건물 유니스 주민 무장 정파 하마스 공습 교전 양측 이상 연합 헤럴드 경제 권제 북부 주민 제시 대피 안전 보장 시한 연장 가운데 봉쇄 주요 시설 공격 전기 식수 주민 탈출 행렬 인도주의 위기 공격 개입 언급 헤즈 볼라 교전 헤즈 볼라 가세 경우 하마스 교전 중동 불씨 위험 지상전 전쟁 최대 규모 하마스 본거지 민간인 대피 주민 오후 한국 오후 대피 경로 작전 이때 대피 권고 지상군 투입 시점 공개 조나단 콘리 쿠스 대변인 민간인 중요 군사 작전 뉴욕 타임스 장교 당초 주말 지상군 투입 예정 지상군 공중 엄호 판단 며칠 보도 지상전 병력 투입 전쟁 최대 규모 침공 기습 공격 주도 하마스 지도부 제거 목표 베냐민 네타냐후 총리 방탄조끼 국경 부대 방문 전투 병사 다음 단계 공습 하마스 납치 인질 시신 발견 발표 하마스 폭격 인질 하마스 헤즈 볼라 개입 국제 사회 외교 움직임 그동안 하마스 자금 무기 지원 전쟁 개입 경고 유엔 본부 대표부 전쟁 범죄 대량 학살 중단 통제 불능 상태 광범위 결과 초래 으름장 유엔 공격 경우 개입 지원 무장 정파 헤즈 볼라 교전 발사 장갑 미사일 공격 국경 사상자 발생 대응 전날 국경 침투 테러리스트 사살 헤즈 볼라 전쟁 전면 개입 경우 전선 북부 형성 전쟁 중동 확대 외교 움직임 토니 링컨 국무부 장관 방문 중동 분쟁 확산 방지 방안 논의 수니파 종주국 사우디 실질 통치자 왕세자 중동 안정 약속 확인 국무부 제럴드 포드 항공모함 전단 드와이트 아이젠하워 항모 전단 동지 중해 전쟁 확대 억제 유엔 안전 보장 사회 하마스 휴전 요구 결의안 제안 중국 중동 문제 특사 양측 휴전 평화 회담 추진 중동 방문 사망 피란 행렬 안전 우려 여전 지상 작전 사망자 속출 보건부 공격 오전 기준 최소 사망 부상자 사망자 하마스 충돌 사망자 유엔 인도주의 조정 전쟁 최소 유엔 주택 파괴 사망자 부상자 유엔 집계 집계 대피 피란 행렬 남부 도로 자동차 택시 픽업트럭 수레 사람 거리 외신 봉쇄 인터넷 전기 식수 의약품 공급 민간인 보장 전기 인터넷 상당수 상황 메시지 전달 대피 경로 안전도 보장 대피 경로 살라 알딘 거리 광범위 파괴 어린이 시신 트레일러 보도 구호 단체 주민 강제 우려 표명 세계 보건 기구 남부 병원 환자 상황 북부 환자 사형 선고 비판 의료 종사자 이슬람 구호 단체 신월사 병원 환자 환자 대피 방법 대피 연결 라파 통로 사람 폐쇄 대피 난민 자국 영토 상황 걱정 라파 국경 개방 거부 미국인 라파 정부 요구']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2824</v>
+        <v>3338</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_이스라엘_하마스_가자지구_팔레스타인</t>
+          <t>0_하마스_공격_전쟁_대표</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['이스라엘', '하마스', '가자지구', '팔레스타인', '공격', '미국', '병원', '공습']</t>
+          <t>['하마스', '공격', '전쟁', '대표', '정부', '발생', '상황', '의원', '병원', '지원', '공습', '국민', '피해', '주민', '무장']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['국제 사회 긴장 완화 노력 장기 확전 방지 세계 노력 민간 희생 양측 사상자 급증 가자지구 인도적 위기 구호품 반입 가자지구 보건부 사망자 부상 집계 현지 이스라엘 공습 팔레스타인 가자지구 북부 연기 이스라엘 국방부 팔레스타인 보건부 하마스 기습 공격 지금 동안 이스라엘 팔레스타인 가자지구 주민 사망 스데로트 이스라엘 연합뉴스 속보 팔레스타인 무장 정파 하마스 이스라엘 기습 공격 전쟁 현지 현재 가운데 중동 전쟁 우려 이스라엘 대대 지상 작전 지원 레바논 무장 정파 헤즈 볼라 개입 전선 확대 전쟁 장기 우려 미국 서방 이슬람 중심 사태 국제 사회 발걸음 이스라엘 전면 봉쇄 주민 인도 위기 상황 재앙 지구 노력 이스라엘 하마스 로켓포 공격 이스라엘 영토 침투 민간인 살해 인질 병력 접경 집결 보복 공습 요아브 갈란트 이스라엘 국방부 장관 이스라엘 가자지구 안쪽 지상전 개시 이스라엘 전쟁 다음 단계 위험 최소 공습 강화 주민 안전 남쪽 대피 촉구 강화 공습 지상전 개시 민간 피해 우려 전쟁 발발 양측 사망자 가운데 민간 희생자 보건부 오전 사망자 부상자 집계 이스라엘 하마스 인질 파악 하마스 가자지구 억류 인질 가운데 미국인 모녀 인질 다수 부상자 환자 노약자 건강 안전 우려 양측 유혈 충돌 인명 피해 가운데 미국 이스라엘 가자지구 지상전 개시 연기 문제 이스라엘 논의 미국 그동안 하마스 이스라엘 대응 공격 전시 戰時 국제법 준수 강조 다수 민간 피해 발생 과도 보복 자제 메시지 간접 중동 유럽 주요 국가 정상 외무 장관 이집트 카이로 평화 정상 전쟁 평화 해법 논의 미국 이스라엘 헤즈 볼라 규모 공습 촉구 중동 국가 헤즈 볼라도 자제 노력 하마스 이스라엘 기습 공격 레바논 접경 이스라엘 헤즈 볼라 산발 교전 격화 팔레스타인 요르단강 서안 긴장 확전 우려 이란 이스라엘 전선 형성 경고 이스라엘 맹방 미국 충돌 비화 제기 하마스 연대 팔레스타인 무장 세력 이슬라 지하드 요르단강 서안 전선 확대 경고 이스라엘 테러 분자 제거 이유 요르단강 서안 공습 미국 이란 헤즈 볼라 전쟁 개입 대비 중동 고고 미사일 방어 체계 사드 배치 병력 증파 로이드 오스틴 미국 국방 장관 현지 미군 보호 중동 전역 사드 포대 배치 패트리어트 대대 추가 배치 전쟁 중동 이스라엘 미국 반감 정세 혼란 양상 가자지구 병원 폭발 대참사 발생 이스라엘 하마스 책임 공방 주변 중동 국가 곳곳 이스라엘 서방 규탄 시위 분노 표출 미국 해당 참사 이스라엘 긴장 가운데 가자지구 통로 가운데 이스라엘 통제 유일 지점 이집트 라파 국경 검문소 전쟁 발발 가자지구 구호품 반입 반입 구호품 연료 제외 식량 의약품 대분 가자지구 주민 부족 추가 구호품 반입 검문소 개방 요구 목소리', '이스라엘 하마스 통치 종식 목표 천명 가자지구 보복 공습 포격 미국 지원 약속 이란 하마스 지원 정황 우려 변국 중재 이스라엘 탱크 가자지구 접경 집결 이스라엘 지상군 하마스 소탕 가자지구 진격 중동 전쟁 확전 우려 로이터 연합뉴스 베냐민 네타냐후 이스라엘 총리 팔레스타인 무장 정파 하마스 기습 공격 직후 전면전 전쟁 돌입 선언 이스라엘 팔레스타인 전쟁 나라 강대국 양상 확산 우려 미국 신속 이스라엘 전폭 지원 약속 이란 후설 일축 수차례 하마스 공격 표시 이스라엘 맹비난 이란 기간 하마스 지원 이스라엘 하마스 이상 통치 현지 로이터 통신 이스라엘 대변인 조너선 리커스 중령 이스라엘 국민 살해 이전 테러 진주 공습 이스라엘 공격 하마스 무장 세력 이슬라 지하드 가자지구 표적 이상 전투기 헬기 포병 동원 공습 포격 발표 이스라엘 예비군 동원 하마스 가자지구 통치 종식 목표 성명 리커스 대변인 임무 하마스 이상 이스라엘 위협 군사 하마스 이상 가자지구 통치 강조 이스라엘 하마스 무력 충돌 인명 피해 급증 이스라엘 현지 언론 하마스 공격 사망자 이스라엘 남부 키부츠 축제 행사장 주변 시신 무더기 발견 이스라엘 반격 지구 집계 사망자 가운데 아동 청소년 보건부 이스라엘 보복 공격 팔레스타인 가자지구 주민 피란길 미국 전폭 지원 외교 노력 기대 미국 전날 네타냐후 총리 완전 지원 약속 로이드 오스틴 국방부 장관 성명 제럴드 포드 항모 전단 동지 중해 역내 전투기 편대 증강 확전 양상 이스라엘 하마스 무력 충돌 제동 국제 사회 외교 노력 현재 기대 상황 남부 국경 이집트 중재역 자처 성과 익명 요구 이집트 당국자 이스라엘 인질 안전 도움 이집트 요청 단계 휴전 의사 통신 하마스 공격 배후 지목 유대교 안식일 토요일 새벽 기습 하마스 공습 이슬람 시아파 맹주 지원 정황 월스트리트 저널 이란 레바논 수도 베이루트 하마스 규모 공격 작전 승인 소식통 보도 혁명 수비대 장교 하마스 협력 지상 해상 공중 이스라엘 급습 방안 고안 작전 세부 사항 차례 변경 혁명 수비대 장교 물론 지원 무장 단체 대표 참석 무장 단체 가자지구 통치 하마스 레바논 무장 정파 이스라엘 공격 가담 헤즈 볼라 포함 보도 미국 정부 하마스 공격 개입 공식 인정 상태 유엔 대표부 성명 팔레스타인 유지 팔레스타인 대응 관여 팔레스타인', '양측 사상자 동지 중해 항모 급파 하마스 공격 개입 보도 결정 공포 피난민 현지 새벽 팔레스타인 무장 정파 하마스 기습 하마스 이스라엘 무력 충돌 전면전 양상 양측 사망자 사흘 사상자 가운데 이스라엘 전쟁 공식 선포 하마스 근거지 가자지구 지상군 투입 배제 시리아 이집트 이스라엘 침공 전쟁 중동 전쟁 위기감 미국 행정부 항모 전단 동지 중해 발표 이스라엘 전폭 지원 약속 가운데 하마스 이스라엘 공격 승인 보도 블룸버그 통신 공포 유가 급등 이스라엘 상황 당장 유가 위협 충돌 미국 이란 파괴 위험 사흘 하마스 이스라엘 방위군 교전 하마스 이스라엘 관문 벤구리온 국제공항 이스라엘 중심부 겨냥 로켓포 공격 감행 이스라엘 하마스 근거 지인 지구 공습 지상 공격 이스라엘 영토 하마스 병력 교전 지속 이스라엘 이스라엘 남부 가자지구 주변 하마스 무장 대원 교전 발표 이스라엘 공격 하마스 무장 세력 이슬라 지하드 가자지구 표적 이상 전투기 헬기 포병 동원 공습 포격 하마스 지휘부 이슬라 지하드 지휘부 타격 테러 조직 역량 약화 당국 이스라엘 대변인 러시아 관영 스푸트니크 통신 지구 지상 작전 포함 검토 계엄령 예비군 동원 남부 사령부 투입 워싱턴 미국 당국자 이스라엘 가자지구 지상 작전 착수 예상 요아브 갈란트 이스라엘 국방 장관 하마스 침투 이스라엘 억류 남부 오파 마을 이스라엘 보복 기억 하마스 후회 갈란트 장관 전쟁 규칙 지구 대가 세대 변화 이스라엘 내각 텔아비브 베냐민 네타냐후 총리 주재 하마스 전쟁 공식 선포 이스라엘 정부 군사 행보 하마스 군사 기반 시설 해체 강조 네타냐후 총리 도시 하마스 하마스 폐허 보복 조치 경고 인명 피해 급증 하마스 공격 이스라엘 국민 이상 사망 부상 부상자 다수 상태 이스라엘 이스라엘 남부 키부츠 축제 행사장 주변 시신 무더기 발견 이스라엘 대변인 조너선 리커스 중령 이스라엘 국민 살해 이전 테러 진주 공습 이스라엘 공습 지구 집계 사망자 가운데 아동 청소년 보건부 부상자 수도 이스라엘 가자지구 양측 부상자 합계 하마스 별개 이스라엘 공격 참여 무장 조직 이슬라 지하드 이스라엘 국민 인질 지구 억류 주장 외국인 사망 실종 상태 인질 미국인 포함 팔레스타인 가자지구 주민 피란 행진 타스 통신 유엔 인도주의 조정 오후 팔레스타인 가자지구 인구 미국 전일 네타냐후 총리 하마스 테러리스트 전례 공격 직면 이스라엘 정부 국민 완전 지원 약속 로이드 오스틴 국방 장관 제럴드 포드 항모 전단 동지 중해 항모 전단 배치 역내 전투기 편대 증강 조치 항모 전단 항공모 제럴드 포드 순양함 노르망 디함 구축 토마스 허드 매미 지함 카니 루스벨트 구성 국방부 역내 전투기 편대 증강 조치 이스라엘 하마스 무력 충돌 제동 국제 사회 외교 노력 현재 기대 상황 남부 국경 이집트 중재역 자처 성과 유엔 안전 보장 사회 가자지구 긴장 고조 사태 긴급 논의 실효 대책 마련 로켓 공격 아이언 무용지물 이스라엘 철통 방공 아이언 하마스 로켓 공격 이스라엘 방어 시스템 핵심 아이언 지구 발사 단거리 중거리 미사일 요격 설계 레바논 무장 세력 헤즈 볼라 이스라엘 로켓 발사 피해 나자 교훈 미사일 방어 시스템 배경 지구 베르셰바 가동 이스라엘 기준 포대 배치 포대 요격 미사일 발사 발사대 포대 포격 감지 식별 레이더 장착 정보 통제 센터 전송 궤적 분석 충돌 지점 계산 로켓 민간인 인프라 타결 계산 프랑스 국제 관계 연구소 연구 책임자 마크 헤커 로켓 사람 요격 미사일 발사 아이언 설계 아이언 요격 이스라엘 아이언 요격 철통 방어 아이언 천발 로켓 기능 발휘 하마스 이스라엘 로켓 발사 주장 헤커 하마스 이스라엘 방어 시스템 실패 미사일 발사 포화 상태 아이언 방어 실패 핵심 요소 하마스 발사 로켓 방공 하마스 공격 피해 이스라엘 정보 참패 원인 영국 일간 텔레 그래프 이스라엘 현지 일간 레츠 이스라엘 정보 당국 지난주 하마스 전면 침공 보도 아이언 로켓 소나기 기습 공격 허점 수도 위협 장사정포 대응 문제 관심 북한 장사정포 최대 포탄 로켓탄 수도 당국 분석 규모 공습 지원 지난주 승인 유대교 안식일 토요일 기습 하마스 공습 이슬람 시아파 맹주 지원 정황 월스트리트 저널 이스라엘 공격 계획 안보 당국자 도움 레바논 수도 베이루트 하마스 규모 공격 승인 보도 보도 혁명 수비대 장교 하마스 협력 지상 해상 공중 이스라엘 급습 방안 고안 혁명 수비대 하마스 헤즈 볼라 무장 단체 참석 차례 베이루트 세부 사항 개선 가지 하마드 하마스 대변인 영국 인터뷰 이스라엘 공격 이란 직접 지원 팔레스타인 예루살렘 해방 전사 약속 유엔 대표부 현지 성명 팔레스타인 유지 팔레스타인 대응 관여 팔레스타인 이란 하마스 팔레스타인 무장 단체 이슬라 지하드 자금 무기 지원 사태 관여 미국 정부 이란 하마스 공격 개입 증거 확보 입장 토니 링컨 국무부 장관 이란 공격 지시 배후 증거 이란 기간 하마스 지원 링컨 장관 하마스 이스라엘 공격 이스라엘 사우디아라비아 관계 정상 교섭 방해 견해']</t>
+          <t>['시각 자시 공습 어린이 시파 병원 구급차 시티 뉴시스 병원 발생 폭발 참사 이슬람 무장 정파 하마스 무력 충돌 촉발 중동 정세 중대 기로 인도주의 위기 국제 사회 우려 고조 가운데 의료 시설 공격 행위 책임 소재 갈등 긴장 극도 고조 사태 해결 전망 병원 참사 소식 이슬람 동요 분노 아랍 이슬람 극도 분노 표시 각국 시위 촉발 확전 우려 로이터 통신 통신 외무부 병원 공습 사건 책임 외무부 공격 잔인 학살 무방비 상태 민간인 극악무도 범죄 규탄 안와르 대통령실 고문 트위터 병원 공격 사람 비극 장면 민간인 전쟁 보호 인도주의 존중 우선 확인 강조 자치 정부 마무드 아바스 수반 공습 병원 대학살 비난 기간 선포 아바스 수반 레드라인 추방 허용 예고 전용기 병원 참사 소식 순방 일정 변경 방문 방문 자치 정부 수반 정상 회담 전쟁 해법 논의 예정 순방 일정 돌발 상황 발생 도착 베냐민 네타냐후 총리 개인 민간인 비극 발생 역내 파트너 협력 강조 주요 외신 병원 참사 대형 악재 작용 전망 행정부 그간 아랍 이슬람 참전 확전 촉구 상황 지원 병원 공격 세력 지목 강력 의도 의도 공격 확인 경우 중동 순방 목표 확전 방지 인도주의 위기 해결 방안 마련 구상 뿌리 위기 싱크탱크 국제 위기 그룹 리처드 고완 유엔 담당 국장 상황 사건 외교 긴장 격화 위험 견해 로이터 방국 아랍 이슬람 분노 향후 상황 전개 변수 무장 정파 헤즈 볼라 분노 거리 광장 분노 표출 촉구 베이루트 대사관 시위대 국기 죽음 죽음 구호 주재 대사관 시위대 시오 니스트 유대 민족주의 동맹 대사관 철수 목소리 운영 가자 병원 대피 피란민 대참사 흘리 아랍 병원 세계 갈등 중심 평화 희망 안식처 공습 최소 참사 북부 자시 흘리 아랍 병원 예루살렘 교구 선교사 설립 지구 병원 병상 주민 무료 진료 기독교 뿌리 운영 병원 종교 의료 서비스 제공 병원 이름 자체 아랍 사람 병원 아랍어 직원 무슬림 병원 환영 사람 존엄 존중 병원 국경 충돌 불안 유엔 난민 구호 기구 자금 지원 연간 중단 코로나 대유행 수년 어려움 의료진 수질 오염 식량난 정신 사회 트라우마 의약품 연료 부족 환경 환자 헌신 소개 북부 주민 대피 피란민 병원 공습 피해 대피 명령 북부 병원 진료 피란민 수용 병원 대피 직후 주말 로켓포 공격 세계 수장 저스틴 웰비 캔터베리 대주교 성명 흘리 아랍 병원 공격 직원 대피 철회 촉구 북부 의료 시설 중환자 부상자 대피 의료 물품 부족 재앙 직면 우려 평화 안식처 민간인 목숨 아비규환 현장 현장 촬영 영상 병원 건물 불길 참혹 시신 어린이 주변 잔디밭 담요 책가방 통신 관할 예루살렘 교구 성명 국제 비난 응징 헌신 직원 환자 극악무도 공격 애도 연대 간청 세계 경악 병원 공습 이슬라 지하드 오폭 책임 테러 센터 창설 통치 무장 정파 하마스 규모 이슬람 수니파 무장 단체 여단 군사 조직 박격포 로켓 자살 폭탄 공격 서안 지구 지부 하마스 공조 전략 양측 긴장 관계 조직 지원 테러 조직 지정 측은 시온주의 잔인 학살 책임 회피 안간힘 병원 대피 명령 폭발 규모 폭탄 낙하 각도 소행 주장 워싱턴 박영준 특파원 유태영', '정진형 출연 위원 텍스트 실제 차이 정확 확인 명시 지상 작전 가운데 개입 확전 경고 전쟁 상황 위원 전쟁 상황 상황 정리 토요일 하마스 기습 전쟁 전투기 대포 동원 포격 상황 하마스 미사일 반격 상황 양측 사망자 정도 기준 사망 초기 사망 집계 초기 하루 사망자 다음 보복 공격 사망자 정도 사망 인질 정도 하마스 다음 피란민 외신 사상자 발생 상황 상황 민간 대피 대피 지상군 투입 대피 일종 하마스 무장 세력 타격 공습 민간인 얘기 지도 대피 요구 자색 표시 자시 중심 주변 절반 정도 인구 사람 정도 황색 얘기 입장 통로 정도 보장 얘기 상태 지상군 투입 단계 하루 정도 주민 계산 유엔 일주일 하루 억지 심리전 하마스 무장 세력 민간인 목적 남부 외국 현재 국경 난민 수용 상황 국경 니은 모양 봉쇄 바다 봉쇄 디귿 봉쇄 한쪽 시나이 반도 국경 봉쇄 얘기 도시 지도 지도 라팔 국경 도시 평소 사람 물자 지구 구호품 군사력 증강 배치 시멘트 장벽 보강 얘기 사정 주변 아랍 난민 얘기 이상 얘기 문제 난민 공급 하마스 사령관 살해 소식 하마스 무장 세력 입장 타격 일방 비판 하마스 피해 사령관 요인 사람 통신 당국 보도 전투기 동원 공습 하마스 개전 주도 사령관 사살 얘기 공중 부대 지휘 지휘부 제거 얘기 하마스 발표 이상 전시 발표 여부 의심 인질 최다 인질 감금 상태 지도부 하마스 병력 타격 추정 하마스 지하 터널 얘기 공습 하마스 지하 터널 건재 건재 지하 터널 지하 터널 정도 과거 이전 사망자 하마스 무장 병력 일반 국제 평가 통계 무장 병력 얘기 이상 생각 지상 폭격 지하 생각 하마스 터널 자료 화면 국경 지방 국경 후방 타격 침투 단계 밀수품 통로 하마스 총선 권력 집중 도시 보통 베트콩 땅굴 비교 토양 콘크리트 보도 자료 화면 구축 중요 부분 야산 평지 도시 출입구 출입구 모스크 사원 학교 공공시설 전문가 얘기 폭격 하마스 무기 인질 부분 말씀 터널 도시 본격 지상군 투입 상황 보도 전문가 도시 거미줄 탱크 대전차포 공격 얘기 도심 시가전 상황 현재 인질 터널 반격 보도 야간 지구 상황 공습 하마스 미사일 지하 무기 병력 대응 생각 경우 아이언 첨단 장비 하마스 지하 터널 발굴 상황 지하 벙커 파괴 벙커버스터 생각 특정 효과 정도 지하 터널 발달 깊이 보통 정도 그물망 연결 정확 인질 추적 정도 지하 터널 발달 하마스 병력 민간 사망자 사망자 통계 예상 공습 피해 하마스 병력 판단 북부 소식 헤즈 볼라 개입 산발 충돌 소식 첫날 헤즈 볼라 일부 공격 기지 미사일 광경 헤즈 볼라 무장 대원 국경 발표 드론 동원 격퇴 얘기 헤즈 볼라 충돌 양상 중요 헤즈 볼라 하마스 세력 합법 무장 정파 세력 부총재 헤즈 볼라 대결 기여 행동 경고 헤즈 볼라 참전 상태 요르단강 서안 아바스 자치 정부 지하 조직 무장 단체 지하드 곳곳 충돌 상황 전선 확대 걱정 말씀 헤즈 볼라 혁명 수비대 지원 움직임 변수 개입 개입 정도 어제 외무 장관 헤즈 볼라 외교 장관 얘기 헤즈 볼라 시나리오 헤즈 볼라 얘기 이전 뉴욕 본부 대표부 소셜 미디어 얘기 전쟁 범죄 대량 학살 공습 얘기 중단 상황 통제 불능 상태 광범위 결과 초래 얘기 상황 좌시 입장 상황 악화 경우 형태 개입 의지 참전 참전 여부 생각 지금 거리 지리 참전 헤즈 볼라 무기 지원 내지 병력 지원 북쪽 타격 취약 계산 헤즈 볼라 무기 지원 용병 자원 사람 정도 예상 생각 간접 개입 지상군 투입 얘기 정도 부분 전제 조건 걸림돌 지상군 일부 특정 작전 무기 제거 인질 수색 동안 얘기 만약 상황 뉴욕 타임스 통신 보도 지상 공격 감행 의심 여지 평가 말씀 하마스 사령관 일부 제거 상황 네타냐후 총리 전선 시찰 병력 격려 얘기 지상군 투입 경고 상황 반면 지상군 투입 반론 인질 문제 인질 하마스 발표 사망 공습 비난 사망 초기 정도 정도 인질 인질 판단 걸림돌 말씀 정도 추정 하마스 병력 파악 시가전 감수 터널 사람 하마스 무장 세력 상대 기세 부분 변수 피해 문제 지상군 헤즈 볼라 상황 상정 참전 국제 전이 중동 전쟁 문제 정도 감안 지상군 형태 투입 상황 입장 항공모함 전단 파견 인도주의 통로 입장 입장 네타냐후 정부 입장 관계 아랍 선택 입장 무기 지원 항공모함 아이젠하워 의사 한계 만약 아랍 국교 정상 중재 중국 화해 무효 중단 얘기 중동 장악력 인도주의 부분 인도주의 통로 피소 아랍 사람 자극 조치 강대국 우방국 입장 생각 무장 정파 하마스 전쟁 상황 위원 말씀', '무장 세력 납치 인질 예루살렘 시가지 성벽 투사 중동 화약고 폭발 무장 정파 하마스 로켓 기습 공격 보복 공습 충돌 양측 희생자 실시간 업데이트 하마스 전쟁 실시간 업데이트 업데이트 하마스 기습 공격 속보 실시간 업데이트 업데이트 업데이트 클릭 오후 접촉 중단 노동자 가자 자국 발표 접촉도 중단 하마스 테러 공격 이전 가자 임금 성명 접촉 단절 전쟁 발발 당일 노동자 송환 공표 성명 노동자 오후 인질 사망 대변인 다니엘 하가리 인질 전쟁 군인 사망 오후 하마스 충돌 최소 사망 보호 위원회 성명 분쟁 사망자 포함 부상 실종 구금 오후 중동 링컨 민간 피해 최소 논의 토니 블링 국무 장관 중동 방문 워싱턴 인근 앤드루스 합동 기지 도착 취재진 민간인 피해 최소 구체 조치 논의 오전 하원 지원 예산안 처리 상원 통과 투명 공화 하원 지원 법안 통과 민주당 우크라 지원 연계 법안 통과 주장 공화 하원 다수당 공화 민주당 우위 상원 민주당 다수당 차지 민주당 군사 지원 예산안 패키지 처리 입장 하원 통과 예산안 상원 통과 거부 행사 예고 오전 용병 기업 바그너 그룹 헤즈 볼라 방공 무기 체계 지원 정부 용병 바그너 무장 정파 헤즈 볼라 방공 시스템 제공 정보 입수 보도 헤즈 볼라 남부 근거 지로 지원 시아파 무장 세력 바그너 헤즈 볼라 방공 시스템 대공 미사일 공포 이용 항공기 요격 관리 바그너 헤즈 볼라 확인 바그너 헤즈 볼라 접촉 감시 만약 거래 위협 오전 완전 포위 시티 포위 완료 국방부 대변인 다니엘 하가리 공병대 해당 자유 지하 기반 시설 폭발물 기타 위협 무력 하가리 오전 방위군 참모총장 헤르 레비 중장 자시 포위 중요 단계 진전 오후 속보 사망자 양측 알자지라 사망자 기록 부상자 사망자 양측 사망자 부상자 오후 한국 국적 탈출 대피 외교부 체류 국민 전원 입국 무장 정파 하마스 공습 전쟁 외교부 국민 전원 가족 시각 라파 국경 통과 외교부 대사관 영사 라파 국경 파견 국민 건강 상태 확인 체류 편의 조력 외교부 정부 하마스 무력 충돌 체류 국민 소통 안전 확인 국민 시일 라파 국경 통과 본부 공관 유기 협력 외교 경주 탈출 국민 생활 한국인 한국 남편 자녀 한국 국적 유일 오후 외국인 대피 알자지라 외교부 외국인 이중 국적 대피 도움 성명 이스마일 카이 라트 외무 차관 외교관 회담 라파 국경 외국인 수용 대피 촉진 숫자 오후 유니세프 이상 어린이 사상 아이 표적 유엔 아동 기구 폭격 지구 이상 어린이 유니세프 성명 폭격 어린이 사망 이상 부상 발표 유니세프 뉴노 강조 아이 어린이 살해 감금 아이 표적 강조 북부 난민 캠프 공습 발표 성명 오후 라파 문고 개방 한국인 포함 통과 예정 알자지라 국경 통과 출신 외국인 이중 국적 명단 발표 전날 국경 오전 검문소 도착 고지 미국인 한국 포함 라파 통로 유일 연결 통로 오후 인질 석방 교전 일시 중지 이탈 미네소타주 미니애폴리스 차기 대선 캠페인 리셉션 하마스 전쟁 일시 중지 생각 도중 유대 민족 걱정 휴전 촉구 일시 중지 인질 석방 개전 전폭 정부 구호품 지원 민간 대피 인도주의 목적 교전 중지 찬성 휴전 하마스 정비 반대 입장 통신 일시 중지 발언 전쟁 군사 작전 수행 방법 주장 행정부 이탈 보도 오전 자발 리아 공습 사망 알자지라 미디어 사무소 발리아 난민 캠프 폭격 최소 사망 실종 상태 붕괴 건물 잔해 부상자 하마스 대전차 포탄 파괴 장갑차 오전 유엔 인권 대표 난민 공습 전쟁 범죄 해당 공격 유엔 인권 대표 사무소 난민 캠프 공격 전쟁 범죄 해당 우려 표명 사회관 계망 서비스 트위터 북부 난민 캠프 공습 민간 사상자 파괴 규모 고려 전쟁 범죄 해당 과도 공격 우려 전날 난민 캠프 공습 캠프 난민 수용 하마스 사령관 해당 주장 로켓 발사 시설 해안 터널 대형 무기고 대대 공격 전날 공격 사상자 발생 발표 오전 연속 난민촌 공습 최소 사망 난민촌 발리아 공습 최소 사망 병원 관계자 방위군 오전 난민 캠프 인근 팔루자 발생 폭발 공습 확인 하마스 테러리스트 공습 제거 오전 자발 리아 난민 캠프 공습 우려 외무부 성명 자발 리야 난민 공습 민간인 피해 민간 보호 사람 구속 국제법 의무 도움 사람 구호품 전달 인도주의 휴전 요구 오전 반군 겨냥 신형 드론 발사 주장 공격 알자지라 반군 대변인 사레 하마스 분쟁 차례 공격 대량 드론 발사 구체 세부 정보 제공 드론 목표 도달 발사 발사체 요격 대변인 단체 공격 지원 군사 작전 오전 프란치스코 교황 해법 알자지라 프란치스코 교황 탈리아 인터뷰 해결책 전쟁 패배 오전 하마스 전쟁 사망 보호 위원회 사망 발표 사망 이외 부상 실종 구금 분쟁 전쟁 사망 오전 일부 시민 트위터 일부 시민 발표 지도력 상당 외국인 안전 통로 확보 시민 예상 사람 예상 지구 구출 강조 시민 가족 토니 링컨 국무 장관 전날 상원 세출 위원회 청문회 탈출 국민 오후 속보 하마스 사망 하마스 사망 하마스 보건부 지구 사망 전날 증가 숫자 이중 어린이 오후 이슬람 석유 지마 아야톨라 알리 하메네이 이슬람 석유 식량 금수 조치 촉구 로이터 통신 국영 언론 보도 보도 하메네이 테헤란 학생 폭격 중단 시오 니스트 유대 민족주의 정권 석유 식량 수출 경로 중단 무장 정파 하마스 전쟁 지상전 확대 레드라인 경고 메시지 하메네이 범죄 연루 지원 이슬람 세계 문제 억압 반대 죽음 죽음 반미 선봉장 하마스 무기 지원 결과 전쟁 발생 주장 오후 속보 구급차 도착 오후 라파 검문소 중상 구급차 도착 시각 상당 민간인 라파 교차로 이중 국적 가자 환자 이중 국적 외국인 허용 예상 오후 하마스 폭격 민간 인질 추가 사망 알자지라 하마스 발리아 난민 캠프 공습 외국 여권 소지자 포함 민간 인질 사망 오후 속보 부상자 외국인 라파 국경검문소 개방 공습 중상 주민 연결 라파 국경 검문소 개방 중상 이중 국적 외국인 대피 허용 라파 교차로 보도 통신 이중 국적 포함 외국인 입국 알자지라 보건부 관계자 부상자 외국인 이중 여권 소지자 라파 국경 라파 검문소 전쟁 개통 오후 홍해 반군 대응 미사일 보트 배치 전날 반군 미사일 차례 공격 홍해 미사일 보트 배치 용어 사전 미사일 보트 미사일 보트 미사일 커터 대함 미사일 무장 군함 미사일 보트 구축함 호위함 군함 크기 비용 해군 구성 세계 대전 어뢰정 개념 유사 미사일 보트 어뢰 발사관 미사일 발사관 교체 개조 어뢰정 오후 속보 국정원 김정은 포괄 지원 무기 판매 정보원 국정원 북한 하마스 전쟁 사태 다각 평가 국회 국회 정보 위원회 여당 간사 유상범 의원 서울 내곡동 정보원 상대 국정 감사 김정 북한 국무 위원장 포괄 지원 방안 정황 포착 과거 북한 하마스 헤즈 볼라 대전차 무기 방사 포탄 수출 전례 무장 단체 세계 무기 판매 시도 상황 오후 외교 단절 테러 항복 자국 대사 소환 공격 균형 군사 공세 외교 관계 단절 외무부 리오 하이 아트 대변인 외교 관계 결정 테러리즘 아야톨라 알리 하메네이 정권 굴복 조치 정부 하마스 테러 조직 동조 이웃 지구 발생 민간인 죽음 비난 휴전 촉구 텔아비브 주재 자국 대사 소환 오후 공개 지상 작전 오후 이상 목표물 타격 알자지라 전쟁 지구 이상 테러 조직 목표물 공격 오후 하루 동안 군인 추가 사망 알자지라 전날 군인 사망 사망 군인 오후 발리아 난민 캠프 인도적 공격 규탄 외무부 트위터 성명 난민 캠프 공격 비난 오전 통신사 통신 인터넷 서비스 완전 차단 알자지라 중동 워크 공급 그룹 가자 지구 통신 인터넷 서비스 중단 연결 국제선 노선 중단 지상 공격 작전 확대 전면 두절 통신 만인 조금 복구 오전 연이 공중 위협 요격 동안 공중 위협 요격 트위터 게시 성명 민간인 위협 영토 침투 확인 반군 전날 탄도 미사일 드론 공격 지원 성향 무장 단체 개입 전선 확대 우려 제기 반군 대변인 차례 대량 탄도 미사일 드론 발사 공격 미사일 드론 공격 주장 오전 가자 인도주의 구호품 전달 소셜 미디어 어제 지구 사상 최대 규모 지원 전달 인도주의 구호품 전달 지구 지원 제공 알자지라 동안 구호 진입 오전 남미 단교 인도적 범죄 남미 정부 외교 관계 단절 발표 공격 도적 범죄 로이터 통신 프레디 마마 외무부 장관 회견 공격 균형 군사 공세 거부 규탄 외교 관계 단절 결정 마마 장관 휴전 식량 생명 필수 물자 진입 봉쇄 중단 촉구 오전 유엔 대사 하마스 북한산 무기 보도 무장 정파 하마스 테러 북한산 무기 언론 보도 북한 북한 대사 뉴욕 유엔 총회 정부 소속 언론 북한 근거 거짓 소문 주장 잘못 의도 확인 대사 언급 정부 소속 언론 소리 하마스 테러 행위 북한산 무기 취지 대사 인터뷰 공개 북한 반박 북한 무기 이용 공개 상태 하마스 공격 지뢰 휴대 대전차 유탄 발사기 드론 무기 언론 공개 익명 요구 관계자 하마스 기습 공격 무기 가운데 북한산 하마스 자체 대사 비난 의사 오전 링컨 국무 장관 방문 안토니 링컨 국무 장관 방문 국무부 링컨 방문 관리 오전 발리아 난민 캠프 공습 비난 하마스 최소 사망 하마스 고위 사령관 살해 난민촌 발리아 공습 비난 하마스 보건부 공습 최소 사망 종류 공격 조정 긴장 완화 약화 하마스 갈등 발발 하마스 인질 석방 회담 역할 외교 오전 인도주의 휴전 촉구 알자지라 전쟁 종식 해법 기반 정치 해법 강화 논의 공개 성명 보회 커비 대변인 인도주의 휴전 허용 휴전 하루 오전 억제력 강화 중동 미군 추가 배치 국방부 하마스 전쟁 중동 억제력 강화 추가 병력 미군 중부 사령부 배치 라이더 국방부 대변인 브리핑 역내 억제 지원 미군 보호 강화 차원 라이더 대변인 추가 배치 미군 거부 확인 오전 가자 난민촌 공습 확인 하마스 사상 방위군 대변인 다니엘 하가리 전투기 발리아 난민촌 공격 하마스 고위 사령관 이브라힘 비아리 살해 하마스 지하 인프라 붕괴 조나단 콘리 쿠스 대변인 브리핑 공격 실행 중추 역할 하마스 사령관 비아리 캠프 공격 건물 공격 지하 터널 단지 목표 시티 북쪽 바리아 캠프 난민 캠프 규모 로이터 통신 병원 관계자 폭발 이상 부상 하마스 내무부 난민촌 사망자 발리아 사망자 부상자 발생 주장 오전 하마스 며칠 외국인 인질 일부 석방 무덤 무장 정파 하마스 억류 외국인 인질 며칠 석방 로이터 통신 하마스 무장 조직 여단 아부 베이다 대변인 중재자 며칠 특정 외국인 인질 석방 지상 작전 본격 확대 무덤 경고 하마스 협상 양측 모두 우호 중재 상황 중재 하마스 미국인 인질 석방 인질 추가 하마스 통치 세력 유럽연합 테러 단체 지정 무장 정파 중동 전쟁 승리 유대 정착 건설 해방 기구 점령지 잠정 자치 원칙 합의 자치 하마스 테러 셰이크 아흐메드 야신 창설 저항 운동 해방 기구 온건 노선 반대 무장 투쟁 노선 천명 유엔 중재 자치 정부 수립 합법 하마스 정부 수립 테러 공격 방식 전면 봉쇄']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1550</v>
+        <v>509</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_대표_의원_민주당_국민</t>
+          <t>1_하마스_공격_무장_전쟁</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['대표', '의원', '민주당', '국민', '국회', '발생', '서울', '정부']</t>
+          <t>['하마스', '공격', '무장', '전쟁', '공습', '헤즈', '볼라', '인질', '작전', '네타냐후', '정파', '지원', '미군', '중동', '총리']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['서울 경찰청 경찰청 국회 행정 안전 위원회 국정 감사 국민 박성민 의원 질의 연합뉴스 국회 국정 감사 울산 국회의원 북한 도발 대비책 불법 집회 대응책 공영 쇼핑 전수 조사 한국 도로공사 전관 문제 질의 국민 이채익 울산 의원 이채익 의원 합동참모본부 회의실 국회 국방위원회 합동참모본부 국정 감사 하마스 이스라엘 침공 시사점 파악 북한 도발 대비 강조 의원 장사정포 저고도 침투 규모 특수전 부대 무인기 보유 북한 비대칭 기습전 대비 대응책 마련 촉구 군사 합의 폐기 대응 태세 완비 주문 의원 북한 전술 공격 잠수함 공개 북한 러시아 무기 거래 잠수함 기술 이전 전력화 성공 위협 존재 대비 미사일 방어망 전면 수정 지적 국민 박성민 울산 의원 박성민 의원 서울 서대문구 경찰청 국회 행정 안전 위원회 경찰청 국정 감사 불법 집회 시위 엄중 대응 촉구 의원 윤희 경찰 청장 요즘 국민 경찰 불법 집회 강제 해산 민주 노총 불법 시위 불법 집회 진압 특별 조치 질문 경찰 청장 담화 수차례 지시 제도 뒷받침 국회 제도 뒷받침 부탁 의원 추가 질의 불법 대북 송금 쌍방울 김성태 회장 대장동 사건 주범 남욱 변호사 공익 제보 악용 윤지오 문재 정권 해외 도피 사범 불공정 수사 문제 경찰청 핵심 현안 지적 대안 촉구 국민 명호 울산 의원 명호 의원 국회 중소 벤처 기업 국정 감사 공영 쇼핑 대표 부친상 직원 동원 문제 징계 주요 직위 승진 특정 경영 문제 조직 기강 지적 공영 쇼핑 전수 조사 요청 원은 사진행 발언 문재인 정부 임용 공영 쇼핑 상임 감사 법인 카드 자료 제출 거부 지적 이영 중소 벤처 기업 장관 조직 기강 문제 문제 판단 규모 감사 예정 변화 의원 국감 보도 자료 울산 국가 산업 단지 중대 사고 지난해 연속 발생 안전 관리 전담 인력 울산 중대 사고 발생 안전 진단 안전 관리 인력 기능 기관 협업 강화 지적 한국 산업단지 공단 의원 제출 국감 자료 국가 발생 중대 사고 울산 국가 발생 중대 사고 발생 국민 서범수 울산 울주 의원 서범수 의원 국회 국토 교통 위원회 한국도로공사 국정 감사 역대 성회 회장 도로공사 사장 성회 한도 산업 도로공사 정상 계약 지적 국토 산하 기관 전관 카르텔 정점 한국도로공사 질타 의원 사랑 장학 사업단 사장 도로공사 퇴직 부사장 본부 고속도 사고 피해자 지원 피해자 자녀 장학 사업 설립 취지 정작 사랑 장학 사업단 정관 목적 장학 지적 사랑 장학 사업단 연매 공직자 윤리 법상 재취업 금지 대상 기업 장학 장학 사업 꼼수 매출액 사장 부액 신형욱', '김정아 출연 누리 의원 민주당 의원 텍스트 실제 차이 정확 확인 나이트 명시 정치 관심 나이트 포커스 전직 의원 내년 예산 윤석열 국회 시정 사전 담회 이재명 대표 소통 전반 지난해 국회 눈길 영상 예산안 민생 부분 방점 지난번 정부 비판 통로 야당 의원 지난해 풍경 예산안 국회 경제 상황 국민 명령 민생 집중 집권 여당 국민 용산 대통령실 강조 국민 화답 노력 시정 방향 민생 취약 계층 예산 걱정 부분 야당 민주당 정의당 민주당 최대한 예우 노력 이전 여야 합의 부분 최대한 예우 시정 경청 예산 경청 민주당 의원 국회 본회 의장 시위 입구 텐더 피켓 시위 약속 회의장 피켓 시위 소란 문제 합의 텐더 약속 민주당 의원 의원 민주당 입장 비판 예의 태도 생각 지적 작년 시정 야당 분위기 회의장 보이콧 고성 야유 작년 진전 입장 생각 여소 야대 국회 기간 동안 선거 법안 거부 행사 문제 국회 발목 느낌 여소 야대 국회 얘기 매너 야당 총선 중요 정치 얼마 정도 총선 유권자 반응 요청 국회 여야 얘기 일반 국민 보통 수준 국민 얘기 얘기 얘기 전략 대통령실 야당 총선 국민 행동 얘기 보통 야순 호명 야당 대표 호명 부탁 협조 얘기 본격 예산 정국 돌입 예산 심사 태도 긍정 영향 변화 생각 작년 예산 당부 민주당 입장 문재인 정부 예산 상황 국가 경제 상황 부분 민주당 정권 부분 지적 정부 비판 지난해 걱정 계획 문재 정부 언급 경제 상황 지출 부분 조정 발표 야당 협조 부탁 야당 예우 부분 변화 생각 긍정 국민 생각 예산안 심사 도움 예산 심사 실질 도움 상황 걱정 부분 국민 기조 평가 민주당 의원 국민 정부 여당 비판 발목 동력 생각 의원 신사협정 얘기 회의장 피켓 시위 텐더 침묵 피켓 시위 반쪽 신사협정 얘기 민주당 상임 본회 의장 공식 약속 신사협정 문제 신사협정 한계 신사협정 규정 구속력 본회 의장 상임 위원장 그때 질문 본회 의장 바깥 상임위 바깥 질문 그때 협상 여야 원내 얘기 텐더 회의장 회의장 원내 교섭단체 의원 피켓 원내 교섭단체 신사협정 자체 해당 얘기 신사협정 자체 신사협정 한계 신사협정 구멍 신사협정 구멍 신사협정 협약 신사협정 국회 교섭단체 정치인 국민 국민 이상 규정 정도 기본 얼마 우려 얘기 마음 불편 야당 의원 악수 의원 악수 지적 의원 시정 악수 화답 악수 딴전 거부 행태 악수 악수 악수 무시 악수 행태 이재명 대표 정식 원칙 악수 회의장 회의장 사전 담회 담회 대표 이상 형태 무시 악수 악수 거부 무시 악수 야당 근성 얘기 사람 근성 야당 본연 자세 생각 의원 의원 얼마 비판 비난 얘기 강성 지지층 극렬 지지층 정치 사람 공개 홍보 정치 윤석열 이재명 민주당 대표 사전 담회 만남 취임 소통 만남 오랜만 이재명 대표 미소 오랜만 이재명 대표 완벽 제스처 오랜만 미소 답례 윤석열 야당 지도부 이전 티타임 상견례 공개 민생 집중 얘기 경청 얘기 부분 여야 물꼬 생각 여당 야당 실제 법안 예산 심의 심사 통과 수정안 야당 발목 몽니 국민 내년도 예산 중요 사업 정책 조정 논의 반영 예산 이재명 대표 미소 야당 정부안 예산 법안 민생 중심 자세 이재명 대표 단식 건강 회복 다음 복귀 민생 집중 약속 부탁 분위기 예산안 심사 반영 바람 말씀 물꼬 얘기 이재명 대표 여야 대표 회동 제안 전망 마음 회동 대통령실 가타부타 얘기 회동 물타기 원내 교섭단체 내지 국회 대표 예전 청와대 물타기 대법원장 헌법재판 소장 물타기 맹탕 경우 상황 만남 대통령실 방향 피켓 시위 이재명 대표 발언 야당 일관 주장 국정 기조 그러지 국정 기조 진작 만약 강서 재보궐선거 얘기 민심 천심 얘기 스타일 행동 행동 정책 소통 짐작 만약 경우 이태원 추도식 인요 혁신 위원장 얘기 만약 느낌 영암 교회 추모 민주당 결론 국정 기조 민주당 결론 시정 여야 원내대표 상임 위원장 간담회 찬도 지금 야당 비판 이슈 쓴소리 양평 의혹 논란 공직자 문제 홍범 장군 문제 이슈 소리 국정 반영 저녁 반응 야당 소통 기대 민주당 결론 의원 단계 이재명 대표 얘기 역대 야당 대표 사법 리스크 재판 리스크 대표 이제 대표 일반 국회의원 지자체 기초 의원 비리 의혹 결과 의원 사퇴 당직 재판 무혐 경우 무죄 판결 복귀 보통 상식 정치 상식 야당 거대 야당 대표 사법 리스크 대표 집권 여당 부담 만일 상의 파트너 경우 국민 의구심 야당 대표 대우 만약 일반 서민 어려움 이제 경직 상황 말씀 강서 재보궐선거 결과 국민 경제 상황 여론 바탕 상임 위원장 야당 상임위 야당 쓴소리 경청 말씀 상임 위원장 식사 소통 자체 부분 양보 여야 물꼬 부분 생각 저녁 얘기 기대 국민 경기도 김포시 서울시 편입 당론 추진 정국 블랙홀 조짐 민주당 반응 영상 결말 김포시 서울시 편입 당론 추진 대표 얘기 이전 김포시 요구 김포시 교통 인프라 문제 교통 다음 교육 문제 다음 주거 문제 이전 논의 이슈 김동연 지사 경기도 북부 남부 얘기 이슈 김포시 문제 이전 경기도 지도 김포시 경기도 북부 남부 북부 편입 남부 편입 경계선 서울 연결 부분 김포시 인구 대비 서울 출퇴근 정도 서울 하루 행량 견해 김포 골드 출근길 지옥 밀집 현상 문제 김포시 지속 민원 김포시 김포 골드 해결 서울 수도 연장 방안 경기도 서울시 연장 종합 서울 과거 도시 서울 활력 동기 인프라 인구 기반 부족 김포시 서울 편입 서울 확대 메가 시티 전략 시티 프로젝트 실현 구현 동력 기본 아이디어 대표 정책 검토 경기도 서울 편입 희망 종합 검토 혼란 김포 김포시 여론 윤재옥 원내대표 경기도 서울 편입 희망 편입 여론 수렴 부분 생각 문제 종합 검토 의견 민주당 반응 의원 문제 얘기 검토 총선 전략 얘기 생각 총선 전략 전략 행정 구역 개편 행정 구역 광역화 문제 문제 논의 다음 김동연 지사 문제 제기 경기 북부 특별 자치 문제 김포시 문제 총선 전략 총선 전략 총선 전략 사람 사람 감자 고양 광명 과천 구리 하남 서울 동서남북 총선 전략 총선 총선 전략 평가 득과 민주당 입장 곤혹 비판 반대 총선 전략 반대 연구 사람 연구 행정 구역 개편 정치 정치 방법 아쉬움 메가 시티 얘기 반대 김경수 지사 얘기 메가 시티 매력 문제 서울 비대 비대 서울 시티 얘기 지금 김포 문제 의원 문제 정치인 선거 김포 골드 시승 얘기 민주당 비판 이슈 국민 평가 메가 시티 대세 의견 서울 공화국 우려 결론 국민 속도전 정부 입법 의원 입법 의원 입법 상대 정부 입법 김포시 서울시 경기도 반대 경우 지연 행안 법안 마련 다음 지자체 동의 상황 김동연 지사 의원 말씀 민주당 일부 의원 반대 상황 직면 총선 본격 상황 민주당 상황 의원 입법 윤재옥 원내대표 얘기 특별법 통과 특별법 지자체 행정 구역 분할 문제 제출 지자체 합의 해당 김포시 주민 투표 통과 통과 김포시 통과 주민 투표 김포시 시민 찬성 국회 본회의 국회 본회의 통과 정부 입법 발표 본회 통과 다수당 민주당 참석 반대 총선 상황 총선 의원 말씀 김포시 민주당 국회의원 주변 해당 주변 국회의원 민주당 경기도 경우 해당 주민 여론 시티 편입 교통망 교육망 서울 혜택 민주당 의원 반대 김동연 지사 김동연 지사 견제 얘기 경기도 비대 차원 김동연 지사 반대 서울 편입 혜택 기대 주민 여론 무마 문제 민주당 정치 말씀 국민 유리 만일 편입 일부 주민 찬성 반대 주민 서울 민심 서울 민심 국민 입장 신중 도전 과제 말씀 행정 구역 개편 선거 전문가 학자 지속 주장 부분 서울 고령화 말씀 자원 유입 상황 수도 서울 부흥 관점 행정 구역 개편 논의 차원 총선 속도전 행정 구역 개편 논의 불씨 말씀 확장 동안 유지 논의 불씨 김포 포함 구리 광명 하남 과천 성남 고양 구가 안팎 정도 구도 이상 시티 시티 행정 구역 개편 행정 구역 재편 행정 구역 개편 행정 구역 개편 차원 문제 김포 문제 제기 김포 시티 행정 구역 개편 차원 얘기 김포 논의 취지 말씀 김포 드라인 문제 경기도 서울시 대화 김포 시민 불만 경기 북부 특별 자치 문제 북부 특별 자치 행정 구역 개편 차원 문제 말씀 전술 전략 국민 중요 문제 정치 의문 장애물 총선 전략 정치 이슈 중요 문제 말씀 경기도 지사 김동연 지사 현실 반대 의사 상황 수도 민심 인접 해당 논의 합리 수렴 만족 합리 국민 윤재옥 원내대표 발언 일방 경기도 서울시 협의 얘기 해당 주민 여론 수렴 일방 사항 김포시 시민 생각 전반 호응 문제 이슈 김포 문제 해결 방안 제안 국민 일방 김동연 지사 경기도 일방 서울 편입 고려 사항 얘기 화면 문제 해결 상황 교육 문제 교통 문제 주거 문제 해결 논의 만일 편입 방향 김동연 지사 동의 경기도 지사 해당 개인 김동연 지사 정치 고려 발언 경기도 민주당 소속 김동연 지사 관할 서울시 시장 국민 시장 시장 한강 프로젝트 김포 서울시 편입 전망 차기 잠룡 거론 영향 총선 이해관계 이해관계 득실 총선 총선 결과 결과 총선 여야 총선 그때 여야 결론 이슈 총선 대선 문제 대선 주자 가정 대선 이슈 이재명 대표 경기도 지사 공식 입장 검토 민주당 국민 논의 의견 수렴 전직 의원', '변호사 민주당 의원 텍스트 실제 차이 정확 확인 동영상 변호사 윤석열 국회 내년도 예산안 시정 민주당 내년도 예산안 심사 정부 여당 전면전 예고 민주당 내수 석부 대표 의원 말씀 의원 민주당 의원 안녕 윤석열 시정 여야 신사협정 피켓 보이콧 국회 회의장 피케팅 신사협정 유효 말씀 신사협정 자체 회의장 전제 신사협정 피켓 시위 의총 보도 의총 부분 원내 지도부 판단 위임 오전 사전 의사 결정 시정 예상 시정 국가 예산 처리 국회 당부 예산 효과 편성 예산 문제 제기 말씀 여당 예산 일부 얘기 부분 수용 부분 관심 대상 시정 야당 메시지 메시지 자체 소통 얘기 행동 행동 얘기 이태원 참사 인생 얘기 유가족 추모식 소통 강조 북미 행동 중요 메시지 행동 생각 사전 환담 이재명 대표 참석 얘기 영수 회담 회담 사전 환담 대표 참석 사전 환담 당사자 참석 의존 형식 진행자 말씀 얘기 본격 내년도 예산안 질문 민주당 송곳 심사 예고 지난해 대통령실 개입 경고 얘기 말씀 여당 청년 일자리 다음 다음 상공 예산 수령 얘기 얘기 정부 국회 예산 심사 무력 행위 여야 공감 부분 국회 얘기 예산 확보 얘기 예산 얘기 삭감 정도 삭감 예산 역대 보수 정권 삭감 삭감 예산 학계 현장 걱정 경제 걱정 부분 국회 예산 기준 근거 무리 삭감 평가 정부 정부 그동안 예산 허투 현장 이해 기준 작용 극지 연구 분야 지금 단독 입찰 예산 연구 용역 국내 단독 입찰 마이크 소프트 사느냐 프로그램 마이크 소프트 얘기 이유 예산 삭감 과학 카르텔 측면 효율 얘기 부분 동의 부분 부분 부분 시정 말씀 예산 삭감 문제 제기 예산 감축 예산 감축 연결 이공 학생 일자리 예산 영향 신경 의아 말씀 홍익표 원내대표 청년 예산 증액 얘기 윤석열 청년 국정 동반자 예산 얘기 정부 책정 예산 민주당 입장 반복 말씀 청년 일자리 여당 정부안 문제 얘기 정도 여당 사업 정도 정도 삭감 청년 일자리 부분 청년 일자리 예산 정도 사업 삭감 청년 청년 예산 적극 지원 예산 삭감 상황 삭감 판단 경제 상황 얘기 정도 조정 예산 경우 삭감 생각 생각 정치인 말씀 기준 국민 생각 예산 청년 예산 코로나 지금 어려움 상공 예산 부분 대책 정도 삭감 상황 부분 생각 민주당 이재명 예산 상품권 새만금 예산 추가 확보 정부 정치 이유 삭감 새만금 예산 이재명 예산 자체 이해 새만금 예산 과거 정부 편성 예산 경제 예산 기후 변화 적응 산업 에너지 이용 생산 상황 새만금 초점 역대 정부 예산 투여 예산 삭감 정치 목적 예산 생각 국정 현황 질문 국감 국정 조사 추진 민주당 사안 국정 조사 요구 본회의 감사원 정치 감사 부분 감사원 감사 위원 국회 사후 얘기 감사 부분 예산 국정 조사 서울 양평 고속도로 부분 의혹 국정 조사 남한강 휴게소 휴게소 휴게소 유일 특혜 방식 매각 운영 부분 국정 조사 말씀 지분 매각 포함 방송사 수도 연일 문제 보도 부분 국정 조사 채수근 상병 사망 사건 특검 지정은 패스트 트랙 지정은 특검 내년 특검 본회의 상황 지금 국정원 수사 단장 항명죄 검찰 정광석 파트 기소 사건 진상 규명 국정 조사 입장 입장 사안 선택 집중 지적 말씀 국정 조사 요구 상임위 지금 얘기 재개 다음 협상 정도 현실 적용 본회의 봉투 본회의 처리 처리 생각 처리 추진 국민 필리 버스터 거부 행사 건의 필리 버스터 공언 상황 거부 행사 봉투 거부 행사 방송법 경우 장악 상황 거부 그동안 얘기 반영 정도 수준 통과 생각 거부 행사 통과 국회 국회 역할 국회 역할 이태원 특별법 민주당 인요 혁신 합의 처리 얘기 국민 안간힘 말씀 행동 중요 행동 이태원 감사 특별법 경우 그동안 정쟁 시도 국민 중단 진심 피해 자분 가족 가슴 생각 특별법 수용 특별법 처리 특별 조사 위원회 구성 운영 행동 인요 혁신 국민 말씀 인요 혁신 민주당 대사 면도 영남 중진 험지 출마 얘기 혁신 지금 실현 실현 당내 질문 지명 최고 위원 박정현 대덕 구청장 비명 공천 학살 공개 선언 조정식 사무총장 교체 요구 판단 지명 최고 위원 지명 공천 학살 납득 부분 자질 검토 부분 평가 부분 생각 조정식 사무총장 부분 상황 현재 원내대표 말씀 위임 말씀 비명 입장 공천 보복 우려 총선 단장 조정식 사무총장 입장 공천 보복 수석 최고 위원 국회 공천 담당 의원 걱정 고민 실제 공천 학살 부분 경선 말씀 이해 그때 시도 경선 원칙 원칙 지금 경선 현역 유리 경선 지역구 사정 일률 말씀 시스템 왜곡 총선 걱정 걱정 말씀 김포시 서울 편입 문제 국민 당론 추진 민주당 사안 검토 고민 자치 단체 이해관계 조정 문제 얘기 입장 신중 검토 생각 말씀 감사 감사 지금 민주당 내수 석부 대표 의원']</t>
+          <t>['가자 시티 미사일 공격 화염 무장 정파 하마스 기습 공격 하마스 무력 충돌 전면전 양측 사망자 하루 가운데 전쟁 공식 선언 하마스 근거지 지상군 투입 배제 이슬람 시아파 맹주 전쟁 국제 확산 우려 정부 항모 전단 동지 중해 발표 전폭 지원 약속 가운데 하마스 공격 승인 언론 보도 침공 전쟁 중동 전쟁 위기감 계엄 상황 예비군 통신 외신 내각 텔아비브 베냐민 네타냐후 총리 주재 하마스 전쟁 공식 선포 정부 결정 군사 행보 하마스 군사 기반 시설 해체 강조 대변인 관영 스푸트니크 통신 지구 지상 작전 포함 검토 계엄령 예비군 동원 남부 사령부 투입 당국자 지상 작전 착수 예상 워싱턴 보도 지상군 투입 발언 하마스 무력 충돌 인명 피해 급증 언론 하마스 공격 사망자 남부 키부츠 축제 행사장 주변 시신 무더기 발견 반격 지구 집계 사망자 가운데 아동 청소년 보건부 부상자 수도 양측 부상자 합계 별개 하마스 공습 참여 무장 조직 이슬라 지하드 인질 지구 억류 주장 헤즈 볼라 개입 항모 재배치 남부 근거지 무장 세력 헤즈 볼라 박격포 지원 약속 확전 양상 헤즈 볼라 접경 골란고원 점령지 셰바 로켓 박격포 남부 겨냥 보복 포격 헤즈 볼라 성명 저항군 연대 차원 전사 셰바 인근 시온주의 군대 공격 포탄 레이더 타격 베냐민 네타냐후 총리 하마스 테러리스트 전례 공격 직면 정부 국민 완전 지원 약속 로이드 오스틴 국방부 장관 성명 제럴드 포드 항모 전단 동지 중해 항모 전단 배치 역내 전투기 편대 증강 조치 하마스 무력 충돌 제동 국제 사회 외교 현재 기대 상황 남부 국경 중재역 자처 성과 익명 요구 당국자 인질 안전 도움 요청 단계 휴전 의사 통신 카셈 하마스 대변인 스푸트니크 통신 주도 전황 결정 무력 충돌 와중 분쟁 조정 방안 시기상조 생포 병사 협상 아크 홍수 작전 유엔 안전 보장 사회 긴장 고조 사태 긴급 논의 실효 대책 마련 규모 공습 지원 지난주 승인 유대교 안식일 토요일 기습 하마스 공습 이슬람 시아파 맹주 지원 정황 월스트리트 저널 공격 안보 당국자 도움 수도 베이루트 하마스 규모 공격 승인 보도 보도 혁명 수비대 장교 하마스 협력 지상 해상 공중 급습 방안 고안 혁명 수비대 하마스 헤즈 볼라 무장 단체 참석 차례 베이루트 세부 사항 개선 가지 하마드 하마스 대변인 인터뷰 공격 직접 지원 예루살렘 해방 전사 약속 정부 하마스 공격 개입 증거 확보 입장 토니 링컨 국무부 장관 인터뷰 공격 지시 배후 증거 기간 하마스 지원', '양측 사상자 동지 중해 항모 급파 하마스 공격 개입 보도 결정 공포 피난민 무장 정파 하마스 기습 하마스 무력 충돌 전면전 양상 양측 사망자 사상자 가운데 전쟁 공식 선포 하마스 근거지 지상군 투입 배제 침공 전쟁 중동 전쟁 위기감 행정부 항모 전단 동지 중해 발표 전폭 지원 약속 가운데 하마스 공격 승인 보도 블룸버그 통신 공포 유가 급등 상황 당장 유가 위협 충돌 파괴 위험 하마스 방위군 교전 하마스 관문 벤구리온 국제공항 중심부 겨냥 로켓포 공격 감행 하마스 근거 지인 지구 공습 지상 공격 영토 하마스 병력 교전 지속 남부 주변 하마스 무장 대원 교전 발표 공격 하마스 무장 세력 이슬라 지하드 표적 이상 전투기 헬기 포병 동원 공습 포격 하마스 지휘부 이슬라 지하드 지휘부 타격 테러 조직 역량 약화 당국 대변인 관영 스푸트니크 통신 지구 지상 작전 포함 검토 계엄령 예비군 동원 남부 사령부 투입 워싱턴 당국자 지상 작전 착수 예상 요아브 갈란트 국방 장관 하마스 침투 억류 남부 오파 보복 기억 하마스 후회 갈란트 장관 전쟁 규칙 지구 대가 세대 변화 내각 텔아비브 베냐민 네타냐후 총리 주재 하마스 전쟁 공식 선포 정부 군사 행보 하마스 군사 기반 시설 해체 강조 네타냐후 총리 도시 하마스 하마스 폐허 보복 조치 경고 인명 피해 급증 하마스 공격 국민 이상 사망 부상 부상자 상태 남부 키부츠 축제 행사장 주변 시신 무더기 발견 대변인 조너선 리커스 중령 국민 살해 이전 테러 진주 공습 공습 지구 집계 사망자 가운데 아동 청소년 보건부 부상자 수도 양측 부상자 합계 하마스 별개 공격 참여 무장 조직 이슬라 지하드 국민 인질 지구 억류 주장 외국인 사망 실종 상태 인질 미국인 포함 주민 피란 행진 타스 통신 유엔 인도주의 조정 오후 인구 전일 네타냐후 총리 하마스 테러리스트 전례 공격 직면 정부 국민 완전 지원 약속 로이드 오스틴 국방 장관 제럴드 포드 항모 전단 동지 중해 항모 전단 배치 역내 전투기 편대 증강 조치 항모 전단 항공모 제럴드 포드 순양함 노르망 디함 구축 토마스 허드 매미 지함 카니 루스벨트 구성 국방부 역내 전투기 편대 증강 조치 하마스 무력 충돌 제동 국제 사회 외교 현재 기대 상황 남부 국경 중재역 자처 성과 유엔 안전 보장 사회 긴장 고조 사태 긴급 논의 실효 대책 마련 로켓 공격 아이언 무용지물 철통 방공 아이언 하마스 로켓 공격 방어 시스템 핵심 아이언 지구 발사 단거리 중거리 미사일 요격 설계 무장 세력 헤즈 볼라 로켓 발사 피해 나자 교훈 미사일 방어 시스템 배경 지구 베르셰바 가동 기준 포대 배치 포대 요격 미사일 발사 발사대 포대 포격 감지 식별 레이더 장착 정보 통제 센터 전송 궤적 분석 충돌 지점 계산 로켓 민간인 인프라 타결 계산 국제 관계 연구소 연구 책임자 마크 헤커 로켓 사람 요격 미사일 발사 아이언 설계 아이언 요격 아이언 요격 철통 방어 아이언 천발 로켓 기능 발휘 하마스 로켓 발사 주장 헤커 하마스 방어 시스템 실패 미사일 발사 포화 상태 아이언 방어 실패 핵심 요소 하마스 발사 로켓 방공 하마스 공격 피해 정보 참패 원인 일간 텔레 그래프 일간 레츠 정보 당국 지난주 하마스 전면 침공 보도 아이언 로켓 소나기 기습 공격 허점 수도 위협 장사정포 대응 문제 관심 북한 장사정포 최대 포탄 로켓탄 수도 당국 분석 규모 공습 지원 지난주 승인 유대교 안식일 토요일 기습 하마스 공습 이슬람 시아파 맹주 지원 정황 월스트리트 저널 공격 안보 당국자 도움 수도 베이루트 하마스 규모 공격 승인 보도 보도 혁명 수비대 장교 하마스 협력 지상 해상 공중 급습 방안 고안 혁명 수비대 하마스 헤즈 볼라 무장 단체 참석 차례 베이루트 세부 사항 개선 가지 하마드 하마스 대변인 인터뷰 공격 직접 지원 예루살렘 해방 전사 약속 유엔 대표부 성명 유지 대응 관여 하마스 무장 단체 이슬라 지하드 자금 무기 지원 사태 관여 정부 하마스 공격 개입 증거 확보 입장 토니 링컨 국무부 장관 공격 지시 배후 증거 기간 하마스 지원 링컨 장관 하마스 공격 관계 정상 교섭 방해 견해', '공습 건물 로이터 테러 충격 하마스 로켓 공격 방공 무용지물 정보 기관 방위군 첩보 실패 하마스 무장 대원 지상 침투 패러글라이딩 국경 하마스 수장 예루살렘 진격 헤즈 볼라도 박격포 공격 중동 화약고 폭발 유대인 명절 초막절 코트 무장 단체 하마스 대대 기습 공격 테러 세계 대전 진주 공격 예상 충격 투자 도입 첨단 저고 방어 시스템 아이언 하마스 로켓 공격 방위군 광범위 첩보망 정보 기관 베트 국내 모사드 해외 하마스 공격 사전 파악 경보 보망 정보망 참혹 패배 하마스 공격 아랍 중동 전쟁 키푸르 전쟁 발발 하루 전개 전쟁 수준 하마스 무력 충돌 예견 사태 하마스 가자 지구 대감 공격 반격 작년 집권 베냐민 네타냐후 총리 극우 세력 연대 유대 정착 확대 차별 조치 하마스 물리 충돌 유엔 통계 양측 충돌 살해 주민 국민 최소 수면 갈등 표출 하마스 최대한 충격 보안 유대교 기념일 아크 홍수 작전 개시 로켓 발사 공격력 극대 무장 대원 지상 국경 침투 하마스 공격 텔아비브 포함 남부 로켓 발사 추가 발표 방위군 수준 아이언 하마스 로켓 요격 피해 하마스 로켓 부품 밀수 지구 정보 당국 봉쇄 하마스 로켓 보유 현황 감시 중앙정보부 하마스 무기 재고량 공격 인지 하마스 무장 대원 해상 공중 남부 다발 일부 대원 전동 패러글라이더 국경 군인 사살 경찰서 식당 공연장 급습 민간 보행자 차별 총격 군인 민간 사망 최소 집계 하마스 소셜 미디어 계정 무장 대원 탱크 병사 영상 국경 인근 주민 총기 괴한 집집 민간인 일부 주민 베어 리지 대형 식당 인질 제보 하마스 군인 민간인 인질 수감 맞교환 목적 하마스 추가 공격 예고 하마스 이스마엘 무장 정파 싸움 요르단강 서안 예루살렘 확대 싸움 시온주의 당국 심장부 확전 동국 관계 정상 아브라함 협약 보호 비난 하마스 공격 무장 단체 이슬라 지하드 합세 기반 이슬람 시아파 무장 조직 헤즈 볼라 북부 기지 박격포 공격 가세 아랍 중동 전쟁 확전 우려 하마스 전쟁 상태 선포 예비군 동원 철검 작전 명명 반격 전투기 동원 하마스 시설 보복 공습 최소 주민 헤즈 볼라 기지 포격 베냐민 네타냐후 총리 도시 하마스 하마스 폐허 전쟁 선언 물리력 총동원 보복 경고 네타냐후 총리 충돌 상황 점검 군사력 군사력 정보 정보 외교 외교 확보 약속 토니 링컨 국무 장관 마무드 아바스 자치 정부 수반 외교 해법 마련 아바스 수반 하마스 공격 배경 부당 식민주의자 점령군 관행 이슬람교도 행위 무장 세력 하마스 기습 공격 전쟁 오전 시각 촉발 유엔 변국 확전 자제 요청 진화 안토니우 구테 유엔 사무총장 대변인 발표 메시지 하마스 공격 방식 비판 민간 피해 우려 양측 자제 촉구 유엔 사태 안전 보장 사회 안보리 소집']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_이스라엘_하마스_팔레스타인_가자지구</t>
+          <t>2_하마스_공격_영상_무장</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['이스라엘', '하마스', '팔레스타인', '가자지구', '공격', '인질', '휴전', '무장']</t>
+          <t>['하마스', '공격', '영상', '무장', '인질', '테러', '시위', '전쟁', '살해', '이슬람', '공습', '뉴욕', '주장', '기습', '납치']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['피란길 팔레스타인 주민 현지 가자지구 남부 이집트 라파 통로 국경 이집트 대기 연합뉴스 팔레스타인 가자지구 이스라엘 지상군 투입 초읽기 관측 미국 이스라엘 가자지구 점령 실수 국제 사회 이스라엘 지상군 투입 우려 목소리 가운데 팔레스타인 무장 정파 하마스 이스라엘 기습 공격 이스라엘 자제 촉구 현지 인터뷰 하마스 하마스 극단 요소 팔레스타인 주민 대표 이스라엘 가자지구 점령 실수 생각 하마스 제거 이스라엘 하마스 휴전 질문 이스라엘 홀로코스트 유대인 대학살 야만 행위 집단 하마스 공격 하마스 섬멸 작전 동의 이스라엘 가자지구 점령 부정 인식 풀이 이란 개입 어조 경고 메시지 헤즈 볼라 단체 후원 이란 메시지 차례 반복 전쟁 개입 뉴욕 타임스 하마스 공격 이스라엘 제지 공개 노력 그간 가자지구 포위 작전 이스라엘 비판 가자지구 전면 점령 경고 부여 워싱턴 이스라엘 지상전 예상 피해 완화 움직임 가운데 이스라엘 군사 작전 전적 일부 변화 풀이 가운데 이스라엘 방문 관측 이스라엘 일간 레츠 소식통 이스라엘 방문 타임스 오브 이스라엘 현지 언론 베냐민 네타냐후 이스라엘 총리 연대 자국 보도 시오스 방문 이스라엘 표현 이란 레바논 무장 단체 헤즈 볼라 전쟁 메시지 초점 올라프 숄츠 독일 총리 이스라엘 방문 예정 통신 민간 피해 우려 상황 미국 서방 이스라엘 지상 공세 미지수 파이낸셜 타임스 서방 다수 국가 네타냐후 총리 가자지구 인도 지원 제한 하마스 파괴 장기 계획 지상전 연기 촉구 이스라엘 자국 가자지구 결정 하마스 제거 인구 가자지구 통치 현실 문제 지적 이스라엘 가자지구 점령 실행 대안 점령 전망 로이터 통신 이스라엘 전날 하마스 군사 본부 로켓 발사장 폭격 공습 공격 하마스 고위 사령관 무타즈 이드 이스라엘 육상 진입 이스라엘 공군 육군 최고 지휘관 전투기 북부 상공 조감 현지 언론 가자지구 이스라엘 철수 자시 이스라엘 하마스 납치 인질 기존 파악 다니엘 하가리 이스라엘 대변인 인질 추가 확인 가족 통보 확인 인질 우려', '현지 이스라엘 남부 팔레스타인 주민 이스라엘 정착 납치 민간인 가자지구 연합뉴스 하마스 이스라엘 공격 민간인 학살 포함 외국인 차별 살해 지상군 투입 이스라엘 하마스 테러 조직 선언 가자지구 봉쇄 유럽 서방 팔레스타인 지원 사우디 팔레스타인 대립 파이낸셜 팔레스타인 무장 정파 하마스 민간 학살 확인 이스라엘 사망자 숫자 이스라엘 하마스 이슬람 국가 예비군 동원 포위 하마스 공세 납치 이스라엘 살해 협박 차별 민간 학살 외국인 다수 사망 팔레스타인 가자지구 통치 무장 정파 하마스 현지 이스라엘 점령 로켓 무장 병력 현지 정착 민간인 이스라엘 초소 공격 이스라엘 공영 기준 최소 이스라엘 사망 현지 자원 봉사 구조 단인 자카 발표 정착 시신 확인 하마스 이스라엘 남부 축제 행사 습격 최소 살해 하마스 민간 학살 이스라엘 주민 납치 가자지구 미국 발표 하마스 공격 최소 미국인 사망 확인 작업 하마스 억류 사람 미국 시민 생각 전날 국방부 해군 제럴드 포드 항공모함 전단 동지 중해 배치 이스라엘 군사 지원 약속 브리핑 미국 지상군 이스라엘 배치 계획 미국인 기준 태국 인과 사망 아르헨티나 우크라이나 프랑스 국적 사망 캄보디아 캐나다 러시아 국민 독일 브라질 이탈리아 멕시코 국민 다수 외국인 실종 이스라엘 한국인 장기 체류 여행객 인명 피해 접수 하마스 가자지구 봉쇄 이스라엘 베냐민 네타냐후 총리 하마스 상대 전면전 선언 보복 이스라엘 공군 가자지구 폭격 최소 팔레스타인 주민 사망 네타냐후 전쟁 존재 투쟁 이슬람 극단 무장 세력 언급 하마스 세계 하마스 테러 조직 규정 네타냐후 하마스 현대 세계 승리 하마스 승리 강조 전쟁 결과 주장 이스라엘 기준 하마스 무장 병력 사살 이스라엘 영역 통제 주장 이스라엘 가자지구 전기 수도 전면 포위 요아브 갈란트 이스라엘 국방 장관 가자지구 완전 포위 공격 명령 전기 음식 연료 폐쇄 야만인 대응 강조 이스라엘 예비군 동원령 이스라엘 안팎 지상군 투입 인질 살해 협박 하마스 범아 알자지라 하마스 산하 군사 조직 여단 성명 이스라엘 공습 비난 민간인 표적 행위 인질 처형 납치 이스라엘 주민 협박 여단 이스라엘 지구 민간 건물 경고 공습 이스라엘 인질 살해 장면 오디오 비디오 중계 유감 결정 시오 니스트 지도부 책임 주장 이스라엘 정부 하마스 최소 인질 외국인 다수 납치 태국 정부 자국민 하마스 인질 중국 러시아 국민 납치 여단 아부 오바 대변인 공격 상황 인질 문제 협상 숙고 인질 석방 협상 주장 납치 인질 가운데 일부 사망 미국 영국 프랑스 독일 이탈리아 포함 서방 국가 성명 하마스 공격 테러 규정 팔레스타인 주민 불만 하마스 팔레스타인 주민 분리 서방 국가 팔레스타인 재정 지원 유럽연합 발표 팔레스타인 개발 원조 중단 검토 미국 이스라엘 관계 정상 압박 사우디아라비아 왕세자 팔레스타인 자치 정부 마흐무드 압바스 수반 사태 팔레스타인 갈등 노력 하마스 지구 내전 세력', '창밖 현지 팔레스타인 아이 이스라엘 폭격 가자지구 건물 잔해 바깥 연합 현지 팔레스타인 무장 정파 하마스 이스라엘 기습 공격 전쟁 열흘 열흘 기간 양측 사망자 기준 상태 하마스 대대 보복 선언 이스라엘 팔레스타인 가자지구 봉쇄 연일 공습 지붕 감옥 가자지구 감옥 지옥 열흘 세계 경악 이스라엘 하마스 전쟁 정리 하마스 공격 죽음 지상 공중 해상 이스라엘 유대 명절 초막절 오전 팔레스타인 무장 정파 하마스 가자지구 분리 장벽 이스라엘 남부 기습 공격 감행 작전 명은 아크 홍수 아크 동예루살렘 이슬람 사원 메카 메디나 이슬람 성지 아크 동예루살렘 이슬람교 기독교 유대교 계시 종교 지로 분쟁 이스라엘 아크 경찰 투입 예배 팔레스타인 체포 극우 정치인 사원 경내 기습 팔레스타인 도발 아크 사원 갈등 전쟁 발발 하마스 서안 지구 공습 폭력 사태 이스라엘 팔레스타인 탄압 공격 이유 작전 아크 홍수 명명 무장 세력 중장비 이스라엘 주변 분리 장벽 모터보트 패러글라이더 동원 방면 이스라엘 영토 침투 지하 방어벽 감시 센서 첨단 자부 이스라엘 국경 분리 장벽 속수무책 로켓 공격 저고도 방공 시스템 아이언 로켓포 공격 무력 침투 무장 대원 남부 마을 공격 민간인 살해 납치 이스라엘 남부 키부츠 축제 현장 순식간 학살 현장 이스라엘 반격 이스라엘 하마스 교전 작전 북부 남부 전역 미사일 발사 보복 공습 베냐민 네타냐후 이스라엘 총리 성명 상황 군사 작전 전쟁 그동안 대가 경고 지붕 감옥 가자지구 전쟁 서막 영상 이스라엘 하마스 충돌 중동 전쟁 위기 중동 화약고 팔레스타인 무장 정파 하마스 새벽 기습 공격 전쟁 하마스 공격 하마스 이스라엘 전쟁 갈등 불씨 누적 팔레스타인 무장 정파 하마스 이스라엘 기습 공격 배경 누적 첨단 국경 패러글라이더 아이언 첨단 감시망 이스라엘 안보 대참패 무장 세력 공중 해상 내륙 방면 침투 철통 방어벽 이스라엘 전쟁 공식 선포 강력 보복 예고 하마스 공격 전쟁 비화 공격 이스라엘 정부 공식 하마스 전쟁 선포 베냐민 네타냐후 총리 복수 예고 하마스 폐허 선언 양측 사상자 사망자 이스라엘 팔레스타인 포함 키부츠 축제 행사장 주변 시신 무더기 발견 하마스 공격 참혹 상황 영상 사회관 계망 서비스 하마스 이스라엘 이상 인질 곳곳 분산 수감 하마스 억류 인질 이스라엘 국제 사회 본격 개입 미국 전날 긴급 이스라엘 표명 항공모함 제럴드 포드 항모 전단 이스라엘 인근 동지 중해 급파 이스라엘 무기 군사 장비 지원 약속 서안 지구 통치 팔레스타인 자치 정부 아랍연맹 긴급회의 요청 아랍연맹 양측 무장 대립 중단 폭력 극단 이스라엘 정책 안정 위협 시한 폭탄 비판 하마스 공격 배후 이스라엘 앙숙 시아파 맹주 이란 의혹 월스트리트 저널 제기 미국 정부 이란 개입 직접 증거 파악 신중 태도 키푸르 전쟁 최악 사태 전쟁 중동 변국 확산 우려 고조 하마스 아랍 국가 봉기 촉구 이란 직접 지원 헤즈 볼라 하마스 이스라엘 공격 동참 전쟁 개입 하마스 선언 헤즈 볼라 레바논 시리아 접경 골란고원 이스라엘 점령지 셰바 로켓 박격포 배후 자처 중동 전역 이스라엘 미국 국기 시위 이라크 레바논 시리아 예멘 하마스 시위 헤즈 볼라 이스라엘 공격 가담 시리아 최악 최악 사태 이스라엘 하마스 전쟁 중동 변국 확산 최대 수혜자 하마스 작전 축하 후설 팔레스타인 무장 정파 하마스 이스라엘 공격 배후 이란 추측 우크라 이스라엘 전쟁 정부 중동 전략 비상 러시아 우크라이나 전쟁 장기 와중 중동 화약고 이스라엘 팔레스타인 가자지구 전면 봉쇄 전쟁 사흘 이스라엘 가자지구 전면 봉쇄 선언 보복 예고 이스라엘 전기 식량 연료 공습 빈곤 가자지구 주민 인도주의 위기 직면 우려 가자지구 지상 최대 감옥 중동 화약고 세계 최대 감옥 이스라엘 하마스 공격 가자지구 인근 통제 회복 경계 이스라엘 집결 지상군 투입 관측 이스라엘 예비군 동원 이스라엘 가자지구 규모 공습 하마스 납치 인질 처형 맞불 하마스 성명 이스라엘 가자지구 민간 주택 사전 경고 공격 이스라엘 민간 위협 이스라엘 지상전 인질 안전 사태 최대 변수 분석 이스라엘 극우 내각 강경 대처 주문 논란 내각 대표 극우 트리 재무 장관 하마스 잔혹 공격 인질 문제 중요 생각 주장 하마스 납치 인질 미국 영국 프랑스 독일 태국 다수 외국인 포함 이스라엘 하마스 무력 충돌 양측 사망자 현지 치안 상황 악화 세계 주요 항공사 이스라엘 운항 중단 이스라엘 하마스 극단 세력 비극 피해 민간 이스라엘 극우 정부 팔레스타인 무장 단체 하마스 참혹 전쟁 적대 공생 인질 이스라엘 하마스 충돌 변수 하마스 협상 카드 팔레스타인 무장 단체 하마스 이스라엘 납치 가자지구 인질 사태 최대 이스라엘 하마스 충돌 다극 체제 전환 상징 팍스 아메리카나 종말 이스라엘 팔레스타인 무장 정파 하마스 무력 충돌 중동 전쟁 확전 우려 공습 국제 사회 봉쇄 비판 이스라엘 가자지구 전면 봉쇄 국제 사회 우려 표명 유엔 민간 생명 위협 포위 공격 국제 도법 위반 비판 유럽연합 이스라엘 방어 권리 국제법 국제 도법 가운데 민간 피해 눈덩이 상황 국제 사회 합의 분열 중심 유엔 존재감 팔레스타인 원조 중단 철회 혼란 행보 최악 이스라엘 하마스 갈등 중재자 유엔 유명무실 이스라엘 가자지구 공습 이스라엘 포격 중점 정확 피해 민간 피해 개의 입장 전쟁 나흘 양측 사망자 이스라엘 팔레스타인 이스라엘 지상전 임박 신호 곳곳 감지 이스라엘 가자지구 경계 군사력 증강 포위 강화 미국 정부 지원 무기 수송기 이스라엘 도착 세계 최대 규모 추진 항공모 제럴드 포드 항모 전단 이스라엘 인근 동지 중해 배치 미국 정부 하마스 납치 인질 구출 특수작전 부대 인질 구출 전문가 파견 창살 감옥 가자지구 주민 안전 유엔 전면 봉쇄 반대 팔레스타인 무장 정파 하마스 이스라엘 교전 수일 가운데 창살 감옥 임박 지상전 전개 지상전 임박 공성전 요새전 이스라엘 딜레마 팔레스타인 무장 정파 하마스 이스라엘 전쟁 이스라엘 가자지구 전기 가자지구 인도적 위기 본격화 지구 위기 본격 전쟁 가자지구 유일 발전소 이스라엘 전력 중단 가동 지구 인구 이재민 면적 주민 거주 가자지구 세계 인구 밀도 하마스 공습 이스라엘 가자지구 이상 로켓 발사 이상 목표물 타격 국제법 보호 유엔 건물 파괴 과거 공격 민간인 사전 경고 양측 사망자 이스라엘 팔레스타인 전쟁 발발 이스라엘 시리아 교전 발생 시리아 전날 이스라엘 영토 다수 박격포 발사 이스라엘 정권 기지 폭격 이스라엘 헤즈 볼라 근거 지인 레바논 남부 폭격 확전 긴장감 이스라엘 예비군 동원 박차 소집 예비군 이스라엘 인구 해당 키푸르 전쟁 규모 동원 세계 각국 수송기 동원 이스라엘 자국민 대피 대탈출 러시 네타냐후 정부 사법부 무력 법안 추진 갈등 분열 이스라엘 정치 전쟁 계기 결집 이스라엘 야권 참여 비상 통합 정부 전시 내각 구성 발표 전시 내각 구성 이스라엘 정치 하마스 타도 단결 가자지구 인도주의 한계 도달 팔레스타인 무장 정파 하마스 이스라엘 전쟁 분열 이스라엘 정치 하마스 헤즈 볼라 망설 이스라엘 개입 리스크 고려 하마스 이스라엘 충돌 초기 레바논 헤즈 볼라 개입 관심 헤즈 지옥 감옥 포격 가자 주민 전쟁 엿새 양측 사망자 이스라엘 팔레스타인 부상자 사상자 가자지구 봉쇄 포격 인도주의 붕괴 시점 관측 국제 인권 단체 휴먼 라이츠 워치 이스라엘 국제 금기시 치명 살상 무기 백린탄 지구 레바논 발표 이스라엘 하마스 납치 인질 전기 가스 공급 재개 발표 봉쇄 가자지구 최소한 병원 운영 단계 진입 팔레스타인 보건부 일부 병원 우물 의존 국제 십자 위원회 가자지구 병원 영안실 위험 경고 세계 보건 기구 가자지구 의료 시스템 한계점 얼마 이재민 하루 증가 미국 정부 미국인 팔레스타인 민간인 인접국 이집트 대피 방안 국과 논의 규모 난민 유입 우려 이집트 국경 거부 이스라엘 봉쇄 이집트 국경 폐쇄 주민 가자지구 통로 탈출구 열쇠 이집트 난민 사태 우려 절레 인도 지원 대피 이스라엘 협상 민간인 촉구 이스라엘 하마스 충돌 전망 양측 강경파 득세 문제 악화 팔레스타인 무장 정파 하마스 이스라엘 무력 충돌 인명 희생 수반 탈출구 분열 세계 이스라엘 규탄 하버드 대생 역풍 대학가 최루탄 물대포 프랑스 팔레스타인 집회 금지령 이스라엘 대피 발동 떠나라 전쟁 이스라엘 가자지구 인구 절반 해당 민간인 대피 명령 이스라엘 국방부 성명 며칠 규모 작전 가자 시티 주민 가족 안전 남쪽 대피 발표 이스라엘 대대 지상전 신호 반면 하마스 이스라엘 심리전 규정 주민 촉구 공습 가스 전기 생필품 완전 차단 조치 최악 상황 가자지구 규모 피란 행렬 대피 남쪽 피란 주민 이스라엘 안전 보장 도로 공격 사건 발생 피란길 이스라엘 공습 발길 유엔 사람 대피 재앙 발생 경고 미국 이스라엘 자제 촉구 하마스 후원자 이란 압박 미국 정부 당초 동결 해제 이란 원유 수출 자금 동결 발표 이스라엘 가자지구 주민 절반 철수 통보 팔레스타인 무장 정파 하마스 이스라엘 전쟁 양측 사상자 하마스 봉쇄 외교전 분주 전선 수도 이스라엘 팔레스타인 무장 정파 하마스 무력 충돌 위기 관리 미국 하마스 치료 묘지 가자지구 보건 시스템 마비 팔레스타인 무장 정파 하마스 공습 이스라엘 보복 공격 수일 가운데 네타냐후 다음 단계 지상군 투입 초읽기 베냐민 네타냐후 이스라엘 총리 가자지구 인근 주둔 이스라엘 부대 방문 다음 단계 지상군 투입 기정사실 이스라엘 국방부 성명 공중 해상 지상 작전 포함 포괄 공격 가자지구 지상군 투입 전면전 초읽기 하마스 지원 이란 개입 언급 이스라엘 경고장 호세인 아미르 외무 장관 이란 레드라인 이스라엘 지상전 실행 대응 이란 분쟁 직간접 개입 경우 전쟁 중동 확대 우려 보호 수단 맨몸 전쟁 복판 가자지구 주민 대피 예고 기한 얼마 필사 탈출 행렬 이스라엘 대피 국제 사회 우려 비판 이스라엘 대피 기한 연장 가자지구 이집트 국경 검문소 라파 통로 가자 안전 대피 포기 국제기구 일부 국가 가자지구 구호 물품 진입 국제 사회 이스라엘 발령 주민 대피 국제법 전쟁 범죄 해당 강제 이주 지적 가자지구 주민 이스라엘 대피 명령 강제 이주인 나크 분석 재앙 이스라엘 국가 자행 강제 이주 조치 팔레스타인 팔레스타인 마을 파괴 목숨 마크 린치 조지워싱턴 국제 관계학 교수 포린 어페어스 고문 가자지구 사람 대피 경우 전쟁 역사 주민 대피 인도주의 통로 문제 해결 지적 전쟁 사우디아라비아 미국 중재 이스라엘 수교 협상 중단 미국 정부 추진 중동 데탕트 구상 차질 네타냐후 다음 단계 비극 베냐민 네타냐후 이스라엘 총리 현지 팔레스타인 무장 정파 하마스 근거지 가자지구 이스라엘 피란길 차별 포격 인도 대피 이스라엘 약속 안전 대피 이스라엘 대대 지상 작전 하마스 납치 인질 가족 공격 중단 호소 이유 엄마 아빠 가족 팔레스타인 무장 정파 하마스 절멸 목표 이스라엘 가자지구 지상군 투입 초읽기 국제 사회 이스라엘 지상군 투입 가자지구 참혹 상황 국제 사회 여론 하마스 이스라엘 민가 습격 공격 국제 사회 이스라엘 대대 보복 공습 팔레스타인 민간 피해 본격 이스라엘 경고 목소리 아랍연맹 아프리카 연합 성명 지상 작전 전개 전례 규모 대량 학살 계획 철회 요구 알자지라 이스라엘 지상군 투입 반대 입장 표명 국가 국제 단체 이스라엘 동맹국 지원국 미국 이스라엘 가자지구 점령 공개 경고 미국 하마스 제거 이스라엘 가자지구 점령 실수 하마스 섬멸 지구 지상군 투입 용인 점령 베냐민 네타냐후 이스라엘 총리 전쟁 발발 각료 하마스 절멸 강조 미국 민간인 라파 통로 대피 남부 공습 발표 네타냐후 총리 휴전 이스라엘 하마스 전쟁 양측 사망자 이스라엘 팔레스타인 하마스 이스라엘 민간 공격 전쟁 이스라엘 보복 공격 전개 팔레스타인 사망자 이스라엘 사망자 숫자 응징 이스라엘 민간인 국제 여론 팔레스타인 가자지구 지상군 투입 이스라엘 악화 국제 사회 여론 직면 전쟁 향후 전망 이란 이스라엘 하마스 전쟁 개입 전망 이스라엘 팔레스타인 무장 정파 하마스 전쟁 확전 여부 결정 이란 개입 하마스 지하 터널 이스라엘 고전 전시 세계 경제 이스라엘 하마스 지상전 예고 전쟁 파장 중동 세계 파급 참혹 가자지구 현장 시신 안치소 아이스크림 시신 생지옥 가자지구 전기 의약품 가자지구 부족 시신 안치 국경 비극 일각 희망 관측 탈출 전날 이스라엘 주재 미국 대사관 전쟁 발발 열흘 가자지구 유일 탈출 라파 통로 공지 새벽 검문소 인파 장사진 국경 개방 이스라엘 하마스 양측 구호품 반입 외국인 철수 일시 휴전 관측 가운데 지구 상황 악화 이스라엘 가자지구 전기 식수 구호품 반입 완전 봉쇄 이스라엘 하마스 전쟁 실시간 확인 이스라엘 하마스 전쟁 선명']</t>
+          <t>['하마스 대원 시신 발견 하마스 인질 살해 협박 유엔 전면 봉쇄 국제법 위반 외무 장관 긴급회의 보복 공습 속보 무장 정파 하마스 무력 충돌 사망자 최악 상황 양측 사상자 집계 별개 하마스 무장 대원 시신 발견 공습 지속 희생자 전망 민간 피해 하마스 민간 인질 살해 협박 로이터 통신 지금 하마스 공격 사망자 골드 퍼스 준장 브리핑 테러 단체 하마스 단체 공격 경고 통신 남부 키부츠 시신 추가 발견 하마스 무장 대원 침투 남부 상황 정리 사망자 건국 최대 사망자 규모 가운데 장병 부상자 집계 브리핑 접경 장악 남부 통제 회복 대변인 리처드 헥트 중령 하마스 무장 대원 시신 발견 추가 침투 무장 대원 보복 공습 사망자 보건부 지금 집계 사망자 아동 청소년 포함 부상자 요르단강 서안 분쟁 발발 폭력 사태 주민 분쟁 발발 나흘 양측 사망자 양측 부상자 합계 파악 발견 하마스 대원 시신 사망자 알자지라 사망자 어린이 포함 부상자 가운데 이상 어린이 하마스 장병 포함 최소 인질 지구 억류 당국 파악 이중국 적자 외국인 포함 통신 하마스 교전 외국인 사망자 실종자 보도 전면 봉쇄 선언 보복 공습 전날 타격 철검 작전 반격 전투기 선박 대포 동원 지금 목표물 타격 유엔 공습 지구 주택 파괴 건물 손상 주민 단수 민간 피해 하마스 민간 인질 살해 협박 로이터 통신 아부 우바 하마스 대변인 전날 성명 민간 주택 사전 경고 공격 민간 인질 살해 위협 예비군 동원령 완전 보복 기미 하마스 공군 겨냥 집중 공습 베냐민 네타냐후 총리 방영 하마스 공격 수일간 공격 세대 영향 하마스 이스마엘 하다스 채널 전투 인질 석방 협상 전면 봉쇄 공습 지구 식료품 의약품 연료 고갈 인도주의 위기 우려 유엔 난민 구호 기구 주민 가운데 전쟁 발발 피란민 가운데 학교 피소 라파 통행로 전날 공습 소식 유엔 전면 봉쇄 국제법 위반 소지 우려 표명 폴커 투르크 유엔 인권 대표 성명 분쟁 당사자 공격 민간인 민간 재산 시설 물품 보호 민간인 생존 필수 물품 공급 생명 위협 포위 공격 국제 도법 금지 사항 지적 유엔 인도주의 조정 세계 식량 식료품 의약품 인도주의 구호 물품 공급 인도적 통로 개설 촉구 양측 중재 국제 사회 움직임 감지 호세프 보렐 유럽연합 외교 대표 자치 정부 외무 장관 오후 예정 외교 장관 원조 중단 발표 철회 성명 하마스 공격 비난 하마스 분쟁 관여 경고 로이터 통신', '발사 로켓 격추 아이언 아슈켈론 방공 아이언 발사 로켓 격추 유대 안식일 무장 정파 하마스 공격 교전 양측 가량 사망자 발생 거주 세계 구밀 하마스 정부 역할 유대인 아랍인 영토 종교 역사 무장 정파 하마스 전쟁 중동 화약고 확전 위기 양측 앙금 전쟁 확전 도화선 우려 가운데 민간 희생자 숫자 국제 사회 지탄 하마스 근거지 규모 지상전 예고 측간 희생 규모 전망 가운데 본지 전쟁 배경 역사 원인 향후 전쟁 양상 집중 국내외 외교가 전문가 푸틴 우크라 침공 유럽 변화 하마스 기습 공격 촉발 중동 전환점 전망 전쟁 홀로코스트 최대 독립 하루 최다 사망자 발생 가늠 사망자 복원 수습 작업 증가 공영 하루 하마스 기습 발생 민간인 사망자 보도 인구 규모 감안 한국 대입 하루 치환 하루 국민 기습 공격 사망 정도 충격 사건 얘기 언론 일각 유아 포함 희생자 상당수 참수 참수 여부 확인 정도 잔악 살해 보도 가운데 하마스 기습 공격 테러 전쟁 규정 보복 베냐민 네타냐후 총리 도시 하마스 폐허 포위 공습 포격 지상군 진입 양측 사망자 부상자 포함 전황 집계 수치 변화 전망 원인 배경 평화 해법 지구 점령 수용 지중해 연안 거주 세계 인구 밀도 면적 서울시 절반 인구 기준 대구 광역시 수준 하마스 수니파 근본주의 군사 민족주의 조직 해방 건설 궁극 소멸 목표 의회 선거 승리 정부 역할 무장 정파 거주 거주 서안 지구 웨스트 뱅크 온건파 파타 주도 서안 지구 자치 정부 노선도 인정 무장 투쟁 국제 사회 인정 해법 추진 세기 로마 식민지 생활 유대 독립 전쟁 패배 세계 일부 공존 종교 생활 관습 유지 디아스포라 유랑 나라 유태 민족 대전 일부 건국 독립 지금 중동 화약고 포연 국제 사회 전문가 본질 하마스 포함 아랍 영토 종교 역사 문제 최악 궁극 평화 해법 총리 골다 메이어 사람 무기 평화 만약 사람 무기 인종 학살 자행 유대인 아랍 비밀 병기 유럽연합 호주 하마스 하마스 일부 군사 조직 테러 집단 지정 반면 중국 튀르 하마스 테러리스트 지정 개전 초기 양상 아이언 무력 유대교 안식일 오전 무장 정파 하마스 통치 드럼통 로켓 로켓 비율 인근 정착 도시 수도 텔아비브 차별 외신 로켓 주요 시설 민간 구역 건물 붕괴 차량 파괴 피해 속출 포성 공습 사이렌 도시 순식간 전쟁터 로켓 공격 방어 한쪽 집중 아이언 대공 방어망 하마스 로켓 방어 역부족 무력 국경 방어 타격 방어력 메르카바 전차 상황 하마스 인근 침입 주민 살해 인질 납치 대상 전례 공격 감행 하마스 특작 부대원 일부 동력 패러글라이더 동원 장벽 침투 불도저 이용 최소 경계 분리 장벽 트리 국경 방어선 진입 하마스 무장 대원 군인 사살 침투 국경 방어선 하마스 규모 병력 침공 허용 하마스 특작 부대원 민간 차량 인접 기지 점령 정착 도시 침투 아파트 출구 폭약 군인 민간 남녀노소 차별 학살 자행 작전 보복 다짐 역사 근본 원인 측면 한쪽 책임 현시점 처절 상황 나라 역사 전쟁 당국 전쟁 정의 불의 싸움 정의 정의 싸움 아랍 언론 보도 양측 사망자 부상자 보복 공습 사망자 증가 외국인 사망자 집계 증가 커비 안보 전략 소통 조정관 분쟁 최소 미국인 사망 자국민 사망 태국 자국민 사망 사례 확인 키프 전쟁 하마스 대대 보복 예고 공식 선전 포고 선언 예비군 동원령 발령 전운 고조 다니엘 하가리 대변인 하마스 지상 해상 공중 침투 대응 작전 강조 군사 조직 하마스 공격 배후 자처 아크 홍수 작전 선언 점령 세력 범죄 주장 하마스 이프 레드 타인 공격 지구 마지막 인종 차별 정권 점령 종식 전투 주장 시각 하마스 대변인 하마드 직접 지원 해방 약속 기습 전선 공격 지원 압도 대응 아랍 확전 점령 요르단강 서안 지구 긴장 고조 사상 최악 자극 하마스 주민 장악 이슬람 저항 운동 선동 아랍 대결 프로파간다 승리 공격 감행 분석 하마스 헤즈 볼라 도전 세력 압도 대응 아랍 세력 확전 양상 하마스 억류 수감 석방 압력 보복 인간 방패 의도 공격 배후 숙적 추측 대사 개입 하마스 기습 정보 기관 사전 정보 의혹 제기 하부 조직 정보 소스 정치 혼란 정보 기관 혼선 누락 추정 가운데 일부 전문가 향후 상당 기간 논란 지속 추정 유엔 무력 교훈 국제 사회 연대 속화 전문가 공격 원인 국제 질서 혼돈 과도기 직면 상태 유엔 국제기구 역할 무력 상황 지속 긴급 소집 유엔 안보리 상임 이사국 반대 만장일치 규탄 성명 성사 지적 냉전 시대 세계 전쟁 전쟁 하루 국제 사회 연대 가속 하마스 규모 로켓 공격 무력 아이언 반면 교사 당장 개발 한국 아이언 완성 제고 차원 교훈 도출 한국 국지 도발 전면전 강압 유형 위협 투사 북한 상대 전쟁 교훈 도출 전쟁 억제 북한 도발 시나리오 유효 수준 차단 계기', '군인 인근 도시 스데로트 도착 무장 정파 하마스 기습 공격 양측 무력 충돌 격화 가운데 지상 전투 연합 헤럴드 경제 이원율 기습 공격 무장 정파 하마스 인질 어린이 석방 주장 하마스 영상 공개 상태 영상 공격 촬영 하마스 주장 거짓 일축 영상 진위 확인 상태 통신 알자지라 하마스 군사 조직 여단 성명 공격 언급 정착민 자녀 충돌 구금 주장 하마스 아크 근거 영상 송출 영상 철조망 추정 웃옷 아이 하마스 전사 인질 인계 장병 하마스 기습 공격 하마스 사태 보도 하마스 민간인 잔혹 살해 납치 국제 사회 비난 무마 공격 영상 배포 보도 정부 하마스 기습 공격 인질 최소 주장 로이터 통신 아부 우바이 하마스 대변인 성명 민간 주택 예고 공습 민간 인질 위협 인질 어린이 노인 포함 외국인 파악 우바이 대변인 사전 경고 국민 표적 유감 민간 인질 처형']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_중국_총리_경제_국가</t>
+          <t>3_중국_베이징_총리_리커창</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['중국', '총리', '경제', '국가', '러시아', '미국', '시위', '사망']</t>
+          <t>['중국', '베이징', '총리', '리커창', '추모', '경제', '대만', '정상', '외교', '당국', '공산당', '사망', '정부', '푸틴', '시위']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['미국 국무부 아태 담당 차관보 수전 셔크 캘리포니아 샌디에이고 교수 현지 경향신문 중관 화상 인터뷰 화면 캡처 수출 통제 중국 미국 중국 공세 정책 외교 동기 부여 집중 미국 대표 중국 전문가 수전 셔크 캘리포니아 샌디에이고 교수 경향신문 인터뷰 행정부 중국 정책 동맹 관계 강화 중국 정부 외교 평가 지난해 옥스퍼드 대출 판부 저서 체제 하의 중국 대가 과도 세력 국제 사회 역풍 지적 미국 중국 상호 존성 무기 미국 중국 과도 세력 확장 과잉 대응 자제 제언 미국 권위주의 중국 바닥 경쟁 추구 경우 미국 자산 개방 사회 경제 이유 정치 대중 강경 초당 상황 미국 중국 전문가 오버 리액션 경고 목소리 중국 통신 기업 제재 중국 연구 진과 과학 기술 협력 제한 반도체 제외 신흥 기술 수출 통제 대표 과잉 대응 사례 미국 궁핍 위험 지적 셔크 교수 정상 아시아 태평양 경제 협력체 정상회의 기간 경우 미국 중국 서로 숙명론 결과 우호 관계 바탕 한국 중국 문제 해결 적극 독려 다음 현지 화상 셔크 교수 일문일답 체제 중국 오버 리치 강화 오버 리치 과장 방식 행동 미국 나라 문제 행태 후진타오 덩샤오핑 문화 혁명 시대 폐해 과도 리더십 집중 경고 집단지 체제 부패 중앙 정부 인식 결과 고도 권력 집중 극단 형태 오버 리치 중국 정부 관리 부패 캠페인 잠재 상대 숙청 독재 권력 결합 이상 상층부 권력 분담 부하 공포 공기 충성 숙청 표적 우려 존재 영구 숙청 국방부 외교 부장 과거 막강 신뢰 정치인 표적 중국 정부 관리 정책 선호 중국 비용 초래 중국 경제 미국 외부 압력 영향 권력 집중 실용주의 경제 발전 강조 오버 리치 지속 강화 작용 국제 미국 중국 이웃 한국 일본 역풍 국내 민간 기업 중산 중국 경제 악재 중국인 흐름 동의 정책 완화 기대 경제 분야 민간 부문 해외 기업 환심 징후 외교 미국 관계 개선 움직임 관건 중국 영향 정부 관리 지식 기업인 정책 조정 설득 용기 네트워크 여부 대만 무력 우려 내년 대만 총통 선거 전후 양안 관계 긴장 대만 총통 리스크 차기 총통 현명 행동 대만 무력 압력 방식 대만 독립 주장 대만 주변 전쟁 공포 미국 중국 상황 대만인 미국 확장 억제 강화 조치 쿼드 커스 대중 견제 연합체 대만 통일 포함 중국 전문가 양안 관계 연구자 대만 침공 위험 일각 중국 국내 경제 문제 대중 불만 해외 위협 분산 대만 해협 전쟁 국제 정치사 관심 전환 전쟁 경우 국내 문제 국내 문제 신경 외부 위협 관심 공격 언어 구사 무력 경우 중국 엘리트 대만 공격 성공 경우 중국 본토 민족주의 시위 우려 행정부 중국 정책 전반 평가 출범 초기 기대 행정부 존경 트럼프 행정부 중국 전략 채택 생각 트럼프 대중 전략 연속 이유 중국 정부 실수 미국 신정부 출범 미국인 나라 중국 의도 안심 기회 인도 국경 분쟁 남중국해 해안경비대 증강 일본 압력 한국 호주 경제 제재 발생 홍콩 장악 신장 위구르 자치구 사상 교화 수용소 운영 코로나 극단 봉쇄 조치 중국 미국 백신 제공 제안 우호 조치 거부 전랑 외교 매진 행정부 제공 기회 결과 미국 정책 강경 유지 미국 정부 동맹 우방국 관계 강화 중국 공세 대응 국제 환경 중국 정부 외교 미국 중국 과잉 대응 경계 정부 정책 요소 화웨이 제재 명단 단속 오버 리액션 생각 화웨이 미국 기술 판매 전면 금지 추진 정도 화웨이 제기 위협 미국 국가 안보 냉전 시기 화웨이 갈등 일종 중국 학생 전문가 과학 기술 협력 제한 조치 중국 기술 역량 과장 미국 제재 조치 중국 특정 구체 행위 연결 중국 반대 포괄 제재 정부 중국 행동 제재 비확산 중국 이란 미사일 기술 판매 제재 발동 중국 정책 동기 부여 제재 효과 기술 제재 관세 중국 행동 변화 유인 차별 규모 중국인 봉쇄 전략 일환 오버 리액션 일종 효과 장기 접근 중국인 미국 태도 적대 인식 외교 제재 결합 중국 정책 완화 제공 포기 생각 미국 중국 현대 직결 첨단 기술 표적 수출 통제 입장 제재 중국 현대 경제 기술 발전 속도 성공 미국 나라 동참 미국 동맹국 기업 과학 기술 협력 비용 수출 통제 조치 평시 전시 중국 행동 우려 러시아 나라 공격 수출 통제 표적 반도체 경우 급소 겨냥 수출 통제 신흥 기술 차원 상업 가치 사람 개선 중국 제재 이유 제공 미국 기술 진전 저해 미국 이점 세계 인재 미국 대학 상당수 결정 제재 궁핍 중국 나라 사람 미국 주저 미국 중국 사업 연구 선택 미국 도움 오버 리액션 정책 비용 편익 논쟁 모색 의회 대중 강경 정책 초당 대선 분위기 강화 선거 기간 중국 정책 비용 편익 논쟁 민주당 상원 원내대표 의회 차원 교류 긍정 행정부 일정 부분 외교 강조 정책 조정 관계 안정 정상 회담 개최 기대 긍정 신호 중국 행정부 관계 개선 기회 정상 회담 전망 회담 기대치 현실 제이크 설리번 외교 부장 몰타 회담 양국 정상 회담 여건 조성 구체 결과물 고무 교류 확대 항공편 증편 세계무역기구 개혁 합의 미국 중국 서로 숙명론 구름 결과 도출 양측 외교 차이점 해결 권장 행정부 중국 정책 조정 성공 조건 관건 중국 행동 변화 중국 정책 완화 미국 인정 환영 긍정 조치 화답 중국 우크라 전쟁 종식 방안 제시 미국 거부 미국 정책 조정 외교 노력 복원 관심 중국 군사 협력 유보 태도 평가 중국 러시아 북한 이란 세계 미국 단념 정책 중국 북한 문제 해결 건설 역할 역량 의지 과거 회담 중국 북한 비핵화 기여 일부 노력 북한 중국 혼재 태도 러시아 중국 북한 관계 경쟁 역사 러시아 북한 무기 북한 관계 개선 적극 중국 대러 무기 제공 신중 접근 북한 관계 북한 태도 완화 시대 중국 북한 야욕 포기 경제 현대 초점 노력 그때 중국 경제 발전 과제 중국 중국 그때 접근 기대 상황 한국 관계 유지 중국 한국 중요 이웃 한국 문제 중국 협조 요청 노력 기대 수잔 셔크 교수 현대 중국 정치 체제 중국 부상 관계 연구 학자 행정부 국무부 아태 담당 차관보 중미 관계 담당 미국 대표 중국 전문가 캘리포니아 샌디 애고 분교 중국 정치 국제 관계 글로벌 분쟁 협력 연구소 소장 대표 저술 중국 정치 연구 필독서 중국 경제 개혁 정치 논리 중국 취약 슈퍼 파워 워싱턴 김유진 특파원', '리커창 총리 베이징 인민 회당 인민 대표 대회 폐막 회견 연합뉴스 중국 인자 리커창 총리 사망 소식 각국 조의 표명 토니 블링 미국 국무 장관 현지 워싱턴 중국 중앙 정치국 위원 외교 부장 회담 사망 소식 애도 국무부 일본 통신 마쓰노 히로카즈 일본 관방 장관 만나 총리 명복 애도 정상 일본 공식 방문 관계 중요 역할 맬컴 턴불 호주 총리 트위터 공식 입장 당면 문제 참여 매력 건설 회고 중국 유럽 상공 회의소 성명 외국 기업 중요 대화 창구 총리 별세 애도 중국 경제 개혁 개방 방점 지향 인물 총리 중국 유럽 기업 우려 주의 외신 리커창 죽음 비중 영국 중국 국영 숙련 경제 학자 노선 추구 리커창 나이 심장 마비 사망 권력 기반 중국 요직 인물 한때 후보 거론 리커창 임기 막바지 중국 지도부 가운데 국가 충성 그룹 유일 최고 위직 관료 뉴욕 타임스 경제학 박사 학위 취득 리커창 세대 정치 고학력 중국 세대 전형 총리 민간 기업 은행 대출 토지 관해 공정 경쟁 약속 강경파 최고 평가 워싱턴 기술 관료 자유 시장 옹호자 리커창 잠재 균형추 궁극 영향력 제한 블룸버그 통신 야망 간직 총리 민간 경제 중시 리커창 중국 국가 지표 민간 지표 신뢰 일화 월스트리트 저널 위키리크스 폭로 미국 외교 랴오닝 공산당 서기 총리 중국 공식 국내 총생산 통계 인위 대목 대신 전기 소비량 철도 물량 산업 데이터 중시 호주 국립대 정치학 교수 총리 길거리 행상 경제 옹호 풀뿌리 하층민 곤경 일자리 창출 노력 뉴욕 기반 중국 위험 평가 노인 사이더 리커창 사망 중국 루머 촉발 중국 공산당 엘리트 파벌 투쟁 심화 관측 과거 중국 고위 관리 죽음 대중 애도 지도부 시위 전례 톈안먼 시위 후야오방 총서기 서거 애도 모임 보도 토마스 아시아 소사이어티 정책 연구소 중국 분석 센터 연구원 존중 차원 리커창 공개 애도 허용 이용 지도력 시도 용납 리커창 정치 네트워크 무력 충성 지지자 권력 전망 영국 가디언 리커창 총리 공과 조명 리커창 총리 집권 동안 미국 무역 마찰 코로나 유행 어려움 중국 세계 경제 대국 당내 중국 공산당 상징 귀족 인물 평가 영국 런던 스티브 중국 연구 소장 가디언 리커창 의도 공개 굴욕 방식 배제 영향력 기회 리커창 권한 비판 오인 상하 정법 교수 리커창 중국 공산당 집권 약체 총리 중국 내각 국무원 권한 이양 시도 덩샤오핑 개혁 개방 유산 용기 평가 스탠퍼드 동아시아 연구소 선임 연구원 리커창 상대 불만 반대 도전 공산당 간부 비판 부재 우려 목소리 런던 소장 리커창 중국 정치 집단 리더십 종말 이제 보스 중국 엘리트 정치 좌우 호주 싱크탱크 연구소 리차드 맥그리거 동아시아 선임 연구원 리커창 일각 시각 개혁 상징 리커창 개혁가 소외 권한 박탈 시대 상징 자체', '글로벌 비즈니스 에버랜드 바오 송영관 사육사 브런치 신비 월드 세계 각국 혁신 기업 정보 기술 소식 소개 파괴 혁신 스타트업 글로벌 주요 기업 글로벌 비즈니스 전달 스미스소니언 동물원 판다 환송회 중국 국가 판다 미국 부탁 현지 정례 브리핑 질문 아시아 태평양 경제 협력체 정상회의 회담 판다 거취 문제 언급 예상 질문 커린 대변인 웃음 표정 답변 판다 연말 중국 미국 워싱턴 스미스소니언 국립 동물원 샤오 치지 가족 자이언트 판다 샤오 치지 부모 중국 중국 정부 동물원 임대 계약 만료 스미스소니언 샤오 치지 가족 환송회 동물원 쿵푸팬더 샤오 치지 영상 상영 판다 그리기 행사 티셔츠 동물원 관람객 표정 눈물 참고 샤오 치지 세계 판다 워싱턴 간호사 노마 발렌티니 이별 판다 정도 동물원 이상 동물원 작별 뉴욕 브루클린 마이클 카디날 판다 하루 폐쇄 회로 카디날 판다 기쁨 존재 판다 귀환 미국 전역 판다 이별 캘리포니아주 샌디에이고 동물원 테네시 멤피스 동물원 판다 중국 미국 샤오 치지 가족 포함 조지 애틀랜타 동물원 내년 중국 임대 계약 통신 애틀랜타 동물원 중국 임대 계약 연장 논의 애틀랜타 동물원 판다 중국 미국 판다 자국 이상 판다 역사 털북숭이 외교관 영국 스코틀랜드 에든버러 동물원 판다 양광 중국 영국 도착 코로나 판다 임대 기간 연장 알리슨 맥켈런 에든버러 동물원 육식 동물 팀장 중국 협의 호주 애들레이드 동물원 마스코트 판다 왕왕 판다 내년 비자 만료 왕왕 중국 정부 임대 기간 연장 동안 애들레이드 동물원 호주 언론 애들레이드 나우 판다 임대 계약 연장 양국 정부 중국 정부 중국 세계 정도 취약 판다 관리 차원 대여 형식 판다 해외 과거 선물 중국 멸종 위기 야생 동식 물종 국제 거래 협약 가입 임대 방식 변경 해외 판다 중국 정부 판다 성체 생후 중국 한국 에버랜드 동물원 바오 중국 반환 생일 미국 판다 중국 중국 서방 판다 외교 반세기 평가 판다 외교 글로벌 현장 참고 샤오 치지 가족 작별 판다 외교 글로벌 현장 정치 동물 판다 외교 세기 당나라 중국 유일 여황 제인 측천무후 원활 외교 관계 일본 천황 선물 현대식 판다 외교 장제스 중화민국 국민정부 쑹메이링 여사 중일 전쟁 지원 감사 표시 미국 선물 공산당 집권 중국 판다 국외 반출 금지 냉전 시기 강대국 치열 외교전 리처드 닉슨 부부 중국 라이벌 소련 패권 경쟁 유리 고지 선점 중국 데탕트 시도 닉슨 중국 총리 소련 국경 배치 정보 제공 중국 소련 갈등 관계 중국 정부 마음 닉슨 중국 방문 역사 저녁 중국 최고 권력자 참여 닉슨 여사 마오 담배 여사 담배통 마오 당황 여사 담배 마오 판다 판다 링링 워싱턴 스미스소니언 도착 판다 정치 동물 판다 정치 중국 판다 정치 도구 중국 이때 판다 외교 용어 영국 코노 미스트 마오 존재 국제 협력 상징 발견 판다 믹스 중국 자본주의 경제 도구 중국 판다 임대 멸종 위기 판다 연구 이유 판다 보유 동물원 중국 정부 가량 기준 보호 기금 번식 기금 명목 에버랜드 바오 해외 판다 추가 바오 동생 보호 기금 제공 중국 임대 국가 경제력 수수료 보호 기금 책정 국가 차이 동안 중국 판다 국가 영국 옥스퍼드 연구 중국 스코틀랜드 캐나다 프랑스 무역 계약 체결 나라 판다 대상 자유 무역 협정 체결 아시아 국가 천연자원 첨단 기술 중국 공급 나라 추세 중국 쓰촨성 지진 보호 시설 피해 중국 보호 시설 취약 판다 경제 협력 도구 각국 동물원 판다 무기 관광객 기념품 영국 에든버러 동물원 도착 동안 방문객 증가 스미스소니언 판다 동영상 소셜 미디어 공유 에버랜드 바오 판매량 이전 이상 증가 에버랜드 유튜브 구독자 수도 돌파 바오 동생 루이 바오 보물 후이 바오 보물 일본 판다 일본 경제 효과 추산 동물원 입장료 인근 식당 매출 기념품 판매 규모 일본 우에노 동물원 판다 동물원 근처 매장 보유 중식 체인 주가 급등 판다 공개 관람객 증가 수혜 기대 반영 과거 동물원 판다 유치 경쟁 치열 중국 미국 판다 약속 미국 동물원 치열 판다 유치 하동 대나무 로켓 배송 반면 판다 유지 비용 지적 에버랜드 사육 조성 투자 호주 애들레이드 동물원 호주 달러 비용 영국 판다 연간 판다 동물원 사육 동물 코끼리 사육비 판다 대나무 비용 차지 성체 판다 하루 대나무 품질 중요 식성 대나무 카타르 중동 유럽 항공 선박 대나무 공수 비용 에버랜드 경남 하동 당일 배송 대나무 공수 대나무 비용 정도 해외 판다 비즈니스 의구심 제기 판다 애틀랜타 동물원 도착 동물원 방문자 증가 관람객 이전 수준 비용 증가 판다 비즈니스 생각 투자 대비 수익 사육비 동물원 방문객 증가 정당 의문 제기 판다 비용 이상 가치 생각 중국 정부 임대료 부담 미국 동물원 중국 수수료 최대 인하 요구 핀란드 비용 부담 임대 기간 종료 판다 조기 반환 방안 검토 데탕트 상징 애국심 상징 미국 판다 비용 중국 동안 미국 판다 경제 관계 온도 거취 미국 티베트 달라이 라마 회담 결정 중국 정부 미국 판다 중국 귀환 이듬해 후진타오 중국 국가 미국 방문 무드 조성 중국 정부 미국 판다 대여 연장 미국 판다 중국 악화 관계 영향 분석 블룸버그 통신 양측 중국 미국 대여 정치 개입 중국 오랫동안 보상 처벌 판다 외교 미국 판다 복귀 미국 중국 관계 역사 최악 협력 단절 순간 발생 갈비 판다 논란 중국 여론 악화 멤피스 동물원 판다 중국 송환 판다 야야 온라인 공개 중국 여론 야야 갈비뼈 정도 상태 중국 조기 반환 요청 동물원 대여 기간 야야 중국 멤피스 동물원 사인 심장 마비 판정 중국 네티즌 학대 의혹 제기 야야 중국 머스크 테슬라 최고경영자 야야 중국 정부 검진 격리 기간 베이징 동물원 중국인 관심 테슬라 사업 논의 중국 머스크 소식 경제 비즈니스 인사이더 야야 영상 소셜 미디어 회수 기록 머스크 저녁 식사 중국 정부 애국 자부심 자극 용도 판다 비판 블룸버그 중국 국보 중국 외교부 대변인 표현 판다 의심 애국 자부심 표현 홍보 비즈니스 인사이더 야야 복귀 중국 정부 검열 관리 웨이보 중국 트위터 지구 번식 동물 블룸버그 중국 정부 판다 배경 개체 블룸버그 판다 이상 멸종 위기 판다 민족주의 정치 판다 숫자 국제 협력 보호 기금 감소 국제 자연 보전 연맹 멸종 위험 적색 목록 자이언트 판다 지위 멸종 위기 취약 단계 격하 숫자 잡지 내셔널 지오 그래픽 중국 쓰촨 판다 보호 구역 서식 판다 가까이 증가 세계 자연 유산 지정 쓰촨성 보호구역 최대 서식지 세계 자연 기금 야생 서식 추정 동물원 판다 정도 성행 판다 밀렵 서식지 인근 벌목 내셔널 지오 그래픽 중국 사냥 합법 판다 징역형 판다 국제 암시장 고가 번식 기술 발전 핵심 역할 신체 특성 기질 번식 동물 스미스소니언 동물원 지난해 판다 생활 특별 판다 임신 성공 골든 타임 시기 독립 생활 판다 기질 사랑 중국 후반 번식 사육 실패 사례 글로벌 연구 연구 도움 반전 중국 과학자 스미스소니언 보존 생물학 연구소 연구 글로벌 구성 연구 중국 판다 번식 프로토콜 개발 연구 중국 사육사 분위기 조성 판다 짝짓기 장면 판다 포르노 아그라 성인 동원 사육사 쓰촨성 청두 성인 점원 예열 성인 정부 비용 영수증 요청 회상 아그라 성인 효과 연구 발정기 평가 기술 이용 인공 수정 프로토콜 포함 유전 학자 조나단 발루 스미스소니언 연구소 판다 사육 동물 유전 동물 중국 번식 적용 알고리즘 개발 발루 동료 데이비드 얼마 판다 무더기 회상 중국 정부 해외 연구 판다 이전 세계 최대 영리 국제 자연 보전 기관 세계 자연 기금 서양 단체 중국 정부 판다 협력 내셔널 지오 그래픽 저명 야생 생물학자 조지 샬러 중국 파견 판다 기초 연구 수행 판다 숫자 연구 기술 한몫 중국 푸단 생명 학부 교수 현재 수준 판다 개체 증가 예상 판다 성공 사례 강조 중국 정부 그동안 자국 판다 서식지 지속 쓰촨 간쑤 산시 조성 판다 국립 공원 면적 홍콩 미국 옐로스톤 국립 공원 수준 중국 대왕판다 보호구역 통합 작업 중국 정부 이상 판다 해외 미국 나라 판다 중국 판다 김성모']</t>
+          <t>['중국 방문 마흐무드 압바스 자치 정부 수반 중국 인민 회당 장대 사열 중국 까닭 서방 언론 중국 중동 야망 분석 노선 아랍 밀착 중동 영향력 확대 무장 정파 하마스 기습 공격 배후 지목 협상 카드 속셈 중국 외교부 중국 외교 부장 공산당 중앙 정치국 위원 전날 사우디 외교 장관 공격 맹비난 부장 중국 민간인 행위 반대 규탄 행위 자위 범위 중국 반응 사태 전쟁 발발 중국 표면 중립 입장 견지 부장 작심 중국 사우디 아랍 민족 권리 회복 정의 부장 호세인 아미르 돌라 히안 외교 장관 독립 건국 역사 불공정 논지 버릇 중국 관영 비판 합세 중국 공산당 나팔수 역할 자처 시진 환구 시보 편집인 소셜 미디어 계정 공습 비판 버릇 언사 해당 계정 비평 대중 영향력 선동 반향 당장 중국 온라인 반유대주의 정서 게시물 급증 프리덤 하우스 우려 중국 주재 대사관 하마스 공격 하루 만인 중국 하마스 납치 영상 호소 중국 분위기 정반대 양상 대사관 악성 댓글 계정 필터 네타냐후 국빈 서방 전문가 중국 태도 변화 흐름 중국 사태 직전 관계 강화 중국 베냐민 네타냐후 총리 국빈 방문 요청 이달 베이징 정상 회담 예정 중국 공습 태도 대중 전략 노선 판단 분석 전문가 중국 아랍 세계 중국 위상 입지 강화 중국 속내 싱크탱크 스팀슨 센터 중국 프로그램 책임자 선임 연구원 타임스 공격 아랍 지원 중국 아랍 중국 이익 부합 중국 입장 전면 지원 중동 국면 중동 전역 사태 확산 공군 전력 압도 항공모함 전단 주변 해역 급파 상황 그간 군사 협력 사태 불만 아랍 중국 무기 판매 확대 기회 마리아 파파 게오르기우 엑스터 국제 관계학 강사 관계 대미 협상 카드 하마스 공격 지원 거론 관계 중국 중요 중국 전쟁 와중 고위급 접촉 중국 관영 언론 언론 불법 백린탄 비판 행태 백린탄 인체 경우 정도 화상 치명 무기 중국 안보 전문가 알레산드로 아두이노 킹스 칼리지 런던 부교수 인터뷰 중국 중동 정책 협상 압박 소수 행위 강조 중국 입장 대미 협상 중요 카드', '국무부 아태 담당 차관보 수전 셔크 캘리포니아 샌디에이고 교수 중관 화상 인터뷰 화면 캡처 수출 통제 중국 중국 공세 정책 외교 동기 부여 집중 대표 중국 전문가 수전 셔크 캘리포니아 샌디에이고 교수 인터뷰 행정부 중국 정책 동맹 관계 강화 중국 정부 외교 평가 지난해 옥스퍼드 대출 판부 저서 체제 하의 중국 대가 과도 세력 국제 사회 역풍 지적 중국 상호 존성 무기 중국 과도 세력 확장 과잉 대응 자제 제언 권위주의 중국 바닥 경쟁 추구 경우 자산 개방 사회 경제 정치 대중 강경 초당 상황 중국 전문가 오버 리액션 경고 목소리 중국 통신 기업 제재 중국 연구 진과 과학 기술 협력 제한 반도체 제외 신흥 기술 수출 통제 대표 과잉 대응 사례 궁핍 위험 지적 셔크 교수 정상 아시아 태평양 경제 협력체 정상회의 기간 경우 중국 서로 숙명론 결과 우호 관계 바탕 한국 중국 문제 해결 적극 독려 다음 화상 셔크 교수 일문일답 체제 중국 오버 리치 강화 오버 리치 과장 방식 행동 나라 문제 행태 후진타오 덩샤오핑 문화 혁명 시대 폐해 과도 리더십 집중 경고 집단지 체제 부패 중앙 정부 인식 결과 고도 권력 집중 극단 형태 오버 리치 중국 정부 관리 부패 캠페인 잠재 상대 숙청 독재 권력 결합 이상 상층부 권력 분담 부하 공포 공기 충성 숙청 표적 우려 존재 영구 숙청 국방부 외교 부장 과거 막강 신뢰 정치인 표적 중국 정부 관리 정책 선호 중국 비용 초래 중국 경제 외부 압력 영향 권력 집중 실용주의 경제 발전 강조 오버 리치 지속 강화 작용 국제 중국 이웃 한국 역풍 국내 민간 기업 중산 중국 경제 악재 중국인 흐름 동의 정책 완화 기대 경제 분야 민간 부문 해외 기업 환심 징후 외교 관계 개선 움직임 관건 중국 영향 정부 관리 지식 기업인 정책 조정 설득 용기 네트워크 여부 대만 무력 우려 내년 대만 총통 선거 전후 양안 관계 긴장 대만 총통 리스크 차기 총통 현명 행동 대만 무력 압력 방식 대만 독립 주장 대만 주변 전쟁 공포 중국 상황 대만인 확장 억제 강화 조치 쿼드 커스 대중 견제 연합체 대만 통일 포함 중국 전문가 양안 관계 연구자 대만 침공 위험 일각 중국 국내 경제 문제 대중 불만 해외 위협 분산 대만 해협 전쟁 국제 정치사 관심 전환 전쟁 경우 국내 문제 국내 문제 신경 외부 위협 관심 공격 언어 구사 무력 경우 중국 엘리트 대만 공격 성공 경우 중국 본토 민족주의 시위 우려 행정부 중국 정책 전반 평가 출범 초기 기대 행정부 존경 트럼프 행정부 중국 전략 채택 생각 트럼프 대중 전략 연속 중국 정부 실수 신정부 출범 미국인 나라 중국 의도 안심 기회 국경 분쟁 남중국해 해안경비대 증강 압력 한국 호주 경제 제재 발생 장악 신장 위구르 자치구 사상 교화 수용소 운영 코로나 극단 봉쇄 조치 중국 백신 제공 제안 우호 조치 거부 전랑 외교 매진 행정부 제공 기회 결과 정책 강경 유지 정부 동맹 우방국 관계 강화 중국 공세 대응 국제 환경 중국 정부 외교 중국 과잉 대응 경계 정부 정책 요소 화웨이 제재 명단 단속 오버 리액션 생각 화웨이 기술 판매 전면 금지 추진 정도 화웨이 제기 위협 안보 냉전 시기 화웨이 갈등 일종 중국 학생 전문가 과학 기술 협력 제한 조치 중국 기술 역량 과장 제재 조치 중국 특정 구체 행위 연결 중국 반대 포괄 제재 정부 중국 행동 제재 비확산 중국 미사일 기술 판매 제재 발동 중국 정책 동기 부여 제재 효과 기술 제재 관세 중국 행동 변화 유인 차별 규모 중국인 봉쇄 전략 일환 오버 리액션 일종 효과 장기 접근 중국인 태도 적대 인식 외교 제재 결합 중국 정책 완화 제공 포기 생각 중국 현대 직결 첨단 기술 표적 수출 통제 입장 제재 중국 현대 경제 기술 발전 속도 성공 나라 동참 동맹국 기업 과학 기술 협력 비용 수출 통제 조치 평시 전시 중국 행동 우려 나라 공격 수출 통제 표적 반도체 경우 급소 겨냥 수출 통제 신흥 기술 차원 상업 가치 사람 개선 중국 제재 제공 기술 진전 저해 이점 세계 인재 대학 상당수 결정 제재 궁핍 중국 나라 사람 주저 중국 사업 연구 선택 도움 오버 리액션 정책 비용 편익 논쟁 모색 의회 대중 강경 정책 초당 대선 분위기 강화 선거 기간 중국 정책 비용 편익 논쟁 민주당 상원 원내대표 의회 차원 교류 긍정 행정부 일정 부분 외교 강조 정책 조정 관계 안정 정상 회담 개최 기대 긍정 신호 중국 행정부 관계 개선 기회 정상 회담 전망 회담 기대치 현실 제이크 설리번 외교 부장 회담 양국 정상 회담 여건 조성 구체 결과물 고무 교류 확대 항공편 증편 세계무역기구 개혁 합의 중국 서로 숙명론 구름 결과 도출 양측 외교 차이점 해결 권장 행정부 중국 정책 조정 성공 조건 관건 중국 행동 변화 중국 정책 완화 인정 환영 긍정 조치 화답 중국 우크라 전쟁 종식 방안 제시 거부 정책 조정 외교 복원 관심 중국 군사 협력 유보 태도 평가 중국 북한 세계 단념 정책 중국 북한 문제 해결 건설 역할 역량 의지 과거 회담 중국 북한 비핵화 기여 일부 북한 중국 혼재 태도 중국 북한 관계 경쟁 역사 북한 무기 북한 관계 개선 적극 중국 대러 무기 제공 신중 접근 북한 관계 북한 태도 완화 시대 중국 북한 야욕 포기 경제 현대 초점 그때 중국 경제 발전 과제 중국 중국 그때 접근 기대 상황 한국 관계 유지 중국 한국 중요 이웃 한국 문제 중국 협조 요청 기대 수잔 셔크 교수 현대 중국 정치 체제 중국 부상 관계 연구 학자 행정부 국무부 아태 담당 차관보 중미 관계 담당 대표 중국 전문가 캘리포니아 샌디 애고 분교 중국 정치 국제 관계 글로벌 분쟁 협력 연구소 소장 대표 저술 중국 정치 연구 필독서 중국 경제 개혁 정치 논리 중국 취약 슈퍼 파워 워싱턴 김유진 특파원', '인터뷰 수전 셔크 캘리포니아 교수 대중 외교 수출 통제 중국 중국 공세 정책 외교 동기 부여 집중 대표 중국 전문가 수전 셔크 캘리포니아 샌디에이고 교수 인터뷰 행정부 중국 정책 동맹 관계 강화 중국 정부 외교 평가 셔크 교수 지난해 옥스퍼드 출판 저서 체제 하의 중국 대가 과도 세력 국제 사회 역풍 지적 중국 상호 존성 무기 중국 과도 세력 확장 과잉 대응 자제 제언 권위주의 중국 바닥 경쟁 추구 경우 자산 개방 사회 경제 정치 대중 강경 초당 상황 중국 전문가 오버 리액션 경고 목소리 중국 통신 기업 제재 중국 연구 진과 과학 기술 협력 제한 반도체 제외 신흥 기술 수출 통제 대표 과잉 대응 사례 궁핍 위험 지적 다음 화상 셔크 교수 일문일답 중국 중국 과도 세력 확장 행보 국제 사회 역풍 자국 민간 기업 중산 체제 중국 오버 리치 강화 오버 리치 과장 방식 행동 나라 문제 집단지 체제 부패 중앙 정부 인식 결과 고도 권력 집중 극단 형태 오버 리치 중국 정부 관리 부패 캠페인 잠재 상대 숙청 충성 숙청 표적 우려 존재 국방부 외교 부장 과거 막강 신뢰 정치인 표적 중국 정부 관리 정책 선호 중국 비용 초래 중국 경제 외부 압력 영향 권력 집중 실용주의 경제 발전 강조 오버 리치 지속 강화 작용 국제 중국 이웃 한국 역풍 국내 민간 기업 중산 중국 경제 악재 경제 분야 민간 부문 해외 기업 환심 징후 외교 관계 개선 움직임 관건 중국 영향 정부 관리 지식 기업인 정책 조정 설득 용기 네트워크 여부 대만 무력 우려 내년 대만 총통 선거 전후 양안 관계 긴장 포함 중국 전문가 양안 관계 연구자 대만 침공 위험 일각 중국 국내 경제 문제 대중 불만 해외 위협 분산 대만 해협 전쟁 국제 정치사 관심 전환 전쟁 경우 국내 문제 국내 문제 신경 중국 엘리트 대만 공격 성공 경우 중국 본토 민족주의 시위 우려 화웨이 제재 과잉 대응 수출 통제 중국 중국 일반인 봉쇄 행정부 중국 정책 전반 평가 트럼프 행정부 중국 전략 채택 생각 트럼프 대중 전략 연속 중국 정부 실수 신정부 출범 미국인 나라 중국 의도 안심 기회 국경 분쟁 남중국해 해안경비대 증강 압력 한국 호주 경제 제재 장악 신장위 구르 자치구 사상 교화 수용소 운영 코로나 극단 봉쇄 조치 중국 백신 제공 제안 우호 조치 거부 전랑 외교 매진 행정부 제공 기회 결과 정책 강경 유지 정부 동맹 우방국 관계 강화 중국 공세 대응 국제 환경 중국 정부 외교 중국 과잉 대응 경계 정부 정책 요소 화웨이 제재 명단 단속 오버 리액션 생각 화웨이 기술 판매 전면 금지 추진 정도 화웨이 제기 위협 안보 제재 조치 중국 특정 구체 행위 연결 중국 반대 포괄 제재 기술 제재 관세 중국 행동 변화 유인 차별 규모 중국인 봉쇄 전략 일환 장기 접근 중국인 태도 적대 인식 외교 제재 결합 중국 정책 완화 제공 포기 위험 경쟁 중국 바닥 경쟁 지속 개방 사회 경제 타격 외교 중국 공세 중국 현대 직결 첨단 기술 국한 표적 수출 통제 입장 제재 중국 현대 경제 기술 발전 속도 성공 나라 동참 동맹국 수출 통제 표적 반도체 경우 급소 겨냥 수출 통제 신흥 기술 차원 상업 가치 사람 개선 중국 제재 제공 기술 진전 저해 제재 궁핍 중국 나라 사람 주저 도움 오버 리액션 의회 대중 강경 정책 초당 대선 분위기 강화 선거 기간 중국 정책 비용 편익 논쟁 민주당 상원 원내대표 의회 차원 교류 긍정 행정부 일정 부분 외교 강조 정책 조정 관계 안정 정상 회담 개최 기대 중국 행정부 관계 개선 기회 정상 회담 전망 회담 기대치 제이크 설리번 안보 보좌관 외교 부장 회담 양국 정상 회담 여건 조성 구체 결과물 고무 중국 서로 숙명론 구름 결과 도출 행정부 중국 정책 조정 성공 조건 관건 중국 행동 변화 중국 정책 완화 인정 환영 긍정 조치 화답 중국 우크라 전쟁 종식 방안 제시 거부 중국 북한 문제 해결 건설 역할 역량 의지 시대 중국 북한 야욕 포기 경제 현대 초점 그때 중국 경제 발전 과제 중국 중국 그때 접근 기대 상황 한국 관계 유지 한국 문제 중국 협조 요청 기대 워싱턴 김유진 특파원']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_하마스_이스라엘_팔레스타인_인질</t>
+          <t>4_모하마디_휴전_인권_노벨</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['하마스', '이스라엘', '팔레스타인', '인질', '테러', '경찰', '미국', '영상']</t>
+          <t>['모하마디', '휴전', '인권', '노벨', '히잡', '하마스', '성명', '학생', '평화상', '라완', '하버드', '시위', '전쟁', '단체', '아미니']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['이스라엘 가자지구 사망자 인질 하마스 이스라엘 공격 미국인 최소 사망 현지 이스라엘 공습 팔레스타인 가자지구 불길 연합뉴스 속보 이스라엘 팔레스타인 무장 정파 하마스 무력 충돌 양측 사망자 발생 가운데 미국 영국 프랑스 독일 이탈리아 현지 이스라엘 하마스 공격 테러 행동 규탄 정상 성명 이스라엘 견고 단합 표명 하마스 하마스 테러 행동 규탄 표명 정상 성명 하마스 테러 행위 보편 규탄 테러 행위 정당 강조 국가 국민 만행 보호 이스라엘 노력 지금 이스라엘 적대 공격 이용 이익 추구 강조 성명 동안 동맹국 이스라엘 친구 이스라엘 방어 궁극 평화 통합 중동 여건 조성 단결 협력 팔레스타인 국민 열망 인정 이스라엘 팔레스타인 모두 공정 자유 평등 조치 강조 하마스 열망 대변 팔레스타인 국민 공포 유혈 사태 제공 비판 미국 성명 하마스 이스라엘 공격 미국인 최소 사망 발표 하마스 공격 테러 규정 규모 범위 비극 목도 비판 국내외 미국 시민 안전 최우선 과제 확인 작업 하마스 억류 사람 미국 시민 생각 이스라엘 당국자 인질 위기 대응 협력 지시 미국 정부 부처 전문가 파견 인질 구출 노력 이스라엘 당국자 협의 조언 비극 이스라엘 미국 유대 강조 미국 전역 도시 경찰 유대 생활 거점 중심 치안 강화 국토 보부 연방수사국 연방 집행 당국 이스라엘 발생 테러 국내 위협 예의 주시 가슴 순간 미국 국민 이스라엘 국민 국내 테러리스트 공격 아픔 기억 미국인 미국인 목숨 악행 강조 형태 테러 반대 국민 결의 세계 역설 미국 이스라엘 동반자 베냐민 네타냐후 총리 미국 이스라엘 자국 자국민 보호 확보 확인 강조 통신 이스라엘 총리 산하 정부 공보실 하마스 공격 사망자 이상 부상자 이상 발표 새벽 하마스 무장 대원 침투 이스라엘 남부 상황 정리 사망자 전날 공보실 인질 가자지구 생사 투명 사망자 전망 사망자 인질 미국 영국 프랑스 독일 우크라이나 외국인 포함 베냐민 네타냐후 이스라엘 총리 하마스 전쟁 선포 집중 공습 가자지구 인명 피해 속출 팔레스타인 보건부 가자지구 이스라엘 공격 사망자 부상자 집계 발표 이스라엘 가자지구 양측 사망자 최소 부상자 최소 하마스 이스라엘 공습 사상자 민간 주택 폭격 경우 보복 민간 포로 처형 위협', '팔레스타인 새벽 이스라엘 가자 시티 샤티 난민촌 공습 피해 파괴 상황 조사 연합뉴스 미국 영국 프랑스 독일 이탈리아 현지 이스라엘 하마스 공격 테러 행동 규정 규탄 정상 성명 이스라엘 견고 단합 표명 하마스 하마스 테러 행동 규탄 표명 정상 성명 하마스 테러 행위 보편 규탄 테러 행위 정당 강조 국가 국민 만행 보호 이스라엘 노력 지금 이스라엘 적대 공격 이용 이익 추구 강조 성명 동안 동맹국 이스라엘 친구 이스라엘 방어 궁극 평화 통합 중동 여건 조성 단결 협력 팔레스타인 국민 열망 인정 이스라엘 팔레스타인 모두 공정 자유 평등 조치 강조 하마스 열망 대변 팔레스타인 국민 공포 유혈 사태 제공 부연 무장 정파 하마스 팔레스타인 주민 분리 하마스 상대 팔레스타인 자치 정부 하마스 구분 대응 입장 풀이 정상 성명 기조 이스라엘 가자지구 완전 봉쇄 지상 작전 테러 분쇄 규정 전폭 지원 반면 개입 중동 전면전 비화 사태 차단 미국 전략 반영 발표 별도 성명 하마스 공격 테러 공격 규탄 공격 이스라엘 사망자 가운데 미국 시민 최소 포함 미국 이스라엘 테러분자 공격 자위권 발동 테러 분쇄 작전 전폭 지원 이스라엘 가자지구 봉쇄 지상전 명령 입장 이스라엘 짐승 전쟁 전기 식량 연료 완전 차단 팔레스타인 이상 거주 제주도 면적 가자지구 전면 봉쇄 돌입 병력 가자지구 침투 하마스 괴멸 지상 작전 명령 미국 이스라엘 국가 하마스 헤즈 볼라 보복 공격 중동 국가 개입 전면 중동 전쟁 확전 전력 투구 워싱턴 강조 언론 링컨 장관 중동 국가 외교 파트너 연쇄 회담 미국 이스라엘 무기 군사 정보 지원 최신예 항공모 제럴드 포드 주축 항공모함 전단 동지 중해 배치 중동 미군 전투기 전력 증강 조치 발표 자국 지상군 파병 계획 커비 국가 안전 보장 전략 소통 조정관 브리핑 미국 지상군 이스라엘 배치 계획 가운데 이스라엘 국민 다국적 인질 가량 지구 억류 하마스 이스라엘 사전 경고 민간 주택 폭격 경우 보복 이스라엘 민간 인포 처형 경고 인질 문제 사태 중대 변수 미국 사안 성명 국내외 미국 시민 안전 최우선 과제 확인 작업 하마스 억류 사람 미국 시민 생각 이스라엘 당국자 인질 위기 대응 협력 지시 미국 정부 부처 전문가 파견 인질 구출 노력 이스라엘 당국자 협의 조언', '팔레스타인 무장 정파 하마스 이스라엘 교전 나흘 양측 사망자 이스라엘 방위 공세 하마스 민간 포로 처형 위협 가운데 서방 성명 하마스 공격 규탄 국제 연결 최영주 사상자 팔레스타인 하마스 이스라엘 교전 양측 육박 사망자 부상자 이스라엘 정부 하마스 공격 사망자 이상 부상자 이상 발표 인질 가자지구 생사 투명 사망자 전망 사망자 인질 미국 영국 프랑스 독일 우크라이나 외국인 포함 베냐민 네타냐후 이스라엘 총리 하마스 전쟁 선포 집중 공습 가자지구 인명 피해 속출 팔레스타인 보건부 가자지구 이스라엘 공격 지금 발표 하마스 이스라엘 폭격 경우 민간 포로 처형 위협 아부 오바 이바 하마스 대변인 성명 이스라엘 민간 주택 폭격 경우 보복 민간 포로 처형 아랍 언론 하마스 군사 조직 여단 현지 성명 민간인 표적 행위 인질 처형 위협 이스라엘 주말 하마스 기습 대응 지구 공격 강화 상황 하마스 이스라엘 남부 침투 민간인 살해 일부 인질 가자지구 하마스 이때 인질 주장 신변 상황 자지라 이스라엘 예비군 동원 지구 지상군 투입 초읽기 분석 그동안 공습 위주 하마스 대응 이스라엘 군사 전략 전면 지상전 전망 베냐민 네타냐후 이스라엘 총리 국민 상황 대비 경고 이스라엘 국경 근처 마을 민간 대피 명령 미국 뉴욕 타임스 팔레스타인 지상전 서막 전망 워싱턴 이스라엘 지구 지상 작전 착수 하마스 이스라엘 국민 다국적 인질 인간 방패 지상전 시각 영국 일간지 텔레 그래프 이스라엘 지상군 투입 지구 철통 봉쇄 지속 공습 하마스 굴복 계획 분석 이스라엘 하마스 지휘부 암살 작전 외신 보도 영국 타임스 이스라엘 정부 고위 관리 서방 이슬람 국가 하마스 겨냥 방면 행동 타임스 가자지구 하마스 조직원 표적 지적 양측 교전 격화 가운데 미국 이스라엘 지원 속도 국방부 고위 당국자 현지 비행기 이륙 미국 이스라엘 지원 로이터 통신 미국 정부 보류 이스라엘 무기 주문 신속 처리 방위 산업 접촉 미군 자체 축량 당국자 미국 우크라이나 이스라엘 지원 글로벌 태세 유지 미국 양국 지원 어려움 일각 우려 일축 미국 이스라엘 지상군 파병 계획 입장 미국 이스라엘 지상군 파병 계획 커비 국가 안전 보장 전략 소통 조정관 현지 브리핑 미국 하마스 이스라엘 공격 하루 군사 지원 발표 슈퍼 항공모 제럴드 포드 주축 항공모함 전단 배치 전투기 편대 지상군 파병 계획 미국 이란 양상 차단 풀이 조정 관은 후설 하마스 다년간 지원 양측 공모 배제 증거 미국 영국 프랑스 정상 하마스 공격 규탄 성명 미국 영국 프랑스 독일 이탈리아 현지 이스라엘 하마스 공격 테러 행동 규정 규탄 정상 성명 이스라엘 견고 단합 표명 하마스 테러 행동 규탄 표명 정상 하마스 테러 행위 보편 규탄 테러 행위 정당 강조 팔레스타인 국민 열망 인정 이스라엘 팔레스타인 모두 공정 자유 평등 조치 강조 하마스 열망 대변 팔레스타인 국민 공포 유혈 사태 제공 지적 무장 정파 하마스 팔레스타인 주민 분리 하마스 상대 팔레스타인 자치 정부 하마스 구분 대응 입장 풀이 지금 국제 최영주']</t>
+          <t>['노벨 평화상 인권 운동가 나르게스 모하마디 노벨위원회 시각 모하마디 수상자 억압 싸움 모두 인권 자유 신장 싸움 에이피 통신 베리트 레이스 아네르 노벨 위원회 위원장 발표 모하마디 감옥 투쟁 개인 희생 지적 모하마디 지금 정권 체포 유죄 판결 징역형 레이스 아네르 위원장 위원회 노벨 평화상 수상자 인권 운동가 유엔 총회 세계 인권 선언 채택 지난해 히잡 시위 고려 레이스 아네르 위원장 지난해 쿠르드 마흐 미니 도덕 경찰 체포 신정 정권 최대 정치 시위 촉발 지적 나르게스 모하마디 이끈 인권 운동 중요 인정 강조 히잡 시위 아미니 히잡 도덕 경찰 체포 지난해 문사 촉발 시위 발전 시위 정부 시위 참가자 사형 강경 대응 인권 운동가 통신 반정부 시위 최소 체포 추정 정부 아미니 사망 아미니 한때 억류 강경 대응 지속 모하마디 지난해 시위 보안 해당 에브라 추모 집회 참석 경찰 체포 감옥 정권 인권 탄압 실태 일간 뉴욕 타임스 발표 정부 이해 수록 지적 모하마디 노벨 평화상 수상자 인권 단체 인권 수호자 센터 대표 단체 중심 유엔 인권 대표 사무소 모하마디 노벨 평화상 수상 부각 평가 엘리자베스 대변인 보복 협박 폭력 구금 용기 결의 모하마디 가족 스타 그램 자유 투쟁 역사 순간 영광 소녀 이슬람 혁명 수비대 운영 통신사 파르스 통신 서방 안보 이유로 모하마디 노벨 평화상 수여 보도 선임', '노벨 평화상 억압 인권 탄압 인권 운동가 나르게스 모하마디 수여 노벨 위원회 모하마디 노벨 평화상 수상자 발표 물론 모두 인권 자유 신장 싸움 평가 경찰 체포 수감 모하마디 지난해 옥중 수감자 대상 자행 고문 학대 보고서 발표 모하마디 가족 소셜 네트워크 서비스 상은 모두 대신 발표 인권 투사 옥중 노벨 평화상 나르게스 모하마디 수상자 징역형 차례 채찍질 고초 승리 노벨상 시상식 참석 허가 수상자 인권 투사 표현 자유 인권 투쟁 개인 희생 당국 차례 체포 징역형 차례 채찍질 선고 노벨위원회 노벨 평화상 수상자 인권 운동가 나르게스 모하마디 발표 노벨 위원회 노벨 평화상 지난해 대상 정부 차별 억압 정책 반대 시위 참여 사람 기린 시위자 자유 구호 수상자 모하마디 헌신 표현 지난해 히잡 규정 위반 도덕 경찰 조사 마사 아미니 의문사 전역 반정부 시위 확산 물리 학도 모하마디 인권 활동가 투신 진보 성향 신문사 칼럼니스트 정부 기구 인권 수호자 센터 합류 센터 부소 장직 센터 무슬림 노벨 평화상 시민 운동가 인권 변호사 단체 구금 석방 반복 모하마디 선전물 유포 혐의 징역형 선고 수도 테헤란 소재 교도소 수감 상태 아르미 라반 히잡 규정 위반 경찰 폭행 혼수 상태 의혹 모하마디 소셜 네트워크 서비스 정부 아르 미타 진실 은폐 옥중 비판 모하마디 가족 수감 대신 자유 평등 용기 세계 소녀 영광 모하마디 승리 고도 나르게스 모하마디 이름 인권 투쟁 동의어 평가 워싱턴 노벨 평화상 중동 인권 투쟁 세계 계기 보도 로이터 통신 모하마디 수상 테헤란 정부 분노 베리트 레이스 아네르 노벨 위원회 위원장 정부 결정 정부 모하마디 석방 시상식 참석 카이로 김기윤 특파원', '수상자 자유 평등 국민 영광 인권 반정부 운동 징역 옥중 수상 노벨상 히잡 시위 계기 노벨 평화상 수상자 인권 운동가 나르게스 모하마디 감옥 수감 노벨 평화상 인권 운동가 나르게스 모하마디 노벨위원회 모하마디 억압 저항 인권 자유 투쟁 모하마디 수감 상태 옥중 수상자 운동가 노벨 평화상 수상 히잡 시위 선동 혐의 수감 수상 석방 촉구 뉴욕 타임스 베르트 레이스 안데르센 노벨 위원회 위원장 수상자 발표 상은 인권 운동 중요 인정 나르게스 모하마디 이론 여지 모하마디 성명 인권 옹호 국제 책임감 희망 승리 눈앞 수상 지난해 마흐 미니 히잡 경찰 문사 규모 반정부 시위 전역 들불 시위 참여 히잡 머리카락 저항 인권 운동가 모하마디 히잡 시위 권리 제한 정부 비판 반정부 시위 희생자 추모 집회 참여 혐의 체포 수감 감옥 시위대 격려 선동 혐의 징역 채찍 추가 선고 테헤란 교도소 복역 노벨 위원회 정부 모하마디 예정 노벨상 시상식 참석 희망 석방 촉구 인권 운동 아이콘 감옥서 모하마디 인권 운동 평생 투신 신문사 세대 운동가 노벨 평화상 수상자 변호사 인권 수호자 센터 가입 이때 당국 횡포 본격 단체 회장 민주주의 인권 신장 사형 반대 운동 모하마디 정권 차례 체포 유죄 판결 징역형 일생 인권 사형 폐지 헌신 대가 모하마디 정부 죄수 모하마디 싸움 수감자 신체 폭력 증언 수감자 명단 잔혹 고문 보고서 발표 폭로 모하마디 징역 추가 선고 의지 모하마디 인터뷰 처벌 민주주의 자유 쟁취 결심 아미니 사망 히잡 시위 슬로건 생명 자유 감옥 시위 히잡 저항 모하마디 가족 스타 그램 자유 평등 용기 세계 소녀 영광 대신 르몽드 강철 억압 장벽 침묵 죽음 메아리 생명력 승리 약속 모하마디 옥중 서신 공개 생명 자유 국민 워싱턴 인권 투쟁 재조명 히잡 시위 미성년자 이상 군경 유혈 진압 사망 이상 체포 추정 진압 반정부 시위 분위기 정부 히잡 단속 강화 모하마디 노벨 평화상 수상 투쟁 흐름 계기 얘기 수상 정부 차별 억압 반대 시위 국민 희망 메시지 아시아 연구소 연구 교수 모하마디 평화 자유 목숨 지금 목소리 이란인 고무']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_시위_경찰_이유_상태</t>
+          <t>5_헤라트_아프간_지진_강진</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['시위', '경찰', '이유', '상태', '정부', '사건', '석방', '발표']</t>
+          <t>['헤라트', '아프간', '지진', '강진', '발생', '규모', '사망자', '여진', '탈레반', '국경', '서부', '대변인', '통신', '북서쪽', '지질조사국']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['히잡 단속 뇌사 사망 폭행 의혹 당국 소녀 아르 미타 라완 테헤란 지하철 승강장 열차 라완 히잡 지하철 탑승 얼마 테헤란 연합뉴스 히잡 이유 도덕 경찰 실랑이 의식 뇌사 상태 이란 소녀 지난해 이유 체포 의문사 마흐 미니 사건 이란 히잡 시위 사태 현지 국영 통신 불행 손상 상당 기간 혼수 상태 아르 미타 라완 사망 보도 라완 수도 테헤란 지하철 도덕 경찰 지도 순찰대 히잡 단속 혼수 상태 뇌사 판정 국내 인권 단체 히잡 라완 지도 순찰대 대원 물리 폭력 단속 주장 공개 폐쇄 회로 영상 라완 드가 히잡 친구 열차 의식 상태 장면 당국 라완 저혈압 쇼크 실신 금속 구조물 머리 폭행 의혹 상태 라완 부모 국영 저혈압 인권 단체 보안 당국 측이 라완 부모 압력 행사 국영 인터뷰 고위 관계자 동석 의혹 당국 진상 핵심 증거인 지하철 영상 공개 사건 지난해 반정부 시위 촉발 아미니 의문사 유사 히잡 의무 거부 대중 분노 통신 아미니 지난해 테헤란 도심 히잡 이유 지도 순찰대 체포 조사 사흘 유족 경찰 고문 사망 원인 주장 경찰 폭력 아미니 기저 질환 사인 해명 전역 아미니 죽음 항의 진상 조사 촉구 반정부 시위 들불', '이란 히잡 지하철 도덕 경찰 적발 뇌사 판정 로이터 통신 유튜브 갈무리 히잡 지하철 도덕 경찰 폭행 의혹 뇌사 판정 현지 로이터 통신 국영 아르 미타 라완 건강 상태 후속 조사 결과 의료진 노력 뇌사 상태 보도 라완 테헤란 지하철 의식 지금 테헤란 파르 병원 치료 아르 미타 히잡 지하철 탑승 목격자 라완 드가 히잡 이유 도덕 경찰 폭행 노르웨이 본부 쿠르드족 인권 단체 가우 도덕 경찰 대원 라완 단속 물리 폭력 주장 가우 공개 라완 머리 붕대 산소 호흡기 추정 장치 부착 병원 반면 당국 라완 주장 폭행 머리 상처 아르 미타 저혈압 실신 머리 발생 사건 핵심 단서 지하철 영상 공개 의혹 당국 공개 폐쇄 회로 영상 라완 탑승 승객 의식 라완 플랫폼 장면 사건 경위 당국 해명 지난해 히잡 이유 도덕 경찰 구금 사망 마흐 미니 사례 유사 지적 당국 아미니 지병 주장 아미니 의문사 전역 규모 반정부 시위 촉발 시위 소강 상태 정부 불만 당국 단속 통제 강화 혁명 법원 아미니 문사 보도 징역 선고 적국 미국 정부 협력 국가 안보 행동 체제 선전 적용 노벨 평화상 인권 자유 투쟁 나르게스 모하마디 모하마디 당국 차례 체포 이란 대표 인권 운동가 반정부 미니 유럽 의회 사하로프 인권 수상 김서영', '이란 지하철 운영 테헤란 메트로 공개 소녀 아르 미타 라완 사건 영상 일부분 가디언 갈무리 소녀 히잡 규정 이유 지하철 도덕 경찰 폭행 혼수 상태 인권 단체 주장 히잡 이유 도덕 경찰 문사 마흐 미니 사망 보름 시점 도덕 경찰 횡포 논란 노르웨이 본부 쿠르드족 인권 단체 가우 누리집 성명 소녀 아르 미타 라완 혼수 상태 지하철역 도덕 경찰 신체 폭행 이유 주장 라완 드가 테헤란 지하철 부상 병원 이송 혼수 상태 파즈 공군 병원 입원 당국 보안 조처 가족 면회 금지 가우 라완 드가 히잡 규정 이유 당국 도덕 경찰 신체 공격 라완 쿠르드족 거주 서부 도시 케르만샤 출신 테헤란 병원 문한 개혁주의 일간지 샤르 마리암 로트피 라완 보도 보안 구금 가우 보안 경비 가족 면회 허용 지하철 운영 테헤란 메트로 공개 이미지 소녀 의식 사람 지하철 객차 플랫폼 장면 해상도 소녀 히잡 구별 소녀 핵심 정보 확인 관영 언론 지하철 운영 라완 혈압 보도 소녀 역시 관영 파르스 통신 인터뷰 영상 확인 사고 아이 회복 기도 사회 규모 반정부 시위 아미니 의문사 사건 발생 긴장 가족 테헤란 여행 쿠르드족 아미니 히잡 이유 지난해 도덕 경찰 연행 교육 센터 혼수 상태 사흘 병원 당국 폭력 아미니 심장 마비 사망 주장 시민 당국 신뢰 아미니 죽음 집권 모욕 히잡 단속 보수 정책 에브라힘 라이시 반대 반정부 시위 미국 제재 피폐 이란 경제 상황 기름 시위 기세 정부 히잡 단속 강화 보수 정책 회귀 테헤란 시장 지하철 히잡 순찰 강화 영국 텔레 그래프 도덕 경찰 히잡 거부 폭력 대치 보고 의회 히잡 경우 부과 벌금 기존 뼈대 적용 한시법 통과 텔레 그래프 사람 사태 지난해 시위 촉발 아미니 사건 정부 긴장']</t>
+          <t>['강진 발생 아프간 발생 강진 사망자 급증 통신 탈레반 대변인 지진 사망자 정도 정부 대변인 빌랄 카리미 현재 사망자 부상자 로이터 통신 월사 헤라트 보건부 관계자 사망자 사망자 숫자 헤라트 보건부 관계자 시신 병원 분산 수용 사망자 확정 피해 집계 상황 사상자 유동 지질조사국 오전 아프간 서부 규모 강진 발생 규모 여진 차례 진앙 헤라트 주도 헤라트 북서쪽 지점 깊이 비교 국경 동쪽 아프간 문화 수도 세계 은행 자료 헤라트 국경 지대 유라시아 교차 힌두쿠시 산맥 중심 지진 지난해 아프간 남동부 국경 인근 규모 지진', '헤라트 데잔 지진 발생 주민 파손 주택 발생 강진 희생자 로이터 아프간 당국 전날 강진 사망자 부상자 주택 파괴 보도 아프간 정부 대변인 사망자 이상 급증 희생자 헤라트 보건부 관계자 시신 병원 분산 수용 사망자 확정 통신 정부 대변인 지진 아프간 최악 지진 지질조사국 전날 오전 아프간 서부 규모 강진 발생 규모 여진 차례 진앙 헤라트 주도 헤라트 북서쪽 지점 깊이 비교 국경 동쪽 아프간 문화 수도 세계 은행 자료 헤라트 국경 지대 유라시아 교차 힌두쿠시 산맥 중심 지진 지난해 아프간 남동부 국경 인근 규모 지진', '아프간 강진 피해 현장 강진 사망자 급증 로이터 통신 지진 발생 다음 재난 당국 사망자 부상자 주택 파괴 보도 통신 지진 아프간 최악 지진 가운데 정부 대변인 보도 압둘 와히드 라이안 공보 문화부 대변인 사망자 당초 파괴 건물 잔해 피해 집계 상황 사상자 유동 통신 아프간 정부 대변인 사망자 이상 월사 헤라트 보건부 관계자 사망자 헤라트 보건부 관계자 시신 병원 분산 수용 사망자 확정 세계 보건 기구 강진 헤라트 최소 주택 완파 부분 파손 영향 지질조사국 오전 아프간 서부 규모 강진 발생 규모 여진 차례 진앙 헤라트 주도 헤라트 북서쪽 지점 깊이 비교 이슬람 무장 조직 탈레반 재집 해외 원조 중단 인도적 위기 상태 국경 동쪽 아프간 문화 수도 세계 은행 자료 헤라트 국경 지대 유라시아 교차 힌두쿠시 산맥 중심 지진 지난해 아프간 남동부 국경 인근 규모 지진 부상']</t>
         </is>
       </c>
     </row>
@@ -626,21 +626,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_러시아_미국_전쟁_보도</t>
+          <t>6_트럼프_공화_대선_하원</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['러시아', '미국', '전쟁', '보도', '시위', '사건', '주장', '비판']</t>
+          <t>['트럼프', '공화', '대선', '하원', '무슬림', '후보', '전략가', '의장', '아랍', '배넌', '조사', '해임', '유권자', '의원', '게이츠']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['현지 다게스탄 공항 폭동 정부 고위급 참석 블라디미르 푸틴 러시아 크렘린 블라디미르 푸틴 러시아 다게스탄 자치 공화국 마하치칼라 국제 공항 발생 폭동 배후 우크라이나 서방 정보 기관 지목 현지 푸틴 다게스탄 공항 폭동 정부 고위급 마하치칼라 발생 사건 우크라 서방 특수 정보 기관 요원 소셜 미디어 선동 주장 마하치칼라 국제 공항 시위대 이스라엘 여객기 착륙 항의 공항 터미널 출입구 활주로 난입 사건 발생 시위대 팔레스타인 국기 유대인 색출 구호 여객기 난동 푸틴 서방 우크라 정권 러시아 포그롬 세기 후반 세기 제정 러시아 유대 학살 선동 다국적 종교 사회 안정 양극 거짓 도발 정보 심리전 도구 수단 러시아 푸틴 미국 글로벌 독재 체제 유지 러시아 포함 경쟁국 불안 조장 비판 미국 러시아 상대 중동 상황 이용 거짓 도발 정보 심리전 수단 동원 미국 초강대국 장악력 추진력 유일 패권 시대 미국 미국 지배력 체제 확장 혼란 야기 상대 억제 안정 미국 지배 엘리트 위성 국가 우크라이나 중동 포함 분쟁 무기 전장 결과 러시아 분열 약화 불화 조장 주장 중동 발생 사태 책임 미국 강조 푸틴 미국 중동 지속 평화 지속 혼란 주장 중동 갈등 기타 위기 배후 주모자 파괴 결과 이용 증오 씨앗 세계인 중동 위기 이스라엘 테러 공격 팔레스타인 가자지구 폭격 정당 지적 푸틴 세계 운명 러시아 우크라 특수 작전 결정 전사 무기 형제 팔레스타인 국민 포함 러시아 세계 운명 결정 푸틴 종교 중동 상황 러시아 민족 종교 사회 이용 사회 안정 분열 시도 지적 사법 당국 사건 조치 주문 드미트리 페스코프 크렘린 대변인 브리핑 마하치칼라 공항 사건 외부 간섭 결과 악의 사람 가자지구 고통 이용 인구 무슬림 다게스탄 사람 자극 주장 마리야 자하 로바 러시아 외무부 대변인 성명 시위 외부 조율 도발 결과 범죄 이우 정권 우크라이나 직접 핵심 역할 수행 세르게이 리코프 다게스탄 자치 공화국 정부 수장 주민 시위 참여 호소 텔레 그램 채널 다게스탄 우크라 영토 급진 민족주의 단체 운영 신뢰 정보 나라 중동 이용 소문 강조 지적 러시아 출신 텔레 그램 창업자 파벨 로프 러시아 문제 채널 차단 러시아 일간 베스 티야 이스라엘 난민 비행기 다게스탄 도착 가짜 정보 기습 시위 보도 신문 소셜 미디어 계정 시위 요청 전파 남성 어린이 마하치칼라 주변 마을 도시 주민 시위 참여 폭력 시위 대상 이스라엘 텔아비브 여객기 탑승객 어린이 가운데 인공호흡기 장착 휠체어 어린이 포함 타스 통신 보도 이스라엘 다게스탄 최고 수준 여행 주의보 발령 가운데 폐쇄 마하치칼라 공항 모스크바 시각 오후 정상 운영', '블라디미르 푸틴 러시아 현지 크렘린 다게스탄 자치 공화국 공항 난동 사태 보안 사법 기관 책임자 소집 블라디미르 푸틴 러시아 다게스탄 자치 공화국 공항 발생 폭력 시위 우크라이나 서방 조장 발생 주장 푸틴 현지 다게스탄 공항 폭력 시위 정부 고위급 마하치칼라 발생 사건 우크라 서방 특수 정보 요원 소셜 미디어 선동 전날 러시아 남부 다게스탄 자치 공화국 수도 마하치칼라 공항 이스라엘 여객기 착륙 시위대 공항 터미널 출입구 난입 이스라엘 색출 공격 행동 배후 우크라이나 서방 비판 푸틴 서방 우크라 정권 러시아 포그롬 제정 러시아 유대인 학살 유래 대학살 종교 중동 상황 러시아 민족 종교 사회 이용 사회 안정 분열 시도 지적 사법 당국 사건 조치 주문 드미트리 페스코프 크렘린 대변인 브리핑 마하치칼라 공항 사건 외부 간섭 결과 악의 사람 가자지구 고통 이용 인구 무슬림 다게스탄 사람 자극 주장 마리야 자하 로바 러시아 외무부 대변인 성명 시위 외부 조율 도발 결과 범죄 이우 우크라이나 정권 직접 핵심 역할 수행 세르게이 리코프 다게스탄 자치 공화국 정부 수장 주민 시위 참여 호소 텔레 그램 채널 다게스탄 우크라 영토 급진 민족주의 단체 운영 신뢰 정보 나라 중동 이용 소문 강조 지적 러시아 출신 텔레 그램 창업자 파벨 로프 러시아 문제 채널 차단 로프 채널 다게스탄 채널 화면 갈무리 게시 폭력 요구 채널 텔레 그램 구글 애플 문명 세계 규정 위반 차단 러시아 일간 베스 티야 이스라엘 난민 비행기 다게스탄 도착 가짜 정보 기습 시위 보도 신문 소셜 미디어 계정 시위 요청 전파 남성 어린이 마하치칼라 주변 마을 도시 주민 시위 참여 문제 이스라엘 텔아비브 여객기 탑승객 어린이 가운데 인공호흡기 장착 휠체어 어린이 포함 타스 통신 보도 이스라엘 다게스탄 최고 수준 여행 주의보 발령 가운데 폐쇄 마하치칼라 공항 모스크바 시각 오후 정상 운영 푸틴 극도 혼란 중동 책임 미국 혼란 이익 미국 지배 엘리트 위성 국가 세계 안정 주요 수혜자 커비 국가 안보 대변인 브리핑 도중 고전 러시아식 수사 말장난 단언 나라 서방 연관 혐오 중상모략 단순 공박 다게스탄 성명 러시아 채널 관계자 지목 일리야 포노마레프 우크라이나 연관 반박', '다게스탄 공항 유대 시위대 난동 푸틴 러시아 우크라 주장 블라디미르 푸틴 러시아 모스크바 주재 모스크바 연합뉴스 블라디미르 푸틴 러시아 다게스탄 자치 공화국 공항 이스라엘 시위 배후 우크라이나 서방 주장 현지 통신 푸틴 다게스탄 공항 시위 우크라이나 서방 특수 정보 요원 사회관 계망 서비스 난동 전날 러시아 다게스탄 마하치칼라 공항 이스라엘 비행기 도착 소식 시위대 이스라엘 색출 국장 활주로 난입 사건 이스라엘 다게스탄 러시아 북캅카스 최고 수준 여행 경보 발령 러시아 국영 노보스티 통신 세르게이 리코프 다게스탄 정부 수장 시위 참여 호소 텔레 그램 채널 우크라 급진 민족주의 단체 운영 보도 리코프 수장 러시아 중동 이용 주장 다게스탄 채널 이스라엘 난민 비행기 소문 시위 부채 정부 관계자 외부 간섭 결과 러시아 정부 관계자 주장 드미트리 페스코프 크렘린 대변인 브리핑 마하치칼라 공항 사건 외부 간섭 결과 악의 사람 가자지구 고통 이용 인구 무슬림 다게스탄 사람 자극 마리야 자하 로바 러시아 외무부 대변인 성명 시위 외부 조율 도발 결과 범죄 이우 정권 직접 핵심 역할 수행 규정 푸틴 중동 혼란 책임 미국 목소리 혼란 이익 미국 지배 엘리트 위성 국가 세계 안정 주요 수혜자 미국 정부 러시아 주장 일축 커비 국가 안전 보장 전략 소통 조정관 푸틴 발언 고전 러시아 수사 표현 다게스탄 사건']</t>
+          <t>['트럼프 텍사스 파르 근처 국경 장벽 방문 왼쪽 지난해 버지니아 컬페퍼 만나 커뮤니티 칼리지 방문 트럼프 북부 하마스 연대 무장 단체 헤즈 볼라 테러리스트 반발 트럼프 전날 플로리다 웨스트 비치 집회 정부 안보 담당자 헤즈 볼라 북쪽 공격 희망 취약점 표현 동원 국방부 장관 멍청이 지칭 내년 대선 트럼프 맞대결 유력시 엑스 트위터 파괴 기도 테러리스트 베이츠 언론 담당 부보 좌관 성명 트럼프 발언 위험 제정신 지금 순수 트럼프 내년 대선 공화 경선 레이스 나선 티스 플로리다 주지사 일반인 사람 친구 동맹 대선 주자 마이크 펜스 헤즈 볼라 비판 트럼프 캠프 트럼프 공격 취약점 정부 무능 지적 의회 트럼프 하마스 무력 충돌 지휘 베냐민 네타냐후 총리 비판 공화 반발 네타냐후 실망 드론 폭격 가셈 이마니 혁명 수비대 사령관 살해 거론 통신 보도 트럼프 작전 작업 레이마 살해 전날 공격 불참 통보 실망 완벽 정확도 비비 네타냐후 총리 약칭 이마니 역내 세력 확장 군부 실권자 극비 방문 바그다드 공항 근처 무장 무인기 표적 공습 사망 트럼프 행정부 위협 방어 차원 이마니 제거', '트럼프 트럼프 무력 충돌 이슬람 무장 정파 하마스 연대 헤즈 볼라 하마스 보복 공습 베냐민 네타냐후 총리 비판 공화 안팎 논란 보도 트럼프 전날 플로리다주 웨스트팜비치 집회 정부 안보 담당자 헤즈 볼라 북쪽 공격 희망 취약 국방부 장관 멍청이 지칭 내년 대선 경쟁자 반발 트위터 파괴 기도 테러리스트 강조 베이츠 부대 변인 성명 트럼프 발언 위험 제정신 비판 지금 순수 트럼프 내년 대선 공화 경선 경쟁자 티스 플로리다 주지사 일반인 사람 친구 동맹 지적 대선 주자 마이크 펜스 헤즈 볼라 목소리 논란 트럼프 캠프 트럼프 공격 취약점 정부 무능 지적 해명 정치 트럼프 하마스 무력 충돌 지휘 네타냐후 총리 실망 비판 트럼프 거론 드론 폭격기 가셈 이마니 혁명 수비대 사령관 살해 트럼프 작전 레이마 살해 전날 공격 불참 통보 실망 완벽 정확도 비비 네타냐후 별명 부연 국민 영웅 이마니 극비 방문 바그다드 공항 근처 미군 무인기 폭격 사망 트럼프 행정부 위협 방어 차원 이마니 제거 이예림', '트럼프 로이터 무장 단체 하마스 연대 헤즈 볼라 국방부 장관 트럼프 하마스 연대 헤즈 볼라 공격 베냐민 네타냐후 총리 비판 도마 트럼프 공화 유력 대선 주자 안팎 비판 목소리 통신 트럼프 전날 플로리다 웨스트 비치 집회 정부 안보 담당자 헤즈 볼라 북쪽 공격 희망 취약점 헤즈 볼라 국방부 장관 멍청이 지칭 트럼프 드론 폭격 가셈 이마니 혁명 수비대 사령관 살해 언급 네타냐후 실망 작전 수개월 작업 레이마 살해 전날 공격 불참 통보 실망 완벽 정확도 비비 네타냐후 총리 약칭 이마니 역내 세력 확장 군부 실권자 극비 방문 바그다드 공항 근처 무장 무인기 표적 공습 사망 트럼프 행정부 위협 방어 차원 이마니 제거 트럼프 발언 정치 비판 목소리 내년 대선 트럼프 맞대결 예상 트위터 파괴 기도 테러리스트 베이츠 언론 담당 부보 좌관 성명 트럼프 발언 겨냥 위험 제정신 지금 순수 강조 트럼프 내년 대선 공화 경선 레이스 나선 티스 플로리다 주지사 일반인 사람 친구 동맹 지적 대선 주자 마이크 펜스 헤즈 볼라 논란 트럼프 캠프 트럼프 공격 취약점 정부 무능 지적 윤선영']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_러시아_지원_미국_총리</t>
+          <t>7_푸틴_다게스탄_우크라_공항</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['러시아', '지원', '미국', '총리', '정치', '입장', '장관', '전쟁']</t>
+          <t>['푸틴', '다게스탄', '우크라', '공항', '마하치칼라', '지원', '서방', '블라디미르', '시위', '공화국', '하원', '분쟁', '주장', '시위대', '외부']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['아르메니아 의원 수도 예레반 아르메니아 공화국 국회 참석 로마 규정 비준 통과 논의 연합뉴스 소련 국가 아르메니아 의회 현지 블라디미르 푸틴 러시아 체포 영장 발부 국제 형사 재판소 가입 러시아 우방국 아르메니아 반기 모양새 아제르바이잔 분쟁 러시아 방관 태도 불만 풀이 로이터 통신 아르메니아 의회 찬성 반대 표로 로마 규정 비준 통과 로마 규정 비준 국가 사법 관할 해당 안건 아르메니아 서명 유엔 사무총장 제출 절차 준일 기준 발효 예정 아르메니아 가입 결정 러시아 반발 비준 발효 아르메니아 푸틴 입국 체포 의무 우크라 전쟁 범죄 혐의 푸틴 체포 영장 발부 입국 협조 드미트리 페스코프 러시아 크렘린 대변인 아르메니아 동맹 우방국 양국 관계 관점 아르메니아 잘못 결정 비판 푸틴 이유 아르메니아 방문 포기 소련 아르메니아 러시아 주요 동맹국 아르메니아 소련 러시아 벨라루스 카자흐스탄 키르기스스탄 타지키스탄 군사 동맹 집단 안전 보장 조약 기구 가입 아제르바이잔 테러 작전 명분 아르메니아 분쟁 지역인 르노 카라바흐 규모 공습 감행 러시아 군사 개입 주저 양국 관계 르노 카라바흐 국제 아제르바이잔 영토 주민 아르메니아 분쟁 아르메니아 분리주의 세력 아르 공화국 군대 운영 독립 요구 아제르바이잔 하루 아르 공화국 항복 사태 아제르바이잔 점령군 위협 아르메니아 주민 피난길 탈출 행렬 아르메니아 러시아 보호 아제르바이잔 니콜 아르메니아 총리 러시아 평화 유지 파견 대응 비난 러시아 평화 유지 주둔 총리 러시아 집단 안전 보장 조약 기구 깊이 실망 탈퇴 의사 아르메니아 러시아 정서 아르 공화국 항복 아르메니아 수도 예레반 러시아 대사관 러시아 배신감 시위 러시아 앞마당 우방국 아르메니아 반기 전쟁 러시아 변국 영향력 전망 뉴욕 타임스 러시아 오랫동안 분쟁 중심 역할 우크라 전쟁 변국 주도 보도', '블라디미르 푸틴 러시아 중국 베이징 인민 회당 해상 실크 로드 국제 협력 정상 포럼 참석 연합뉴스 이스라엘 팔레스타인 무장 정파 하마스 무력 충돌 우크라 전쟁 러시아 호재 분석 미국 정치 폴리티 블라디미르 푸틴 러시아 생일 분쟁 하마스 푸틴 선물 표현 이스라엘 하마스 분쟁 러시아 유리 이유 정리 우크라 전쟁 국내외 시선 우크라이나 서방 지원 고갈 국제 사회 푸틴 질서 구축 우크라 전문가 분쟁 우크라 전쟁 집중 서방 시선 중동 분산 우크라이나 지원자 미국 이스라엘 이스라엘 베냐민 네타냐후 이스라엘 총리 향후 행보 논의 만약 지원 레바논 무장 세력 헤즈 볼라 개입 미국 병력 투입 시나리오 검토 미국 확전 방지 동지 해역 추진 항공모함 제럴드 포드 드와이트 아이젠하워 배치 상태 안보 싱크탱크 스팀슨 센터 미국 전쟁 직접 개입 행정부 우크라 전쟁 러시아 집중 중동 역할 입장 전망 내년 대선 푸틴 우크라 전쟁 반대 여론 경계 분쟁 국내 관심 월스트리트 저널 하마스 이스라엘 남부 기습 공격 러시아 이스라엘 가자지구 공습 서방 팔레스타인 시위 보도 주력 서방 관심 지원 고갈 우크라이나 서방 지원 미국 전선 강조 이스라엘 하마스 분쟁 장기전 경우 우크라 지원 여력 분석 지배 우크라 정보 당국 수장 키릴로 부다 노우 이스라엘 하마스 분쟁 걱정 상황 이스라엘 무기 탄약 문제 러시아 상황 긍정 러시아 외교관 콘스탄틴 가브 로프 이즈 베스 티야 인터뷰 사태 서방 우크라이나 포기 군사 지원 감소 전황 러시아 유리 주장 중동 전쟁 확대 러시아 서방 제재 무용지물 예상 중동 러시아 서방 석유 가스 수출 대체 공급지 역할 중동 국가 분쟁 에너지 위기 경우 서방 제재 무력 지적 러시아 단일 전선 균열 유럽 분쟁 사회 결속 약화 블룸버그 통신 진단 독일 프랑스 영국 반유대주의 범죄 팔레스타인 시위 사회 혼란 유럽연합 정상 분쟁 목소리 우크라 전쟁 중립 입장 인도 브라질 남아프리카 공화국 러시아 추가 파이낸셜 타임스 서방 일부 관리 그간 나라 국제법 위반 러시아 설득 미국 이스라엘 가자지구 공격 경고 주도 세계 질서 구축 기회 푸틴 국제 사회 질서 구축 기회 관측 러시아 미국 주요 지정학 경쟁국 사태 이용 균형 분석 푸틴 이달 발다이 클럽 러시아 임무 세계 질서 구축 강조 분쟁 러시아 이란 대척점 미국 비난 강화 이스라엘 거리 푸틴 네타냐후 총리 분쟁 발발 사태 러시아 유엔 안전 보장 사회 제출 초안 하마스 언급 전략 국제 문제 연구소 고문 하마스 우호 관계 팔레스타인 푸틴 중국 이란 서방 상대 세계 재편 중요 인물 부각 도움 분석 스팀슨 센터 지정학 사태 러시아 중국 이란 공식 동맹 분쟁 배후 증거 이점 분쟁 배후 러시아 관측 러시아 그동안 하마스 친분 지난해 우크라 전쟁 하마스 고위급 모스크바 방문 하마스 국민 지속 공격 가자지구 포위 구호물자 차단 반대 푸틴 입장 감사 성명 발표 러시아 분쟁 개입 증거 제임스 비확산 센터 한나 연구원 러시아 하마스 테러 조직 선언 러시아 시스템 이란 하마스 진출 러시아 하마스 광범위 군사 지원 알렉산드르 러시아 주재 이스라엘 대사도 러시아 개입', '세르게이 쇼이구 러시아 국방 장관 아미 자데 혁명 수비대 항공 우주 사령관 왼쪽 테헤란 항공 우주 산업 전시회 군수품 연합뉴스 이스라엘 팔레스타인 무장 정파 하마스 분쟁 격화 상황 서방 러시아 동태 파악 팔레스타인 자치 정부 지도부 사태 해결 러시아 방문 상황 가운데 현지 포린 폴리시 서방 정보 당국 하마스 기습 공격 배후 지목 이란 결속 여부 예의 주시 러시아 사태 물질 지원 하마스 커넥션 관여 정황 포착 서방 정보 당국자 평가 러시아 우크라 전쟁 계기 자살 드론 공수 군사 협력 강화 사태 악화 경우 개입 우려 이스라엘 하마스 제압 시설 공습 시나리오 부상 러시아 군사 지원 요청 관측 중동 안보 전문가 조너선 미국 안보 센터 선임 연구원 상황 러시아 방공 무기 체계 첨단 전투기 프로그램 개발 기술 지원 요청 우크라 전쟁 장기 러시아 의존도 이란 요구 중동 관심 우크라 유리 러시아 우크라 전세 카드 사태 거론 미국 북대서양 조약 기구 나토 회원국 관심 중동 우크라이나 군사 지원 상대 약화 유럽 각국 고위 관계자 러시아 서방 분열 추가 문제 나토 아르 티스 파브 릭스 라트비아 국방 장관 우려 전문가 미국 우크라이나 중동 전장 감당 황성우 한국 러시아 연구소 연구 교수 행정부 미국 정가 유대 입지 정치 여건 고려 경우 이스라엘 상황 우크라 전쟁 지원 유럽 주요 공산 크다 전비 부담 프랑스 독일 우크라이나 러시아 평화 협상 종용 러시아 입장 사태 유리 측면 이스라엘 우크라 무기 지원 러시아 이스라엘 우호 관계 중동 사태 개입 분석 세계 대전 이스라엘 이주한 러시아 유대인 비중 현재 이스라엘 러시아어 구사자 우크라 전쟁 직전 블라디미르 푸틴 베냐민 네타냐후 이스라엘 총리 회동 정도 양국 정상 관계 과거 러시아 이스라엘 행보 러시아 이스라엘 연말 레바논 시아파 무장 단체 헤즈 볼라 국경 침투 땅굴 파괴 작전 양국 시리아 외국 철수 논의 실무 그룹 구성 협력 이스라엘 우크라 전쟁 국면 서방 국가 중립 입장 우크라이나 러시아 미사일 공습 아이언 방어 체계 차례 지원 요청 이스라엘 이스라엘 러시아 드론 무기 제공 빌미 밀착 경계 지난해 피드 이스라엘 총리 드미트로 레바 우크라 외무 장관 러시아 테러리스트 국가 이란 우크라 세계 위험 회담 관여 푸틴 개전 나흘 러시아 사태 공식 입장 정중동 행보 크렘린 푸틴 모스크바 모하메드 이라크 총리 분쟁 포함 국제 정세 논의 팔레스타인 자치 정부 수반 마흐무드 압바스 시일 러시아 방문 중재 요청 발표 압델 하피즈 모스크바 주재 팔레스타인 특사 로이터 통신 압바스 수반 모스크바 합의 방문 크렘린 궁의 공식 성명 팔레스타인 자치 정부 국제 사회 팔레스타인 대표 하마스 무장 투쟁 노선 갈등 정치 적대 관계 이스라엘 서남쪽 가자지구 하마스 통치 팔레스타인 자치 정부 서안 지구 총괄 상황 압바스 수반 이스라엘 가자지구 공습 유엔 개입 호소 계획 관측 장세호 국가 안보 전략 연구원 연구 위원 그간 러시아 이스라엘 팔레스타인 공격 비판 입장 노골 언급 군사 관여 현재 상황 주시 전략 유지 단계']</t>
+          <t>['블라디미르 푸틴 다게스탄 자치 공화국 공항 발생 폭력 시위 서방 조장 발생 주장 푸틴 다게스탄 공항 폭력 시위 정부 고위급 참석 마하치칼라 발생 사건 우크라 서방 특수 정보 요원 소셜 미디어 선동 전날 남부 다게스탄 자치 공화국 수도 마하치칼라 공항 비행기 도착 시위대 공항 터미널 출입구 난입 색출 공격 행동 배후 서방 비판 푸틴 서방 우크라 정권 포그롬 제정 유대인 학살 유래 대학살 종교 중동 상황 민족 종교 사회 이용 사회 안정 분열 시도 지적 사법 당국 사건 조치 주문 푸틴 극도 혼란 중동 책임 비난 혼란 이익 지배 엘리트 위성 세계 안정 주요 수혜자 드미트리 페스코프 크렘린 대변인 브리핑 마하치칼라 공항 사건 외부 간섭 결과 악의 사람 고통 이용 인구 무슬림 다게스탄 사람 자극 주장 마리야 자하 로바 외무부 대변인 성명 시위 외부 조율 도발 결과 범죄 이우 정권 직접 핵심 역할 수행 일간 베스 티야 난민 비행기 다게스탄 도착 가짜 정보 기습 시위 보도 신문 소셜 미디어 계정 시위 요청 전파 남성 어린이 마하치칼라 주변 도시 주민 시위 참여 시위 다게스탄 수준 여행 주의보 발령 가운데 폐쇄 마하치칼라 공항 모스크바 시각 오후 정상 운영 박영서 논설위원 로이터', '블라디미르 푸틴 크렘린 다게스탄 자치 공화국 공항 난동 사태 보안 사법 기관 책임자 소집 블라디미르 푸틴 다게스탄 자치 공화국 공항 발생 폭력 시위 서방 조장 발생 주장 푸틴 다게스탄 공항 폭력 시위 정부 고위급 마하치칼라 발생 사건 우크라 서방 특수 정보 요원 소셜 미디어 선동 전날 남부 다게스탄 자치 공화국 수도 마하치칼라 공항 여객기 착륙 시위대 공항 터미널 출입구 난입 색출 공격 행동 배후 서방 비판 푸틴 서방 우크라 정권 포그롬 제정 유대인 학살 유래 대학살 종교 중동 상황 민족 종교 사회 이용 사회 안정 분열 시도 지적 사법 당국 사건 조치 주문 드미트리 페스코프 크렘린 대변인 브리핑 마하치칼라 공항 사건 외부 간섭 결과 악의 사람 고통 이용 인구 무슬림 다게스탄 사람 자극 주장 마리야 자하 로바 외무부 대변인 성명 시위 외부 조율 도발 결과 범죄 이우 정권 직접 핵심 역할 수행 세르게이 리코프 다게스탄 자치 공화국 정부 수장 주민 시위 참여 호소 텔레 그램 채널 다게스탄 우크라 영토 급진 민족주의 단체 운영 신뢰 정보 나라 중동 이용 소문 강조 지적 출신 텔레 그램 창업자 파벨 로프 문제 채널 차단 로프 채널 다게스탄 채널 화면 갈무리 게시 폭력 요구 채널 텔레 그램 구글 애플 문명 세계 규정 위반 차단 일간 베스 티야 난민 비행기 다게스탄 도착 가짜 정보 기습 시위 보도 신문 소셜 미디어 계정 시위 요청 전파 남성 어린이 마하치칼라 주변 도시 주민 시위 참여 문제 텔아비브 여객기 탑승객 어린이 가운데 인공호흡기 장착 휠체어 어린이 포함 타스 통신 보도 다게스탄 수준 여행 주의보 발령 가운데 폐쇄 마하치칼라 공항 모스크바 시각 오후 정상 운영 푸틴 극도 혼란 중동 책임 혼란 이익 지배 엘리트 위성 세계 안정 주요 수혜자 커비 안보 대변인 브리핑 도중 고전 러시아식 수사 말장난 단언 나라 서방 연관 혐오 중상모략 단순 공박 다게스탄 성명 채널 관계자 지목 일리야 포노마레프 연관 반박', '크렘린 외무부 다게스탄 정부 우크라 블라디미르 푸틴 타스 블라디미르 푸틴 타스 블라디미르 푸틴 겨냥 폭력 시위 서방 조장 주장 푸틴 다게스탄 공항 폭력 시위 정부 고위급 마하치칼라 발생 사건 우크라 서방 특수 정보 요원 소셜 미디어 선동 전날 남부 다게스탄 자치 공화국 수도 마하치칼라 공항 비행기 도착 시위대 색출 공항 출입구 활주로 습격 폭력 시위 체포 외신 푸틴 주장 근거 푸틴 증거 공항 폭력 시위 주장 커비 안전 보장 전략 소통 조정관 푸틴 주장 고전 표현 방식 사건 반박 푸틴 제외 당국 폭력 시위 외부 세력 입장 드미트리 페스코프 크렘린 대변인 브리핑 마하치칼라 공항 사건 외부 간섭 결과 악의 사람 고통 이용 인구 무슬림 다게스탄 사람 자극 주장 마리야 자하 로바 외무부 대변인 성명 시위 외부 조율 도발 결과 범죄 우크라 정권 직접 핵심 역할 수행 세르게이 리코프 다게스탄 자치 공화국 정부 수장 주민 시위 참여 호소 텔레 그램 채널 다게스탄 우크라 영토 급진 민족주의 단체 운영 신뢰 정보 나라 중동 이용 소문 강조 경제 권성진']</t>
         </is>
       </c>
     </row>
@@ -672,21 +672,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_테러_사건_국가_경찰</t>
+          <t>8_피라미드_페인트_주황색_루브르</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['테러', '사건', '국가', '경찰', '팔레스타인', '영상', '공격', '무장']</t>
+          <t>['피라미드', '페인트', '주황색', '루브르', '박물관', '활동가', '환경', '혁신', '단체', '건물', '파리', '최후', '유리', '효율', '단열']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['유로 예선전 직전 경기장 도심 발생 유로 축구 대회 예선전 벨기에 브뤼셀 현지 이슬람 국가 출신 주장 남성 총격 스웨덴인 사망 중상 팔레스타인 무장 정파 하마스 이스라엘 공격 미국 유럽 팔레스타인 유대 혐오 범죄 가운데 사건 우려 증폭 벨기에 일간 로이터 통신 보도 오후 브뤼셀 도심 테레트 광장 인근 스쿠터 남성 건물 입구 총탄 발사 목격자 남성 총격 아랍어 알라후 아크바르 남성 범행 스쿠터 총격 남성 사망 남성 중상 사망 남성 스웨덴 축구 대표 유니폼 벨기에 언론 총격 경기장 유로 네덜란드 예선전 직전 벨기에 경찰 튀니지 출신 브뤼셀 거주 남성 용의자 특정 추격 오전 하르베 이크 지구 카페 경찰 사살 소식통 망명 거부 벨기에 수사 당국 용의자 범행 동기 피해자 신원 구체 소셜 미디어 주장 남성 영상 출신 무슬림 이름 복수 스웨덴인 용서 총격 이스라엘 하마스 전쟁 팔레스타인 유대 혐오 범죄 발생 우려 고조 가운데 미국 시카고 팔레스타인 소년 무슬림 외친 주인 살해 프랑스 고등학교 이슬람 극단주의 성향 남성 흉기 교사 사망 오전 페이스북 시카고 살해 팔레스타인 소년 언급 보도 무슬림 이유 아이 사건 범죄 만약 아이 기독교인 살인자 무슬림 테러리즘 사건 발생 알렉산더르 더크 벨기에 총리 스웨덴 총리 조의 테러 대응 수위 최고 등급 군나르 스트롬 메르 스웨덴 법무 장관 소식 사태 파악 주력 스웨덴 무슬림 시위대 쿠란 극단 시위 여파 무슬림 세계 분노 테러 경보 등급 테러 위협 경계 이스라엘 하마스 전쟁 유럽 혐오 범죄 급증 프랑스 반유대주의 테러 유발 행위 연루 혐의 체포 주말 독일 베를린 유대 거주 건물 다윗 낙서 발견 영국 런던 하마스 공격 반유대주의 사건 신고 지난해 기간 급증 정원식', '팔레스타인 무장 정파 하마스 이스라엘 공격 서방 국가 유대 아랍 겨냥 증오 범죄 희생자 속출 미국 유럽 각국 테러 경보 상향 경계 강화 최영주 보도 유로 축구 대회 예선전 저녁 벨기에 브뤼셀 도심 신원 남성 시민 차별 총격 스웨덴 축구 대표 유니폼 스웨덴인 술레 이마네 목격자 총격 사건 충격 남성 비명 소리 축구 경기 중단 테러 대비 자정 경기장 캐롤린 로쉬 축구 당황 혼란 범인 총격 소셜 미디어 대원 범행 자처 영상 경찰 지인 남성 용의자 지목 추격 이튿날 사살 벨기에 당국 사건 유대 겨냥 이슬람 극단주의 공격 테러 경보 최고 수준 알렉산더르 더크 벨기에 총리 테러리즘 전쟁 스웨덴 친구 프랑스 이슬람 극단주의 흉기 고등학교 교사 사건 안전 경보 최고 단계 상향 미국 팔레스타인 소년 주인 증오 범죄 목숨 소셜 미디어 위협 사례 하마스 이스라엘 기습 공격 분쟁 서방 국가 반유대주의 이슬람 혐오 정서 증오 범죄 속출 시민 안전 위협 최영주 영상 편집 이영훈 최영주', '팔레스타인 무장 정파 하마스 이스라엘 공격 서방 국가 유대 아랍 겨냥 증오 범죄 희생자 속출 미국 유럽 각국 테러 경보 상향 경계 강화 최영주 보도 유로 축구 대회 예선전 저녁 벨기에 브뤼셀 도심 신원 남성 시민 차별 총격 스웨덴 축구 대표 유니폼 스웨덴인 술레 이마네 목격자 총격 사건 충격 남성 비명 소리 축구 경기 중단 테러 대비 자정 경기장 캐롤린 로쉬 축구 당황 혼란 범인 총격 소셜 미디어 대원 범행 자처 영상 경찰 지인 남성 용의자 지목 추격 이튿날 사살 벨기에 당국 사건 유대 겨냥 이슬람 극단주의 공격 테러 경보 최고 수준 알렉산더르 더크 벨기에 총리 테러리즘 전쟁 스웨덴 친구 프랑스 이슬람 극단주의 흉기 고등학교 교사 사건 안전 경보 최고 단계 상향 미국 팔레스타인 소년 주인 증오 범죄 목숨 소셜 미디어 위협 사례 하마스 이스라엘 기습 공격 분쟁 서방 국가 반유대주의 이슬람 혐오 정서 증오 범죄 속출 시민 안전 위협 최영주 영상 편집 이영훈 최영주']</t>
+          <t>['루브르 박물관 유리 피라미드 주황색 페인 환경 단체 활동가 엑스 환경 단체 파리 루브르 박물관 피라미드 주황색 페인트 정부 건물 너지 효율 적극 시각 일간 피가로 오전 환경 단체 최후 혁신 소속 오전 파리 루브르 박물관 중앙 광장 피라미드 주황색 페인트 환경 단체 엑스 트위터 상황 영상 피라미드 주황색 페인트 풍선 풍선 유리 피라미드 주황색 보안 출동 저지 활동가 피라미드 페인트 활동가 박수 환호 페인트 가담 활동가 현장 보안 요원 입건 여부 활동가 건물 에너지 효율 정부 혁신 대책 마련 내년도 예산안 심사 의원 건물 단열 시스템 개보 책정 주장 단체 측은 정부 혁신 생명 개정안 투표 거부 인류 파괴 정책 정부 국민 보호 강제 저항 슬픔 최후 혁신 활동가 정부 기후 대응 비난 주요 건물 훼손 파리 호텔 정부 청사 보보 광장 시위 앵드르에루아르 거리 주황색 페인트 마구잡이 벌금형 선고 손해 배상금 청구', '환경 단체 활동가 파리 루브르 박물관 유리 피라미드 주황색 페인트 엑스 트위터 캡처 환경 단체 파리 루브르 박물관 루브르 피라미드 주황색 페인트 단체 정부 건물 너지 효율 적극 주장 일간 피가로 오전 환경 단체 최후 혁신 소속 오전 루브르 박물관 중앙 광장 피라미드 주황색 페인트 환경 단체 엑스 트위터 상황 영상 영상 피라미드 주황색 페인트 풍선 환경 단체 활동가 파리 루브르 박물관 상징 유리 피라미드 주황색 페인트 풍선 엑스 트위터 캡처 풍선 유리 피라미드 곳곳 주황색 보안 출동 저지 활동가 피라미드 페인트 활동가 환호 페인트 가담 일부 활동가 보안 요원 일부 언론 활동가 건물 너지 효율 정부 혁신 대책 마련 주장 단체 내년도 예산안 심사 의원 건물 단열 시스템 개보 책정 요구 단체 측은 정부 혁신 생명 개정안 투표 거부 인류 파괴 정책 정부 국민 보호 강제 저항 슬픔 최후 혁신 활동가 정부 기후 대응 비난 주요 건물 훼손 파리 호텔 정부 청사 보보 광장 시위 앵드르에루아르 거리 주황색 페인트 벌금형 선고 손해 배상금 청구', '환경 단체 활동가 파리 루브르 박물관 상징 유리 피라미드 주황색 페인트 엑스 트위터 캡처 환경 단체 파리 루브르 박물관 상징 루브르 피라미드 주황색 페인트 정부 건물 너지 효율 적극 주장 일간 피가로 오전 환경 단체 최후 혁신 소속 오전 파리 루브르 박물관 중앙 광장 피라미드 주황색 페인트 환경 단체 엑스 트위터 상황 영상 영상 피라미드 주황색 페인트 풍선 풍선 유리 피라미드 곳곳 주황색 보안 출동 저지 활동가 피라미드 페인트 활동가 손뼉 환호 페인트 가담 일부 활동가 보안 요원 일부 활동가 건물 에너지 효율 정부 혁신 대책 마련 주장 내년도 예산안 심사 의원 건물 단열 시스템 개보 책정 요구 단체 측은 정부 혁신 생명 개정안 투표 거부 인류 파괴 정책 정부 국민 보호 강제 저항 슬픔 최후 혁신 활동가 정부 기후 대응 비난 주요 건물 훼손 파리 호텔 정부 청사 보보 광장 시위 앵드르에루아르 거리 주황색 페인트 마구잡이 벌금형 선고 손해 배상금 청구']</t>
         </is>
       </c>
     </row>
@@ -695,21 +695,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_하마스_사회_팔레스타인_정파</t>
+          <t>9_튀르_쿠르드_테러_노동자당</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['하마스', '사회', '팔레스타인', '정파', '중동', '이스라엘', '현지', '테러']</t>
+          <t>['튀르', '쿠르드', '테러', '노동자당', '세력', '앙카라', '폭탄', '쿠르드족', '내무부', '의회', '에르', '개원', '용의자', '자폭', '북부']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['하마스 공습 파손 차량 조사 이스라엘 군인 연합뉴스 파이낸셜 스위스 대학 강사 소셜 네트워크 서비스 팔레스타인 무장 정파 하마스 이스라엘 기습 공격 옹호 해고 현지 스위스 인포 현지 스위스 베른 하마스 공격 옹호 논평 작성 강사 예고 해임 보도 베른 공식 보도 자료 대학 대중 반응 촉발 전례 사건 직면 종류 폭력 행동 비난 강사 논란 게시물 용납 강조 논란 중심 강사 엑스 트위터 하마스 공격 생일 최고 선물 게시물 하마스 이스라엘 습격 영상 샬롬 평안 안식일 강사 작성 해당 게시물 작성 하마스 이스라엘 차별 포격 감행 유대교 안식일 하마스 로켓 천발 이스라엘 겨냥 베른 강사 행동 대학 교육 신뢰 해고 결정 강사 중동 무슬림 사회 연구소 행정 조사 해당 연구소 소장 조사 동안 직무 배제 베른주 검찰청 해당 강사 게시물 형법 저촉 조사', '팔레스타인 가자지구 발사 로켓 이스라엘 저고도 방공 아이언 요격 연합뉴스 스위스 수도 베른 주립 강사 팔레스타인 무장 정파 하마스 이스라엘 공습 옹호 해고 베른 현지 보도 자료 대학 중동 무슬림 사회 연구소 소속 강사 해고 베른 대학 대중 파장 전례 사건 직면 종류 폭력 행동 비난 논란 게시물 용납 베른 강사 하마스 이스라엘 차별 포격 감행 직후 트위터 하마스 공격 생일 최고 선물 게시물 하마스 이스라엘 습격 영상 샬롬 평안 안식일 하마스 로켓포 유대교 안식일 베른 베른주 재정 지원 규제 주립 종합 대학 대학 강사 행동 대학 교육 신뢰 해고 결정 베른 강사 중동 무슬림 사회 연구소 행정 조사 연구소 소장 조사 동안 직무 배제 베른주 검찰청 강사 게시 행위 형법 저촉 조사 남영', '팔레스타인 무장 정파 하마스 이스라엘 공습 옹호 게재 대학 강사 스위스 베른 보도 자료 베른 스위스 수도 베른 주립 강사 팔레스타인 무장 정파 하마스 이스라엘 공습 옹호 소셜 미디어 해고 베른 현지 보도 자료 중동 무슬림 사회 연구소 소속 강사 해고 대학 대학 대중 파문 전례 사건 직면 종류 폭력 행동 비난 소셜 미디어 논란 게시물 용납 베른 대학 소속 강사 하마스 이스라엘 차별 포격 감행 직후 엑스 트위터 하마스 공격 생일 최고 선물 게시물 하마스 이스라엘 습격 영상 샬롬 평안 안식일 하마스 로켓포 유대교 안식일 베른 베른주 재정 지원 규제 주립 종합 대학 대학 강사 행동 대학 교육 신뢰 해고 결정 대학 강사 중동 무슬림 사회 연구소 행정 조사 연구소 소장 조사 동안 직무 배제 베른주 검찰청 강사 게시 행위 형법 저촉 조사']</t>
+          <t>['레제프 이프 에르 튀르 의회 개원식 참석 개원 앙카라 쿠르드 노동자당 요원 차량 폭탄 테러 발생 튀르 수도 앙카라 발생 폭탄 테러 보복 명분 북부 쿠르드 무장 세력 근거지 공격 레제프 이프 에르 튀르 테러리스트 목표 달성 응징 예고 통신 튀르 국방부 성명 북부 메티 테러리스트 목표물 공습 동굴 방공호 저장고 쿠르드 노동자당 시설 파괴 요원 사살 주장 오전 튀르 의회 정부 부처 청사 밀집 앙카라 도심 차량 폭탄 테러 발생 튀르 의회 하계 휴회 충격 외신 앙카라 테러 차량 폭탄 테러 보도 이스탄불 지난해 크릴 거리 폭탄 테러 튀르 거점 북부 북부 일부 공습 튀르 내무부 사회관 계망 서비스 테러리스트 소형차 내무부 보안 총국 입구 도착 공격 감행 용의자 가운데 자폭 경찰 사살 테러 소행 의회 개원 예정 에르 시민 평화 안전 위협 악당 목표 달성 튀르 외부 무장 세력 남부 국경 강조 일각 테러 북대서양 조약 기구 나토 가입 영향 분석 나토 회원국 튀르 의회 회기 나토 가입 동의 비준 논의 예정 튀르 나토 가입 찬성 조건 관련자 신병 요구 손우성', '쿠르드 무장 단체 튀르 보복 공습 사살 튀르 예의 행정 수도 앙카라 폭탄 테러 발생 분리 독립 요구 쿠르드 무장 세력 쿠르드 노동자당 테러 소행 쿠르드족 탄압 레제프 이프 에르 튀르 쿠르드 정책 심화 국방부 테러 공습 사살 튀르 당국 오전 내무부 청사 입구 발생 차량 폭탄 테러 용의자 조직원 확인 신원 확인 자폭 경찰 사살 경찰관 부상 민간 사상자 쿠르드 통신 불멸 여단 소속 희생 작전 소행 주장 앙카라 도심 폭탄 차량 폭발 배후 지목 에르 의회 개원 예정 수도 복판 테러 발생 강력 대응 천명 의회 시민 평화 안전 위협 테러 목표 달성 개원 예정 일대 거주 쿠르드족 추산 세계 최대 나라 민족 튀르 튀르 인구 차지 결성 쿠르드족 주요 단체 급진주의 성향 튀르 남동부 북부 무장 투쟁 중심 독립 중립국 지난해 우크라 침공 북대서양 조약 기구 나토 가입 나토 회원국 튀르 배경 자국 테러리스트 정부 조처 부족 카이로 김기윤 특파원', '의회 개원 행정 수도 복판 테러 에르 의회 방문 튀르 예의 행정 수도 앙카라 폭탄 테러 발생 분리 독립 요구 쿠르드 무장 세력 쿠르드 노동자당 테러 소행 쿠르드족 탄압 레제프 이프 에르 튀르 쿠르드 정책 심화 국방부 테러 공습 사살 튀르 당국 오전 내무부 청사 입구 발생 차량 폭탄 테러 용의자 조직원 확인 신원 확인 자폭 경찰 사살 경찰관 부상 민간 사상자 쿠르드 통신 불멸 여단 소속 희생 작전 소행 주장 앙카라 도심 폭탄 차량 폭발 배후 지목 에르 의회 개원 예정 수도 복판 테러 발생 강력 대응 천명 의회 시민 평화 안전 위협 테러 목표 달성 개원 예정 일대 거주 쿠르드족 추산 세계 최대 나라 민족 튀르 튀르 인구 차지 에르 집권 쿠르드족 탄압 고유 언어 역사 교육 복장 금지 결성 쿠르드족 주요 단체 급진주의 성향 튀르 남동부 북부 무장 투쟁 중심 독립 중립국 지난해 우크라 침공 북대서양 조약 기구 나토 가입 나토 회원국 튀르 배경 자국 테러리스트 정부 조처 부족 카이로 김기윤 특파원']</t>
         </is>
       </c>
     </row>
